--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -1197,7 +1197,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="342">
+  <cellStyleXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1540,8 +1540,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1623,8 +1627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="342">
+  <cellStyles count="346">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1795,6 +1801,8 @@
     <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1965,6 +1973,8 @@
     <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2298,7 +2308,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13486,107 +13496,201 @@
       <c r="AG113" s="37"/>
     </row>
     <row r="114" spans="1:33">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B114" s="50">
         <v>0.67174513199999997</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="50">
         <v>0.77210999999999996</v>
       </c>
-      <c r="D114" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="37">
+      <c r="D114" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="50">
         <v>0.45065945600000001</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="50">
         <v>0.70910333299999995</v>
       </c>
-      <c r="G114" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="37">
+      <c r="G114" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="50">
         <v>1.3623547060000001</v>
       </c>
-      <c r="I114" s="37">
+      <c r="I114" s="50">
         <v>2.5824500000000001</v>
       </c>
-      <c r="J114" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="K114" s="37">
+      <c r="J114" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" s="50">
         <v>3</v>
       </c>
-      <c r="L114" s="37">
-        <v>0</v>
-      </c>
-      <c r="M114" s="38">
-        <v>0</v>
-      </c>
-      <c r="N114" s="37">
+      <c r="L114" s="50">
+        <v>0</v>
+      </c>
+      <c r="M114" s="51">
+        <v>0</v>
+      </c>
+      <c r="N114" s="50">
         <v>2</v>
       </c>
-      <c r="O114" s="38">
+      <c r="O114" s="51">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P114" s="38">
+      <c r="P114" s="51">
         <v>2.06E-2</v>
       </c>
-      <c r="Q114" s="37" t="s">
+      <c r="Q114" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="R114" s="37">
+      <c r="R114" s="50">
         <v>8.1743260999999998E-2</v>
       </c>
-      <c r="S114" s="37">
+      <c r="S114" s="50">
         <v>8.4103281000000002E-2</v>
       </c>
-      <c r="T114" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="U114" s="37">
+      <c r="T114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="U114" s="50">
         <v>0.20594064500000001</v>
       </c>
-      <c r="V114" s="37">
+      <c r="V114" s="50">
         <v>0.28917367500000002</v>
       </c>
-      <c r="W114" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="X114" s="37">
+      <c r="W114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="X114" s="50">
         <v>1.88154471</v>
       </c>
-      <c r="Y114" s="37">
+      <c r="Y114" s="50">
         <v>2.884387555</v>
       </c>
-      <c r="Z114" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA114" s="39">
+      <c r="Z114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA114" s="52">
         <v>8.7619026000000003E-2</v>
       </c>
-      <c r="AB114" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC114" s="39">
+      <c r="AB114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC114" s="52">
         <v>0.13104374199999999</v>
       </c>
-      <c r="AD114" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE114" s="39">
+      <c r="AD114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE114" s="52">
         <v>0.27016949899999998</v>
       </c>
-      <c r="AF114" s="37" t="s">
+      <c r="AF114" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:33">
-      <c r="A115" t="s">
+      <c r="A115" s="37" t="s">
         <v>154</v>
       </c>
+      <c r="B115" s="37">
+        <v>0.78489376600000005</v>
+      </c>
+      <c r="C115" s="37">
+        <v>0.82933425900000002</v>
+      </c>
+      <c r="D115" s="37">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="E115" s="37">
+        <v>0.72968633800000005</v>
+      </c>
+      <c r="F115" s="37">
+        <v>0.853999815</v>
+      </c>
+      <c r="G115" s="37">
+        <v>0.61212</v>
+      </c>
+      <c r="H115" s="37">
+        <v>3.8010456289999999</v>
+      </c>
+      <c r="I115" s="37">
+        <v>4.6863274070000003</v>
+      </c>
+      <c r="J115" s="37">
+        <v>2.2832666669999999</v>
+      </c>
+      <c r="K115" s="37">
+        <v>57</v>
+      </c>
+      <c r="L115" s="37">
+        <v>3</v>
+      </c>
+      <c r="M115" s="38">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="N115" s="37">
+        <v>43</v>
+      </c>
+      <c r="O115" s="38">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="P115" s="38">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="Q115" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="R115" s="37">
+        <v>8.7603591999999994E-2</v>
+      </c>
+      <c r="S115" s="37">
+        <v>4.7506618E-2</v>
+      </c>
+      <c r="T115" s="37">
+        <v>7.6415636999999995E-2</v>
+      </c>
+      <c r="U115" s="37">
+        <v>0.27160592</v>
+      </c>
+      <c r="V115" s="37">
+        <v>0.22284955200000001</v>
+      </c>
+      <c r="W115" s="37">
+        <v>0.34427455400000001</v>
+      </c>
+      <c r="X115" s="37">
+        <v>2.0267562959999998</v>
+      </c>
+      <c r="Y115" s="37">
+        <v>1.883126442</v>
+      </c>
+      <c r="Z115" s="37">
+        <v>3.070628503</v>
+      </c>
+      <c r="AA115" s="48">
+        <v>1.9240799999999999E-8</v>
+      </c>
+      <c r="AB115" s="39">
+        <v>0.11289729599999999</v>
+      </c>
+      <c r="AC115" s="40">
+        <v>1.0736800000000001E-4</v>
+      </c>
+      <c r="AD115" s="39">
+        <v>0.17603527399999999</v>
+      </c>
+      <c r="AE115" s="40">
+        <v>7.0059899999999999E-4</v>
+      </c>
+      <c r="AF115" s="39">
+        <v>0.15588832</v>
+      </c>
+      <c r="AG115" s="37"/>
     </row>
     <row r="116" spans="1:33">
       <c r="A116" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t xml:space="preserve">*note: this one had 38 mutations but they seem to be wrong </t>
+  </si>
+  <si>
+    <t>2.6965E+308</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2311,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A116" sqref="A116:AG116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13693,9 +13696,103 @@
       <c r="AG115" s="37"/>
     </row>
     <row r="116" spans="1:33">
-      <c r="A116" t="s">
+      <c r="A116" s="37" t="s">
         <v>155</v>
       </c>
+      <c r="B116" s="37">
+        <v>0.77416603299999998</v>
+      </c>
+      <c r="C116" s="37">
+        <v>0.80154400000000003</v>
+      </c>
+      <c r="D116" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="E116" s="37">
+        <v>0.64883363900000002</v>
+      </c>
+      <c r="F116" s="37">
+        <v>0.77370799999999995</v>
+      </c>
+      <c r="G116" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H116" s="37">
+        <v>3.3510703610000001</v>
+      </c>
+      <c r="I116" s="37">
+        <v>4.5971760000000002</v>
+      </c>
+      <c r="J116" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="K116" s="37">
+        <v>5</v>
+      </c>
+      <c r="L116" s="37">
+        <v>0</v>
+      </c>
+      <c r="M116" s="38">
+        <v>0</v>
+      </c>
+      <c r="N116" s="37">
+        <v>4</v>
+      </c>
+      <c r="O116" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="P116" s="38">
+        <v>2.63E-2</v>
+      </c>
+      <c r="Q116" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="R116" s="37">
+        <v>6.7591354000000006E-2</v>
+      </c>
+      <c r="S116" s="37">
+        <v>8.5082536E-2</v>
+      </c>
+      <c r="T116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U116" s="37">
+        <v>0.26795622899999999</v>
+      </c>
+      <c r="V116" s="37">
+        <v>0.30015816899999997</v>
+      </c>
+      <c r="W116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="X116" s="37">
+        <v>2.1519920090000002</v>
+      </c>
+      <c r="Y116" s="37">
+        <v>3.4621795120000001</v>
+      </c>
+      <c r="Z116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA116" s="39">
+        <v>0.25683040400000001</v>
+      </c>
+      <c r="AB116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC116" s="39">
+        <v>0.203832708</v>
+      </c>
+      <c r="AD116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE116" s="39">
+        <v>0.23367737399999999</v>
+      </c>
+      <c r="AF116" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG116" s="37"/>
     </row>
     <row r="117" spans="1:33">
       <c r="A117" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -949,9 +949,6 @@
   </si>
   <si>
     <t xml:space="preserve">*note: this one had 38 mutations but they seem to be wrong </t>
-  </si>
-  <si>
-    <t>2.6965E+308</t>
   </si>
 </sst>
 </file>
@@ -1200,9 +1197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="346">
+  <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1633,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="346">
+  <cellStyles count="356">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1806,6 +1813,11 @@
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1978,6 +1990,11 @@
     <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2311,7 +2328,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:AG116"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13705,8 +13722,8 @@
       <c r="C116" s="37">
         <v>0.80154400000000003</v>
       </c>
-      <c r="D116" s="73" t="s">
-        <v>310</v>
+      <c r="D116" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="E116" s="37">
         <v>0.64883363900000002</v>
@@ -13714,8 +13731,8 @@
       <c r="F116" s="37">
         <v>0.77370799999999995</v>
       </c>
-      <c r="G116" s="73" t="s">
-        <v>310</v>
+      <c r="G116" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="H116" s="37">
         <v>3.3510703610000001</v>
@@ -13723,8 +13740,8 @@
       <c r="I116" s="37">
         <v>4.5971760000000002</v>
       </c>
-      <c r="J116" s="73" t="s">
-        <v>310</v>
+      <c r="J116" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="K116" s="37">
         <v>5</v>
@@ -13795,9 +13812,103 @@
       <c r="AG116" s="37"/>
     </row>
     <row r="117" spans="1:33">
-      <c r="A117" t="s">
+      <c r="A117" s="37" t="s">
         <v>156</v>
       </c>
+      <c r="B117" s="37">
+        <v>0.72959668499999997</v>
+      </c>
+      <c r="C117" s="37">
+        <v>0.80373000000000006</v>
+      </c>
+      <c r="D117" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="37">
+        <v>0.61217288000000003</v>
+      </c>
+      <c r="F117" s="37">
+        <v>0.77825</v>
+      </c>
+      <c r="G117" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="37">
+        <v>3.046977101</v>
+      </c>
+      <c r="I117" s="37">
+        <v>3.9909349999999999</v>
+      </c>
+      <c r="J117" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117" s="37">
+        <v>2</v>
+      </c>
+      <c r="L117" s="37">
+        <v>0</v>
+      </c>
+      <c r="M117" s="38">
+        <v>0</v>
+      </c>
+      <c r="N117" s="37">
+        <v>1</v>
+      </c>
+      <c r="O117" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="P117" s="38">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Q117" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="R117" s="37">
+        <v>0.109386293</v>
+      </c>
+      <c r="S117" s="37">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="T117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U117" s="37">
+        <v>0.23279208900000001</v>
+      </c>
+      <c r="V117" s="37">
+        <v>0.15106</v>
+      </c>
+      <c r="W117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="X117" s="37">
+        <v>1.853748602</v>
+      </c>
+      <c r="Y117" s="37">
+        <v>0.79342500000000005</v>
+      </c>
+      <c r="Z117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA117" s="40">
+        <v>3.5224235999999999E-2</v>
+      </c>
+      <c r="AB117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC117" s="39">
+        <v>0.18255339600000001</v>
+      </c>
+      <c r="AD117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE117" s="39">
+        <v>0.17206608200000001</v>
+      </c>
+      <c r="AF117" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG117" s="37"/>
     </row>
     <row r="118" spans="1:33">
       <c r="A118" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -1197,9 +1197,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1640,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="364">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1818,6 +1826,10 @@
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1995,6 +2007,10 @@
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2328,7 +2344,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13911,13 +13927,200 @@
       <c r="AG117" s="37"/>
     </row>
     <row r="118" spans="1:33">
-      <c r="A118" t="s">
+      <c r="A118" s="50" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
-      <c r="A119" t="s">
+      <c r="B118" s="50">
+        <v>0.70056184300000002</v>
+      </c>
+      <c r="C118" s="50">
+        <v>0.76923714300000001</v>
+      </c>
+      <c r="D118" s="50">
+        <v>0.38532</v>
+      </c>
+      <c r="E118" s="50">
+        <v>0.54255731200000001</v>
+      </c>
+      <c r="F118" s="50">
+        <v>0.691172381</v>
+      </c>
+      <c r="G118" s="50">
+        <v>0.17638999999999999</v>
+      </c>
+      <c r="H118" s="50">
+        <v>2.4728593550000002</v>
+      </c>
+      <c r="I118" s="50">
+        <v>3.8952247619999998</v>
+      </c>
+      <c r="J118" s="50">
+        <v>-0.17695</v>
+      </c>
+      <c r="K118" s="50">
+        <v>22</v>
+      </c>
+      <c r="L118" s="50">
+        <v>1</v>
+      </c>
+      <c r="M118" s="51">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="N118" s="50">
+        <v>10</v>
+      </c>
+      <c r="O118" s="51">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="P118" s="51">
+        <v>6.13E-2</v>
+      </c>
+      <c r="Q118" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="R118" s="50">
+        <v>9.6321973000000005E-2</v>
+      </c>
+      <c r="S118" s="50">
+        <v>5.6975985E-2</v>
+      </c>
+      <c r="T118" s="50">
+        <v>0</v>
+      </c>
+      <c r="U118" s="50">
+        <v>0.22665052699999999</v>
+      </c>
+      <c r="V118" s="50">
+        <v>0.16991525099999999</v>
+      </c>
+      <c r="W118" s="50">
+        <v>0</v>
+      </c>
+      <c r="X118" s="50">
+        <v>1.9460974120000001</v>
+      </c>
+      <c r="Y118" s="50">
+        <v>1.7894613260000001</v>
+      </c>
+      <c r="Z118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="62">
+        <v>1.7899800000000001E-5</v>
+      </c>
+      <c r="AB118" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC118" s="61">
+        <v>4.4665999999999998E-4</v>
+      </c>
+      <c r="AD118" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE118" s="61">
+        <v>9.4775899999999995E-4</v>
+      </c>
+      <c r="AF118" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG118" s="50"/>
+    </row>
+    <row r="119" spans="1:33" s="3" customFormat="1">
+      <c r="A119" s="33" t="s">
         <v>159</v>
+      </c>
+      <c r="B119" s="33">
+        <v>0.78297245746691879</v>
+      </c>
+      <c r="C119" s="33">
+        <v>0.81444550000000004</v>
+      </c>
+      <c r="D119" s="33">
+        <v>0.64183499999999993</v>
+      </c>
+      <c r="E119" s="33">
+        <v>0.66786981096408315</v>
+      </c>
+      <c r="F119" s="33">
+        <v>0.83100924999999992</v>
+      </c>
+      <c r="G119" s="33">
+        <v>0.23880499999999999</v>
+      </c>
+      <c r="H119" s="33">
+        <v>3.4628814933837426</v>
+      </c>
+      <c r="I119" s="33">
+        <v>4.8905754999999997</v>
+      </c>
+      <c r="J119" s="33">
+        <v>0.16383999999999999</v>
+      </c>
+      <c r="K119" s="33">
+        <v>42</v>
+      </c>
+      <c r="L119" s="33">
+        <v>2</v>
+      </c>
+      <c r="M119" s="34">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N119" s="33">
+        <v>34</v>
+      </c>
+      <c r="O119" s="34">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="P119" s="34">
+        <v>0.12454212454212454</v>
+      </c>
+      <c r="Q119" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="R119" s="33">
+        <v>5.3838050416037522E-2</v>
+      </c>
+      <c r="S119" s="33">
+        <v>5.8283829616369597E-2</v>
+      </c>
+      <c r="T119" s="33">
+        <v>6.9355E-2</v>
+      </c>
+      <c r="U119" s="33">
+        <v>0.23329789641690743</v>
+      </c>
+      <c r="V119" s="33">
+        <v>0.18742501886604546</v>
+      </c>
+      <c r="W119" s="33">
+        <v>7.9994999999999983E-2</v>
+      </c>
+      <c r="X119" s="33">
+        <v>2.072481049878006</v>
+      </c>
+      <c r="Y119" s="33">
+        <v>1.5818360043932334</v>
+      </c>
+      <c r="Z119" s="33">
+        <v>1.7297899999999999</v>
+      </c>
+      <c r="AA119" s="35">
+        <v>1.00744556340475E-3</v>
+      </c>
+      <c r="AB119" s="36">
+        <v>8.95776654877493E-2</v>
+      </c>
+      <c r="AC119" s="35">
+        <v>3.2379519804012802E-6</v>
+      </c>
+      <c r="AD119" s="35">
+        <v>3.4191403825158201E-2</v>
+      </c>
+      <c r="AE119" s="35">
+        <v>1.9349853378783098E-6</v>
+      </c>
+      <c r="AF119" s="36">
+        <v>8.2196941567393794E-2</v>
       </c>
     </row>
     <row r="120" spans="1:33">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -1197,7 +1197,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="364">
+  <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1562,8 +1562,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1647,8 +1649,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="364">
+  <cellStyles count="366">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1830,6 +1833,7 @@
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2011,6 +2015,7 @@
     <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2344,7 +2349,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:XFD119"/>
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13630,7 +13635,7 @@
       </c>
     </row>
     <row r="115" spans="1:33">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="53" t="s">
         <v>154</v>
       </c>
       <c r="B115" s="37">
@@ -14026,7 +14031,7 @@
       <c r="AG118" s="50"/>
     </row>
     <row r="119" spans="1:33" s="3" customFormat="1">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="83" t="s">
         <v>159</v>
       </c>
       <c r="B119" s="33">
@@ -14124,9 +14129,103 @@
       </c>
     </row>
     <row r="120" spans="1:33">
-      <c r="A120" t="s">
+      <c r="A120" s="37" t="s">
         <v>160</v>
       </c>
+      <c r="B120" s="37">
+        <v>0.711239065</v>
+      </c>
+      <c r="C120" s="37">
+        <v>0.80054444400000002</v>
+      </c>
+      <c r="D120" s="37">
+        <v>0.6461325</v>
+      </c>
+      <c r="E120" s="37">
+        <v>0.54664379500000004</v>
+      </c>
+      <c r="F120" s="37">
+        <v>0.80398777799999999</v>
+      </c>
+      <c r="G120" s="37">
+        <v>0.42745499999999997</v>
+      </c>
+      <c r="H120" s="37">
+        <v>2.5746136329999998</v>
+      </c>
+      <c r="I120" s="37">
+        <v>4.5095311110000003</v>
+      </c>
+      <c r="J120" s="37">
+        <v>2.0155924999999999</v>
+      </c>
+      <c r="K120" s="37">
+        <v>14</v>
+      </c>
+      <c r="L120" s="37">
+        <v>4</v>
+      </c>
+      <c r="M120" s="38">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N120" s="37">
+        <v>7</v>
+      </c>
+      <c r="O120" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="P120" s="38">
+        <v>3.85E-2</v>
+      </c>
+      <c r="Q120" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="R120" s="37">
+        <v>0.11977779700000001</v>
+      </c>
+      <c r="S120" s="37">
+        <v>4.9396610000000001E-2</v>
+      </c>
+      <c r="T120" s="37">
+        <v>0.100036844</v>
+      </c>
+      <c r="U120" s="37">
+        <v>0.253486551</v>
+      </c>
+      <c r="V120" s="37">
+        <v>0.19477049699999999</v>
+      </c>
+      <c r="W120" s="37">
+        <v>0.24617303500000001</v>
+      </c>
+      <c r="X120" s="37">
+        <v>2.0686740640000001</v>
+      </c>
+      <c r="Y120" s="37">
+        <v>1.21554494</v>
+      </c>
+      <c r="Z120" s="37">
+        <v>1.1422818480000001</v>
+      </c>
+      <c r="AA120" s="40">
+        <v>4.1996399999999999E-4</v>
+      </c>
+      <c r="AB120" s="40">
+        <v>3.0443549E-2</v>
+      </c>
+      <c r="AC120" s="40">
+        <v>2.2387679999999999E-3</v>
+      </c>
+      <c r="AD120" s="40">
+        <v>3.6713451000000001E-2</v>
+      </c>
+      <c r="AE120" s="40">
+        <v>8.0409199999999996E-4</v>
+      </c>
+      <c r="AF120" s="40">
+        <v>1.8891102999999999E-2</v>
+      </c>
+      <c r="AG120" s="37"/>
     </row>
     <row r="121" spans="1:33">
       <c r="A121" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -1197,9 +1197,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="366">
+  <cellStyleXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1651,7 +1671,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="366">
+  <cellStyles count="386">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1834,6 +1854,16 @@
     <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2016,6 +2046,16 @@
     <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2348,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:AG121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7197,7 +7237,7 @@
       </c>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="50">
@@ -14228,9 +14268,103 @@
       <c r="AG120" s="37"/>
     </row>
     <row r="121" spans="1:33">
-      <c r="A121" t="s">
+      <c r="A121" s="37" t="s">
         <v>161</v>
       </c>
+      <c r="B121" s="37">
+        <v>0.70501557500000001</v>
+      </c>
+      <c r="C121" s="37">
+        <v>0.77664999999999995</v>
+      </c>
+      <c r="D121" s="37">
+        <v>0.51661000000000001</v>
+      </c>
+      <c r="E121" s="37">
+        <v>0.50880450399999999</v>
+      </c>
+      <c r="F121" s="37">
+        <v>0.74902000000000002</v>
+      </c>
+      <c r="G121" s="37">
+        <v>0.29968</v>
+      </c>
+      <c r="H121" s="37">
+        <v>2.2228481420000001</v>
+      </c>
+      <c r="I121" s="37">
+        <v>3.6286879999999999</v>
+      </c>
+      <c r="J121" s="37">
+        <v>0.19453999999999999</v>
+      </c>
+      <c r="K121" s="37">
+        <v>7</v>
+      </c>
+      <c r="L121" s="37">
+        <v>2</v>
+      </c>
+      <c r="M121" s="38">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N121" s="37">
+        <v>3</v>
+      </c>
+      <c r="O121" s="38">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="P121" s="38">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q121" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="R121" s="37">
+        <v>9.3124044000000003E-2</v>
+      </c>
+      <c r="S121" s="37">
+        <v>4.3054413E-2</v>
+      </c>
+      <c r="T121" s="37">
+        <v>0.1729</v>
+      </c>
+      <c r="U121" s="37">
+        <v>0.247012602</v>
+      </c>
+      <c r="V121" s="37">
+        <v>0.10321346200000001</v>
+      </c>
+      <c r="W121" s="37">
+        <v>7.8039999999999998E-2</v>
+      </c>
+      <c r="X121" s="37">
+        <v>2.0061307949999998</v>
+      </c>
+      <c r="Y121" s="37">
+        <v>1.0636903170000001</v>
+      </c>
+      <c r="Z121" s="37">
+        <v>0.78193000000000001</v>
+      </c>
+      <c r="AA121" s="40">
+        <v>1.0850174000000001E-2</v>
+      </c>
+      <c r="AB121" s="39">
+        <v>0.14140026</v>
+      </c>
+      <c r="AC121" s="40">
+        <v>3.5141959999999998E-3</v>
+      </c>
+      <c r="AD121" s="39">
+        <v>5.0534767000000001E-2</v>
+      </c>
+      <c r="AE121" s="40">
+        <v>2.1734639E-2</v>
+      </c>
+      <c r="AF121" s="39">
+        <v>6.6616023999999996E-2</v>
+      </c>
+      <c r="AG121" s="37"/>
     </row>
     <row r="122" spans="1:33">
       <c r="A122" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="310">
   <si>
     <t>Gene</t>
   </si>
@@ -1197,9 +1197,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="386">
+  <cellStyleXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1671,7 +1677,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="386">
+  <cellStyles count="392">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1864,6 +1870,9 @@
     <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2056,6 +2065,9 @@
     <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2389,7 +2401,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:AG121"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14367,9 +14379,103 @@
       <c r="AG121" s="37"/>
     </row>
     <row r="122" spans="1:33">
-      <c r="A122" t="s">
+      <c r="A122" s="37" t="s">
         <v>162</v>
       </c>
+      <c r="B122" s="37">
+        <v>0.60456309799999997</v>
+      </c>
+      <c r="C122" s="37">
+        <v>0.63287545499999998</v>
+      </c>
+      <c r="D122" s="37">
+        <v>0.52075000000000005</v>
+      </c>
+      <c r="E122" s="37">
+        <v>0.49212978299999999</v>
+      </c>
+      <c r="F122" s="37">
+        <v>0.59603636400000004</v>
+      </c>
+      <c r="G122" s="37">
+        <v>0.48239500000000002</v>
+      </c>
+      <c r="H122" s="37">
+        <v>1.9471821739999999</v>
+      </c>
+      <c r="I122" s="37">
+        <v>2.7074663640000001</v>
+      </c>
+      <c r="J122" s="37">
+        <v>0.56754499999999997</v>
+      </c>
+      <c r="K122" s="37">
+        <v>13</v>
+      </c>
+      <c r="L122" s="37">
+        <v>2</v>
+      </c>
+      <c r="M122" s="38">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="N122" s="37">
+        <v>3</v>
+      </c>
+      <c r="O122" s="38">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="P122" s="38">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="Q122" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="R122" s="37">
+        <v>0.16689989299999999</v>
+      </c>
+      <c r="S122" s="37">
+        <v>0.19052454099999999</v>
+      </c>
+      <c r="T122" s="37">
+        <v>0.22716</v>
+      </c>
+      <c r="U122" s="37">
+        <v>0.22581759700000001</v>
+      </c>
+      <c r="V122" s="37">
+        <v>0.26060634900000001</v>
+      </c>
+      <c r="W122" s="37">
+        <v>0.261075</v>
+      </c>
+      <c r="X122" s="37">
+        <v>1.6818525660000001</v>
+      </c>
+      <c r="Y122" s="37">
+        <v>1.812263913</v>
+      </c>
+      <c r="Z122" s="37">
+        <v>0.95197500000000002</v>
+      </c>
+      <c r="AA122" s="39">
+        <v>0.31733391700000002</v>
+      </c>
+      <c r="AB122" s="39">
+        <v>0.31490999600000003</v>
+      </c>
+      <c r="AC122" s="39">
+        <v>0.108930086</v>
+      </c>
+      <c r="AD122" s="39">
+        <v>0.33595757599999998</v>
+      </c>
+      <c r="AE122" s="39">
+        <v>9.8451899999999995E-2</v>
+      </c>
+      <c r="AF122" s="39">
+        <v>0.12253188299999999</v>
+      </c>
+      <c r="AG122" s="37"/>
     </row>
     <row r="123" spans="1:33">
       <c r="A123" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t xml:space="preserve">*note: this one had 38 mutations but they seem to be wrong </t>
+  </si>
+  <si>
+    <t>2.6965E+308</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1590,8 +1593,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,7 +1673,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1677,7 +1687,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="400">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1873,6 +1883,10 @@
     <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2068,6 +2082,10 @@
     <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2401,7 +2419,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+      <selection activeCell="A124" sqref="A124:AG124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9124,7 +9142,7 @@
       <c r="AE68" s="39">
         <v>5.6692465999999997E-2</v>
       </c>
-      <c r="AF68" s="71">
+      <c r="AF68" s="70">
         <v>7.6084450000000001E-3</v>
       </c>
       <c r="AG68" s="60"/>
@@ -9720,7 +9738,7 @@
       <c r="AF74" s="39">
         <v>0.104850603</v>
       </c>
-      <c r="AG74" s="74"/>
+      <c r="AG74" s="73"/>
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="37" t="s">
@@ -9819,13 +9837,13 @@
       <c r="AF75" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AG75" s="72"/>
+      <c r="AG75" s="71"/>
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="75">
+      <c r="B76" s="74">
         <v>0.65758644736842098</v>
       </c>
       <c r="C76" s="44">
@@ -9865,10 +9883,10 @@
       <c r="N76" s="43">
         <v>0</v>
       </c>
-      <c r="O76" s="76">
-        <v>0</v>
-      </c>
-      <c r="P76" s="76">
+      <c r="O76" s="75">
+        <v>0</v>
+      </c>
+      <c r="P76" s="75">
         <v>0</v>
       </c>
       <c r="Q76" s="67" t="s">
@@ -10146,7 +10164,7 @@
       <c r="I79" s="37">
         <v>2.5824500000000001</v>
       </c>
-      <c r="J79" s="73" t="s">
+      <c r="J79" s="72" t="s">
         <v>33</v>
       </c>
       <c r="K79" s="37">
@@ -10316,13 +10334,13 @@
       <c r="AF80" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AG80" s="72"/>
+      <c r="AG80" s="71"/>
     </row>
     <row r="81" spans="1:33">
       <c r="A81" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B81" s="75">
+      <c r="B81" s="74">
         <v>0.64893471471471442</v>
       </c>
       <c r="C81" s="43">
@@ -10334,7 +10352,7 @@
       <c r="E81" s="44">
         <v>0.51508828828828856</v>
       </c>
-      <c r="F81" s="77">
+      <c r="F81" s="76">
         <v>0.48420000000000002</v>
       </c>
       <c r="G81" s="43" t="s">
@@ -10343,7 +10361,7 @@
       <c r="H81" s="42">
         <v>2.1290223723723707</v>
       </c>
-      <c r="I81" s="77">
+      <c r="I81" s="76">
         <v>2.1036800000000002</v>
       </c>
       <c r="J81" s="43" t="s">
@@ -10362,16 +10380,16 @@
       <c r="N81" s="43">
         <v>0</v>
       </c>
-      <c r="O81" s="76">
-        <v>0</v>
-      </c>
-      <c r="P81" s="76">
+      <c r="O81" s="75">
+        <v>0</v>
+      </c>
+      <c r="P81" s="75">
         <v>0</v>
       </c>
       <c r="Q81" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="R81" s="75">
+      <c r="R81" s="74">
         <v>0.13716750238059713</v>
       </c>
       <c r="S81" s="42">
@@ -10481,7 +10499,7 @@
       <c r="U82" s="37">
         <v>0.361897898</v>
       </c>
-      <c r="V82" s="73">
+      <c r="V82" s="72">
         <v>1.11022E-16</v>
       </c>
       <c r="W82" s="37">
@@ -10909,13 +10927,13 @@
       <c r="AF86" s="39">
         <v>0.333286007</v>
       </c>
-      <c r="AG86" s="72"/>
+      <c r="AG86" s="71"/>
     </row>
     <row r="87" spans="1:33">
       <c r="A87" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="78">
+      <c r="B87" s="77">
         <v>0.64347245353159865</v>
       </c>
       <c r="C87" s="11">
@@ -11014,7 +11032,7 @@
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="78">
+      <c r="B88" s="77">
         <v>0.70090894607843091</v>
       </c>
       <c r="C88" s="3">
@@ -11122,19 +11140,19 @@
       <c r="D89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="79">
+      <c r="E89" s="78">
         <v>0.59064257692307709</v>
       </c>
-      <c r="F89" s="77">
+      <c r="F89" s="76">
         <v>0.5711033333333333</v>
       </c>
       <c r="G89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H89" s="79">
+      <c r="H89" s="78">
         <v>2.2729964615384617</v>
       </c>
-      <c r="I89" s="77">
+      <c r="I89" s="76">
         <v>1.8472200000000001</v>
       </c>
       <c r="J89" s="43" t="s">
@@ -11189,19 +11207,19 @@
       <c r="Z89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AA89" s="77">
+      <c r="AA89" s="76">
         <v>0.1538948</v>
       </c>
       <c r="AB89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AC89" s="77">
+      <c r="AC89" s="76">
         <v>0.18041879999999999</v>
       </c>
       <c r="AD89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AE89" s="77">
+      <c r="AE89" s="76">
         <v>6.5507239999999994E-2</v>
       </c>
       <c r="AF89" s="43" t="s">
@@ -11605,7 +11623,7 @@
       <c r="AG93" s="37"/>
     </row>
     <row r="94" spans="1:33">
-      <c r="A94" s="80" t="s">
+      <c r="A94" s="79" t="s">
         <v>134</v>
       </c>
       <c r="B94" s="37">
@@ -12495,7 +12513,7 @@
       <c r="AF102" s="52">
         <v>6.1207164000000001E-2</v>
       </c>
-      <c r="AG102" s="72"/>
+      <c r="AG102" s="71"/>
     </row>
     <row r="103" spans="1:33">
       <c r="A103" s="37" t="s">
@@ -13389,7 +13407,7 @@
       <c r="AG111" s="37"/>
     </row>
     <row r="112" spans="1:33">
-      <c r="A112" s="80" t="s">
+      <c r="A112" s="79" t="s">
         <v>151</v>
       </c>
       <c r="B112" s="37">
@@ -13589,7 +13607,7 @@
       <c r="AG113" s="37"/>
     </row>
     <row r="114" spans="1:33">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="80" t="s">
         <v>153</v>
       </c>
       <c r="B114" s="50">
@@ -13598,7 +13616,7 @@
       <c r="C114" s="50">
         <v>0.77210999999999996</v>
       </c>
-      <c r="D114" s="82" t="s">
+      <c r="D114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E114" s="50">
@@ -13607,7 +13625,7 @@
       <c r="F114" s="50">
         <v>0.70910333299999995</v>
       </c>
-      <c r="G114" s="82" t="s">
+      <c r="G114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="H114" s="50">
@@ -13616,7 +13634,7 @@
       <c r="I114" s="50">
         <v>2.5824500000000001</v>
       </c>
-      <c r="J114" s="82" t="s">
+      <c r="J114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="K114" s="50">
@@ -13795,7 +13813,7 @@
       <c r="C116" s="37">
         <v>0.80154400000000003</v>
       </c>
-      <c r="D116" s="82" t="s">
+      <c r="D116" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E116" s="37">
@@ -13804,7 +13822,7 @@
       <c r="F116" s="37">
         <v>0.77370799999999995</v>
       </c>
-      <c r="G116" s="82" t="s">
+      <c r="G116" s="81" t="s">
         <v>33</v>
       </c>
       <c r="H116" s="37">
@@ -13813,7 +13831,7 @@
       <c r="I116" s="37">
         <v>4.5971760000000002</v>
       </c>
-      <c r="J116" s="82" t="s">
+      <c r="J116" s="81" t="s">
         <v>33</v>
       </c>
       <c r="K116" s="37">
@@ -13894,7 +13912,7 @@
       <c r="C117" s="37">
         <v>0.80373000000000006</v>
       </c>
-      <c r="D117" s="73" t="s">
+      <c r="D117" s="72" t="s">
         <v>33</v>
       </c>
       <c r="E117" s="37">
@@ -13903,7 +13921,7 @@
       <c r="F117" s="37">
         <v>0.77825</v>
       </c>
-      <c r="G117" s="73" t="s">
+      <c r="G117" s="72" t="s">
         <v>33</v>
       </c>
       <c r="H117" s="37">
@@ -13912,7 +13930,7 @@
       <c r="I117" s="37">
         <v>3.9909349999999999</v>
       </c>
-      <c r="J117" s="73" t="s">
+      <c r="J117" s="72" t="s">
         <v>33</v>
       </c>
       <c r="K117" s="37">
@@ -14083,7 +14101,7 @@
       <c r="AG118" s="50"/>
     </row>
     <row r="119" spans="1:33" s="3" customFormat="1">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="82" t="s">
         <v>159</v>
       </c>
       <c r="B119" s="33">
@@ -14478,14 +14496,202 @@
       <c r="AG122" s="37"/>
     </row>
     <row r="123" spans="1:33">
-      <c r="A123" t="s">
+      <c r="A123" s="37" t="s">
         <v>163</v>
       </c>
+      <c r="B123" s="37">
+        <v>0.70684482800000004</v>
+      </c>
+      <c r="C123" s="37">
+        <v>0.76298999999999995</v>
+      </c>
+      <c r="D123" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="37">
+        <v>0.44406834499999998</v>
+      </c>
+      <c r="F123" s="37">
+        <v>0.71892999999999996</v>
+      </c>
+      <c r="G123" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="H123" s="37">
+        <v>1.8091450570000001</v>
+      </c>
+      <c r="I123" s="37">
+        <v>3.8573300000000001</v>
+      </c>
+      <c r="J123" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="K123" s="37">
+        <v>1</v>
+      </c>
+      <c r="L123" s="37">
+        <v>0</v>
+      </c>
+      <c r="M123" s="38">
+        <v>0</v>
+      </c>
+      <c r="N123" s="37">
+        <v>1</v>
+      </c>
+      <c r="O123" s="38">
+        <v>1</v>
+      </c>
+      <c r="P123" s="38">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q123" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="R123" s="37">
+        <v>6.2974477000000001E-2</v>
+      </c>
+      <c r="S123" s="37">
+        <v>0</v>
+      </c>
+      <c r="T123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U123" s="37">
+        <v>0.19751079899999999</v>
+      </c>
+      <c r="V123" s="37">
+        <v>0</v>
+      </c>
+      <c r="W123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="X123" s="37">
+        <v>2.0620370590000001</v>
+      </c>
+      <c r="Y123" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF123" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG123" s="37"/>
     </row>
     <row r="124" spans="1:33">
-      <c r="A124" s="70" t="s">
+      <c r="A124" s="37" t="s">
         <v>164</v>
       </c>
+      <c r="B124" s="37">
+        <v>0.73022267299999999</v>
+      </c>
+      <c r="C124" s="37">
+        <v>0.769101111</v>
+      </c>
+      <c r="D124" s="37">
+        <v>0.67315999999999998</v>
+      </c>
+      <c r="E124" s="37">
+        <v>0.58864454499999996</v>
+      </c>
+      <c r="F124" s="37">
+        <v>0.733897778</v>
+      </c>
+      <c r="G124" s="37">
+        <v>0.36413000000000001</v>
+      </c>
+      <c r="H124" s="37">
+        <v>2.8676153270000002</v>
+      </c>
+      <c r="I124" s="37">
+        <v>4.0629566669999999</v>
+      </c>
+      <c r="J124" s="37">
+        <v>-1.1180300000000001</v>
+      </c>
+      <c r="K124" s="37">
+        <v>19</v>
+      </c>
+      <c r="L124" s="37">
+        <v>1</v>
+      </c>
+      <c r="M124" s="38">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="N124" s="37">
+        <v>12</v>
+      </c>
+      <c r="O124" s="38">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="P124" s="38">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="Q124" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="R124" s="37">
+        <v>9.8935541000000002E-2</v>
+      </c>
+      <c r="S124" s="37">
+        <v>0.10883071499999999</v>
+      </c>
+      <c r="T124" s="37">
+        <v>0</v>
+      </c>
+      <c r="U124" s="37">
+        <v>0.251617706</v>
+      </c>
+      <c r="V124" s="37">
+        <v>0.22503693</v>
+      </c>
+      <c r="W124" s="37">
+        <v>0</v>
+      </c>
+      <c r="X124" s="37">
+        <v>2.1084568520000002</v>
+      </c>
+      <c r="Y124" s="37">
+        <v>1.7992739019999999</v>
+      </c>
+      <c r="Z124" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="39">
+        <v>7.6552931000000005E-2</v>
+      </c>
+      <c r="AB124" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC124" s="40">
+        <v>7.8432099999999998E-3</v>
+      </c>
+      <c r="AD124" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE124" s="40">
+        <v>6.7301009999999996E-3</v>
+      </c>
+      <c r="AF124" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG124" s="37"/>
     </row>
     <row r="125" spans="1:33">
       <c r="A125" s="49" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -1200,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="414">
+  <cellStyleXfs count="416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1615,8 +1615,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1696,9 +1698,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="414">
+  <cellStyles count="416">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1905,6 +1908,7 @@
     <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2111,6 +2115,7 @@
     <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2443,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:XFD239"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:AG127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14818,108 +14823,202 @@
       <c r="AG125" s="34"/>
     </row>
     <row r="126" spans="1:33">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="39">
         <v>0.60451953416149096</v>
       </c>
-      <c r="C126" s="16">
+      <c r="C126" s="64">
         <v>0.590418</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="62">
         <v>0.60424999999999995</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="39">
         <v>0.38385630434782603</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="64">
         <v>0.36981599999999998</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="39">
         <v>0.32324000000000003</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="72">
         <v>0.24139046583850901</v>
       </c>
-      <c r="I126" s="19">
+      <c r="I126" s="79">
         <v>0.25644</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="39">
         <v>-1.0007250000000001</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="39">
         <v>7</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126" s="39">
         <v>2</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="63">
         <f>L126/K126</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N126" s="3">
-        <v>0</v>
-      </c>
-      <c r="O126" s="5">
-        <v>0</v>
-      </c>
-      <c r="P126" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="5" t="s">
+      <c r="N126" s="39">
+        <v>0</v>
+      </c>
+      <c r="O126" s="63">
+        <v>0</v>
+      </c>
+      <c r="P126" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="R126" s="3">
+      <c r="R126" s="39">
         <v>8.2735084149119495E-2</v>
       </c>
-      <c r="S126" s="3">
+      <c r="S126" s="39">
         <v>4.2443086315676899E-2</v>
       </c>
-      <c r="T126" s="3">
+      <c r="T126" s="39">
         <v>2.298E-2</v>
       </c>
-      <c r="U126" s="3">
+      <c r="U126" s="39">
         <v>0.116660599826463</v>
       </c>
-      <c r="V126" s="3">
+      <c r="V126" s="39">
         <v>5.7480864850835402E-2</v>
       </c>
-      <c r="W126" s="3">
+      <c r="W126" s="39">
         <v>2.6540000000000001E-2</v>
       </c>
-      <c r="X126" s="3">
+      <c r="X126" s="39">
         <v>1.41571281354621</v>
       </c>
-      <c r="Y126" s="3">
+      <c r="Y126" s="39">
         <v>1.8578911800964</v>
       </c>
-      <c r="Z126" s="3">
+      <c r="Z126" s="39">
         <v>0.55089500000000002</v>
       </c>
-      <c r="AA126" s="18">
+      <c r="AA126" s="62">
         <v>0.25231819999999999</v>
       </c>
-      <c r="AB126" s="18">
+      <c r="AB126" s="62">
         <v>0.33906649999999999</v>
       </c>
-      <c r="AC126" s="18">
+      <c r="AC126" s="62">
         <v>0.30966700000000003</v>
       </c>
-      <c r="AD126" s="16">
+      <c r="AD126" s="64">
         <v>0.1908147</v>
       </c>
-      <c r="AE126" s="79">
+      <c r="AE126" s="80">
         <v>0.49322339999999998</v>
       </c>
-      <c r="AF126" s="18">
+      <c r="AF126" s="62">
         <v>0.200707</v>
       </c>
     </row>
     <row r="127" spans="1:33">
-      <c r="A127" t="s">
+      <c r="A127" s="34" t="s">
         <v>166</v>
       </c>
+      <c r="B127" s="34">
+        <v>0.72626611900000004</v>
+      </c>
+      <c r="C127" s="36">
+        <v>0.69989333300000001</v>
+      </c>
+      <c r="D127" s="34">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="E127" s="34">
+        <v>0.665418073</v>
+      </c>
+      <c r="F127" s="36">
+        <v>0.61154333299999997</v>
+      </c>
+      <c r="G127" s="34">
+        <v>0.80335999999999996</v>
+      </c>
+      <c r="H127" s="34">
+        <v>3.2050656329999998</v>
+      </c>
+      <c r="I127" s="43">
+        <v>3.286413333</v>
+      </c>
+      <c r="J127" s="34">
+        <v>4.7468300000000001</v>
+      </c>
+      <c r="K127" s="34">
+        <v>4</v>
+      </c>
+      <c r="L127" s="34">
+        <v>1</v>
+      </c>
+      <c r="M127" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="N127" s="34">
+        <v>1</v>
+      </c>
+      <c r="O127" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="P127" s="35">
+        <v>1.4E-3</v>
+      </c>
+      <c r="Q127" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R127" s="34">
+        <v>0.112486302</v>
+      </c>
+      <c r="S127" s="34">
+        <v>0.118573425</v>
+      </c>
+      <c r="T127" s="34">
+        <v>0</v>
+      </c>
+      <c r="U127" s="34">
+        <v>0.246248889</v>
+      </c>
+      <c r="V127" s="34">
+        <v>0.28724095599999999</v>
+      </c>
+      <c r="W127" s="34">
+        <v>0</v>
+      </c>
+      <c r="X127" s="34">
+        <v>1.7320947310000001</v>
+      </c>
+      <c r="Y127" s="34">
+        <v>1.458075228</v>
+      </c>
+      <c r="Z127" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="43">
+        <v>0.368679443</v>
+      </c>
+      <c r="AB127" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC127" s="43">
+        <v>0.38812542999999999</v>
+      </c>
+      <c r="AD127" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE127" s="36">
+        <v>0.465955016</v>
+      </c>
+      <c r="AF127" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG127" s="34"/>
     </row>
     <row r="128" spans="1:33">
       <c r="A128" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -1200,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="416">
+  <cellStyleXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1617,8 +1617,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1700,8 +1704,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="416">
+  <cellStyles count="420">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1909,6 +1914,8 @@
     <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2116,6 +2123,8 @@
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2449,7 +2458,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:AG127"/>
+      <selection activeCell="A129" sqref="A129:AG129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15021,86 +15030,274 @@
       <c r="AG127" s="34"/>
     </row>
     <row r="128" spans="1:33">
-      <c r="A128" t="s">
+      <c r="A128" s="34" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B128" s="34">
+        <v>0.73189674400000004</v>
+      </c>
+      <c r="C128" s="34">
+        <v>0.79793199999999997</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="34">
+        <v>0.642705843</v>
+      </c>
+      <c r="F128" s="34">
+        <v>0.83290299999999995</v>
+      </c>
+      <c r="G128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="34">
+        <v>3.2030907270000002</v>
+      </c>
+      <c r="I128" s="34">
+        <v>4.4197810000000004</v>
+      </c>
+      <c r="J128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K128" s="34">
+        <v>10</v>
+      </c>
+      <c r="L128" s="34">
+        <v>0</v>
+      </c>
+      <c r="M128" s="35">
+        <v>0</v>
+      </c>
+      <c r="N128" s="34">
+        <v>7</v>
+      </c>
+      <c r="O128" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="P128" s="35">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="Q128" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="R128" s="34">
+        <v>0.10511651299999999</v>
+      </c>
+      <c r="S128" s="34">
+        <v>9.1529544000000004E-2</v>
+      </c>
+      <c r="T128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U128" s="34">
+        <v>0.26104797000000002</v>
+      </c>
+      <c r="V128" s="34">
+        <v>0.27839491599999999</v>
+      </c>
+      <c r="W128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X128" s="34">
+        <v>1.554072839</v>
+      </c>
+      <c r="Y128" s="34">
+        <v>1.47477244</v>
+      </c>
+      <c r="Z128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA128" s="37">
+        <v>2.4801729000000002E-2</v>
+      </c>
+      <c r="AB128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC128" s="37">
+        <v>2.9955017E-2</v>
+      </c>
+      <c r="AD128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE128" s="37">
+        <v>1.4488338999999999E-2</v>
+      </c>
+      <c r="AF128" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG128" s="34"/>
+    </row>
+    <row r="129" spans="1:33">
+      <c r="A129" s="34" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="34">
+        <v>0.72571502600000004</v>
+      </c>
+      <c r="C129" s="43">
+        <v>0.76885000000000003</v>
+      </c>
+      <c r="D129" s="34">
+        <v>0.77344999999999997</v>
+      </c>
+      <c r="E129" s="34">
+        <v>0.58834505299999995</v>
+      </c>
+      <c r="F129" s="34">
+        <v>0.60326000000000002</v>
+      </c>
+      <c r="G129" s="34">
+        <v>0.44046000000000002</v>
+      </c>
+      <c r="H129" s="34">
+        <v>2.8661265340000002</v>
+      </c>
+      <c r="I129" s="34">
+        <v>3.357272</v>
+      </c>
+      <c r="J129" s="34">
+        <v>2.0487899999999999</v>
+      </c>
+      <c r="K129" s="34">
+        <v>6</v>
+      </c>
+      <c r="L129" s="34">
+        <v>1</v>
+      </c>
+      <c r="M129" s="35">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="N129" s="34">
+        <v>1</v>
+      </c>
+      <c r="O129" s="35">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="P129" s="35">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="Q129" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="R129" s="34">
+        <v>0.10064461700000001</v>
+      </c>
+      <c r="S129" s="34">
+        <v>5.0387545999999998E-2</v>
+      </c>
+      <c r="T129" s="34">
+        <v>0</v>
+      </c>
+      <c r="U129" s="34">
+        <v>0.203562565</v>
+      </c>
+      <c r="V129" s="34">
+        <v>0.13152716</v>
+      </c>
+      <c r="W129" s="34">
+        <v>0</v>
+      </c>
+      <c r="X129" s="34">
+        <v>1.5161377620000001</v>
+      </c>
+      <c r="Y129" s="34">
+        <v>1.831007077</v>
+      </c>
+      <c r="Z129" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="36">
+        <v>6.5916970000000005E-2</v>
+      </c>
+      <c r="AB129" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC129" s="36">
+        <v>0.40688074099999999</v>
+      </c>
+      <c r="AD129" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE129" s="36">
+        <v>0.290891599</v>
+      </c>
+      <c r="AF129" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG129" s="34"/>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="136" spans="1:33">
+      <c r="A136" s="81" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
         <v>183</v>
       </c>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="312">
   <si>
     <t>Gene</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>2.6965E+308</t>
+  </si>
+  <si>
+    <t>hmzdy</t>
   </si>
 </sst>
 </file>
@@ -1200,9 +1203,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="420">
+  <cellStyleXfs count="428">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1706,7 +1717,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="420">
+  <cellStyles count="428">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1916,6 +1927,10 @@
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2125,6 +2140,10 @@
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2458,7 +2477,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:AG129"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15228,9 +15247,103 @@
       <c r="AG129" s="34"/>
     </row>
     <row r="130" spans="1:33">
-      <c r="A130" t="s">
+      <c r="A130" s="34" t="s">
         <v>169</v>
       </c>
+      <c r="B130" s="34">
+        <v>0.64851349599999997</v>
+      </c>
+      <c r="C130" s="34">
+        <v>0.74857399999999996</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="34">
+        <v>0.40296756099999997</v>
+      </c>
+      <c r="F130" s="34">
+        <v>0.68442800000000004</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="34">
+        <v>1.203668293</v>
+      </c>
+      <c r="I130" s="34">
+        <v>3.6802139999999999</v>
+      </c>
+      <c r="J130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="34">
+        <v>5</v>
+      </c>
+      <c r="L130" s="34">
+        <v>0</v>
+      </c>
+      <c r="M130" s="35">
+        <v>0</v>
+      </c>
+      <c r="N130" s="34">
+        <v>3</v>
+      </c>
+      <c r="O130" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="P130" s="35">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="Q130" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="R130" s="34">
+        <v>7.9070056E-2</v>
+      </c>
+      <c r="S130" s="34">
+        <v>8.5931357999999999E-2</v>
+      </c>
+      <c r="T130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U130" s="34">
+        <v>0.18361965399999999</v>
+      </c>
+      <c r="V130" s="34">
+        <v>0.238047333</v>
+      </c>
+      <c r="W130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X130" s="34">
+        <v>1.6689872809999999</v>
+      </c>
+      <c r="Y130" s="34">
+        <v>1.2619925599999999</v>
+      </c>
+      <c r="Z130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA130" s="37">
+        <v>3.0188415999999999E-2</v>
+      </c>
+      <c r="AB130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC130" s="37">
+        <v>2.8865814E-2</v>
+      </c>
+      <c r="AD130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE130" s="37">
+        <v>6.0442639999999997E-3</v>
+      </c>
+      <c r="AF130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG130" s="34"/>
     </row>
     <row r="131" spans="1:33">
       <c r="A131" t="s">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="40" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="312">
   <si>
     <t>Gene</t>
   </si>
@@ -1203,7 +1203,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="428">
+  <cellStyleXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1632,8 +1632,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1716,8 +1736,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="428">
+  <cellStyles count="448">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1931,6 +1952,16 @@
     <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2144,6 +2175,16 @@
     <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2476,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15346,19 +15387,301 @@
       <c r="AG130" s="34"/>
     </row>
     <row r="131" spans="1:33">
-      <c r="A131" t="s">
+      <c r="A131" s="34" t="s">
         <v>170</v>
       </c>
+      <c r="B131" s="34">
+        <v>0.78560815299999998</v>
+      </c>
+      <c r="C131" s="34">
+        <v>0.85131000000000001</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="34">
+        <v>0.73232978900000001</v>
+      </c>
+      <c r="F131" s="34">
+        <v>0.94977999999999996</v>
+      </c>
+      <c r="G131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="34">
+        <v>3.7893785750000002</v>
+      </c>
+      <c r="I131" s="34">
+        <v>5.4068100000000001</v>
+      </c>
+      <c r="J131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131" s="34">
+        <v>1</v>
+      </c>
+      <c r="L131" s="34">
+        <v>0</v>
+      </c>
+      <c r="M131" s="35">
+        <v>0</v>
+      </c>
+      <c r="N131" s="34">
+        <v>1</v>
+      </c>
+      <c r="O131" s="35">
+        <v>1</v>
+      </c>
+      <c r="P131" s="35">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q131" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="R131" s="34">
+        <v>7.3000581999999994E-2</v>
+      </c>
+      <c r="S131" s="34">
+        <v>0</v>
+      </c>
+      <c r="T131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U131" s="34">
+        <v>0.25551343799999998</v>
+      </c>
+      <c r="V131" s="34">
+        <v>0</v>
+      </c>
+      <c r="W131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X131" s="34">
+        <v>1.933964996</v>
+      </c>
+      <c r="Y131" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF131" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG131" s="34"/>
     </row>
     <row r="132" spans="1:33">
-      <c r="A132" t="s">
+      <c r="A132" s="34" t="s">
         <v>171</v>
       </c>
+      <c r="B132" s="34">
+        <v>0.690646341</v>
+      </c>
+      <c r="C132" s="34">
+        <v>0.69647000000000003</v>
+      </c>
+      <c r="D132" s="34">
+        <v>0.62116000000000005</v>
+      </c>
+      <c r="E132" s="34">
+        <v>0.50228403499999996</v>
+      </c>
+      <c r="F132" s="34">
+        <v>0.51130333299999997</v>
+      </c>
+      <c r="G132" s="34">
+        <v>0.34387000000000001</v>
+      </c>
+      <c r="H132" s="34">
+        <v>1.535493835</v>
+      </c>
+      <c r="I132" s="36">
+        <v>1.0808866669999999</v>
+      </c>
+      <c r="J132" s="34">
+        <v>0.90385000000000004</v>
+      </c>
+      <c r="K132" s="34">
+        <v>4</v>
+      </c>
+      <c r="L132" s="34">
+        <v>1</v>
+      </c>
+      <c r="M132" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="N132" s="34">
+        <v>0</v>
+      </c>
+      <c r="O132" s="35">
+        <v>0</v>
+      </c>
+      <c r="P132" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="R132" s="34">
+        <v>8.2697382E-2</v>
+      </c>
+      <c r="S132" s="34">
+        <v>1.3493028000000001E-2</v>
+      </c>
+      <c r="T132" s="34">
+        <v>0</v>
+      </c>
+      <c r="U132" s="34">
+        <v>0.19537342699999999</v>
+      </c>
+      <c r="V132" s="34">
+        <v>0.122610836</v>
+      </c>
+      <c r="W132" s="34">
+        <v>0</v>
+      </c>
+      <c r="X132" s="34">
+        <v>2.1146824080000002</v>
+      </c>
+      <c r="Y132" s="34">
+        <v>1.980723891</v>
+      </c>
+      <c r="Z132" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="36">
+        <v>0.28851396600000001</v>
+      </c>
+      <c r="AB132" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC132" s="36">
+        <v>0.45555422699999998</v>
+      </c>
+      <c r="AD132" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE132" s="43">
+        <v>0.36522911000000002</v>
+      </c>
+      <c r="AF132" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG132" s="34"/>
     </row>
     <row r="133" spans="1:33">
-      <c r="A133" t="s">
+      <c r="A133" s="34" t="s">
         <v>172</v>
       </c>
+      <c r="B133" s="34">
+        <v>0.69764294100000002</v>
+      </c>
+      <c r="C133" s="36">
+        <v>0.46253</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="34">
+        <v>0.54129764700000005</v>
+      </c>
+      <c r="F133" s="36">
+        <v>0.28656999999999999</v>
+      </c>
+      <c r="G133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="34">
+        <v>2.4332564310000002</v>
+      </c>
+      <c r="I133" s="34">
+        <v>2.5168300000000001</v>
+      </c>
+      <c r="J133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133" s="34">
+        <v>1</v>
+      </c>
+      <c r="L133" s="34">
+        <v>0</v>
+      </c>
+      <c r="M133" s="35">
+        <v>0</v>
+      </c>
+      <c r="N133" s="34">
+        <v>0</v>
+      </c>
+      <c r="O133" s="35">
+        <v>0</v>
+      </c>
+      <c r="P133" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R133" s="34">
+        <v>9.8110669999999997E-2</v>
+      </c>
+      <c r="S133" s="34">
+        <v>0</v>
+      </c>
+      <c r="T133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U133" s="34">
+        <v>0.220871915</v>
+      </c>
+      <c r="V133" s="34">
+        <v>0</v>
+      </c>
+      <c r="W133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X133" s="34">
+        <v>1.85526561</v>
+      </c>
+      <c r="Y133" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF133" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG133" s="67"/>
     </row>
     <row r="134" spans="1:33">
       <c r="A134" t="s">
@@ -15371,7 +15694,7 @@
       </c>
     </row>
     <row r="136" spans="1:33">
-      <c r="A136" s="81" t="s">
+      <c r="A136" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15391,7 +15714,7 @@
       </c>
     </row>
     <row r="140" spans="1:33">
-      <c r="A140" t="s">
+      <c r="A140" s="81" t="s">
         <v>179</v>
       </c>
     </row>
@@ -15615,7 +15938,7 @@
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="A166" s="81" t="s">
         <v>204</v>
       </c>
     </row>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="312">
   <si>
     <t>Gene</t>
   </si>
@@ -1203,7 +1203,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="448">
+  <cellStyleXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1652,8 +1652,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1736,9 +1754,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="448">
+  <cellStyles count="466">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1962,6 +1979,15 @@
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2185,6 +2211,15 @@
     <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2517,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:AG139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14604,8 +14639,8 @@
       <c r="C123" s="34">
         <v>0.76298999999999995</v>
       </c>
-      <c r="D123" s="68" t="s">
-        <v>310</v>
+      <c r="D123" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E123" s="34">
         <v>0.44406834499999998</v>
@@ -14613,8 +14648,8 @@
       <c r="F123" s="34">
         <v>0.71892999999999996</v>
       </c>
-      <c r="G123" s="68" t="s">
-        <v>310</v>
+      <c r="G123" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="H123" s="34">
         <v>1.8091450570000001</v>
@@ -14622,8 +14657,8 @@
       <c r="I123" s="34">
         <v>3.8573300000000001</v>
       </c>
-      <c r="J123" s="68" t="s">
-        <v>310</v>
+      <c r="J123" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -15585,133 +15620,699 @@
       <c r="AG132" s="34"/>
     </row>
     <row r="133" spans="1:33">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="B133" s="34">
+      <c r="B133" s="46">
         <v>0.69764294100000002</v>
       </c>
-      <c r="C133" s="36">
+      <c r="C133" s="48">
         <v>0.46253</v>
       </c>
-      <c r="D133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E133" s="34">
+      <c r="D133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="46">
         <v>0.54129764700000005</v>
       </c>
-      <c r="F133" s="36">
+      <c r="F133" s="48">
         <v>0.28656999999999999</v>
       </c>
-      <c r="G133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H133" s="34">
+      <c r="G133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="46">
         <v>2.4332564310000002</v>
       </c>
-      <c r="I133" s="34">
+      <c r="I133" s="46">
         <v>2.5168300000000001</v>
       </c>
-      <c r="J133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K133" s="34">
+      <c r="J133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133" s="46">
         <v>1</v>
       </c>
-      <c r="L133" s="34">
-        <v>0</v>
-      </c>
-      <c r="M133" s="35">
-        <v>0</v>
-      </c>
-      <c r="N133" s="34">
-        <v>0</v>
-      </c>
-      <c r="O133" s="35">
-        <v>0</v>
-      </c>
-      <c r="P133" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="34" t="s">
+      <c r="L133" s="46">
+        <v>0</v>
+      </c>
+      <c r="M133" s="47">
+        <v>0</v>
+      </c>
+      <c r="N133" s="46">
+        <v>0</v>
+      </c>
+      <c r="O133" s="47">
+        <v>0</v>
+      </c>
+      <c r="P133" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R133" s="34">
+      <c r="R133" s="46">
         <v>9.8110669999999997E-2</v>
       </c>
-      <c r="S133" s="34">
-        <v>0</v>
-      </c>
-      <c r="T133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="U133" s="34">
+      <c r="S133" s="46">
+        <v>0</v>
+      </c>
+      <c r="T133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="U133" s="46">
         <v>0.220871915</v>
       </c>
-      <c r="V133" s="34">
-        <v>0</v>
-      </c>
-      <c r="W133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="X133" s="34">
+      <c r="V133" s="46">
+        <v>0</v>
+      </c>
+      <c r="W133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="X133" s="46">
         <v>1.85526561</v>
       </c>
-      <c r="Y133" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE133" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF133" s="34" t="s">
+      <c r="Y133" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE133" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF133" s="46" t="s">
         <v>33</v>
       </c>
       <c r="AG133" s="67"/>
     </row>
     <row r="134" spans="1:33">
-      <c r="A134" t="s">
+      <c r="A134" s="34" t="s">
         <v>173</v>
       </c>
+      <c r="B134" s="34">
+        <v>0.71094695799999996</v>
+      </c>
+      <c r="C134" s="43">
+        <v>0.72791464299999997</v>
+      </c>
+      <c r="D134" s="34">
+        <v>0.73643999999999998</v>
+      </c>
+      <c r="E134" s="34">
+        <v>0.56389587299999999</v>
+      </c>
+      <c r="F134" s="34">
+        <v>0.58836785700000005</v>
+      </c>
+      <c r="G134" s="34">
+        <v>0.46006000000000002</v>
+      </c>
+      <c r="H134" s="34">
+        <v>2.4158732230000002</v>
+      </c>
+      <c r="I134" s="34">
+        <v>2.8403575000000001</v>
+      </c>
+      <c r="J134" s="34">
+        <v>1.9782500000000001</v>
+      </c>
+      <c r="K134" s="34">
+        <v>57</v>
+      </c>
+      <c r="L134" s="34">
+        <v>1</v>
+      </c>
+      <c r="M134" s="35">
+        <f>L134/K134</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="N134" s="34">
+        <v>15</v>
+      </c>
+      <c r="O134" s="35">
+        <f>N134/K134</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="P134" s="35">
+        <v>8.43E-2</v>
+      </c>
+      <c r="Q134" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="R134" s="34">
+        <v>0.104845777</v>
+      </c>
+      <c r="S134" s="34">
+        <v>0.105318127</v>
+      </c>
+      <c r="T134" s="34">
+        <v>0</v>
+      </c>
+      <c r="U134" s="34">
+        <v>0.20766440999999999</v>
+      </c>
+      <c r="V134" s="34">
+        <v>0.175658798</v>
+      </c>
+      <c r="W134" s="34">
+        <v>0</v>
+      </c>
+      <c r="X134" s="34">
+        <v>1.4700698219999999</v>
+      </c>
+      <c r="Y134" s="34">
+        <v>1.0935225070000001</v>
+      </c>
+      <c r="Z134" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="36">
+        <v>0.12589409500000001</v>
+      </c>
+      <c r="AB134" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC134" s="36">
+        <v>0.16421408100000001</v>
+      </c>
+      <c r="AD134" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE134" s="37">
+        <v>4.5257250000000004E-3</v>
+      </c>
+      <c r="AF134" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG134" s="34"/>
     </row>
     <row r="135" spans="1:33">
-      <c r="A135" t="s">
+      <c r="A135" s="34" t="s">
         <v>174</v>
       </c>
+      <c r="B135" s="34">
+        <v>0.70279288399999995</v>
+      </c>
+      <c r="C135" s="34">
+        <v>0.72143000000000002</v>
+      </c>
+      <c r="D135" s="34">
+        <v>0.671072</v>
+      </c>
+      <c r="E135" s="34">
+        <v>0.47054919699999997</v>
+      </c>
+      <c r="F135" s="34">
+        <v>0.49304999999999999</v>
+      </c>
+      <c r="G135" s="34">
+        <v>0.381276</v>
+      </c>
+      <c r="H135" s="34">
+        <v>1.7732698920000001</v>
+      </c>
+      <c r="I135" s="36">
+        <v>1.06755</v>
+      </c>
+      <c r="J135" s="34">
+        <v>0.15391199999999999</v>
+      </c>
+      <c r="K135" s="34">
+        <v>6</v>
+      </c>
+      <c r="L135" s="34">
+        <v>5</v>
+      </c>
+      <c r="M135" s="35">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="N135" s="34">
+        <v>0</v>
+      </c>
+      <c r="O135" s="35">
+        <v>0</v>
+      </c>
+      <c r="P135" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="R135" s="34">
+        <v>7.2158782000000005E-2</v>
+      </c>
+      <c r="S135" s="34">
+        <v>0</v>
+      </c>
+      <c r="T135" s="34">
+        <v>1.8038063999999999E-2</v>
+      </c>
+      <c r="U135" s="34">
+        <v>0.20726910000000001</v>
+      </c>
+      <c r="V135" s="34">
+        <v>0</v>
+      </c>
+      <c r="W135" s="34">
+        <v>0.108947232</v>
+      </c>
+      <c r="X135" s="34">
+        <v>1.733775938</v>
+      </c>
+      <c r="Y135" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="34">
+        <v>1.415315935</v>
+      </c>
+      <c r="AA135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF135" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG135" s="34"/>
     </row>
     <row r="136" spans="1:33">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="34" t="s">
         <v>175</v>
       </c>
+      <c r="B136" s="34">
+        <v>0.78493934799999998</v>
+      </c>
+      <c r="C136" s="34">
+        <v>0.81992571400000003</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="E136" s="34">
+        <v>0.70997175000000001</v>
+      </c>
+      <c r="F136" s="34">
+        <v>0.820974286</v>
+      </c>
+      <c r="G136" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="H136" s="34">
+        <v>0.78493934799999998</v>
+      </c>
+      <c r="I136" s="34">
+        <v>0.81992571400000003</v>
+      </c>
+      <c r="J136" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K136" s="34">
+        <v>14</v>
+      </c>
+      <c r="L136" s="34">
+        <v>0</v>
+      </c>
+      <c r="M136" s="35">
+        <v>0</v>
+      </c>
+      <c r="N136" s="34">
+        <v>12</v>
+      </c>
+      <c r="O136" s="35">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P136" s="35">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Q136" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="R136" s="34">
+        <v>6.6046658999999994E-2</v>
+      </c>
+      <c r="S136" s="34">
+        <v>4.0566029000000003E-2</v>
+      </c>
+      <c r="T136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U136" s="34">
+        <v>0.25603424800000002</v>
+      </c>
+      <c r="V136" s="34">
+        <v>0.204070845</v>
+      </c>
+      <c r="W136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X136" s="34">
+        <v>6.6046658999999994E-2</v>
+      </c>
+      <c r="Y136" s="34">
+        <v>4.0566029000000003E-2</v>
+      </c>
+      <c r="Z136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA136" s="37">
+        <v>3.4083590000000001E-3</v>
+      </c>
+      <c r="AB136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC136" s="37">
+        <v>3.1704639E-2</v>
+      </c>
+      <c r="AD136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE136" s="37">
+        <v>3.4083590000000001E-3</v>
+      </c>
+      <c r="AF136" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG136" s="34"/>
     </row>
     <row r="137" spans="1:33">
-      <c r="A137" t="s">
+      <c r="A137" s="34" t="s">
         <v>176</v>
       </c>
+      <c r="B137" s="34">
+        <v>0.78739871900000002</v>
+      </c>
+      <c r="C137" s="34">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D137" s="34">
+        <v>0.81242000000000003</v>
+      </c>
+      <c r="E137" s="34">
+        <v>0.784461144</v>
+      </c>
+      <c r="F137" s="43">
+        <v>0.95118999999999998</v>
+      </c>
+      <c r="G137" s="34">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="H137" s="34">
+        <v>4.1699262399999997</v>
+      </c>
+      <c r="I137" s="34">
+        <v>5.3309100000000003</v>
+      </c>
+      <c r="J137" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="K137" s="34">
+        <v>2</v>
+      </c>
+      <c r="L137" s="34">
+        <v>1</v>
+      </c>
+      <c r="M137" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="N137" s="34">
+        <v>1</v>
+      </c>
+      <c r="O137" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="P137" s="35">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="Q137" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="R137" s="34">
+        <v>9.7746701000000005E-2</v>
+      </c>
+      <c r="S137" s="34">
+        <v>0</v>
+      </c>
+      <c r="T137" s="34">
+        <v>0</v>
+      </c>
+      <c r="U137" s="34">
+        <v>0.28764371399999999</v>
+      </c>
+      <c r="V137" s="34">
+        <v>0</v>
+      </c>
+      <c r="W137" s="34">
+        <v>0</v>
+      </c>
+      <c r="X137" s="34">
+        <v>1.828029742</v>
+      </c>
+      <c r="Y137" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF137" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG137" s="34"/>
     </row>
     <row r="138" spans="1:33">
-      <c r="A138" t="s">
+      <c r="A138" s="34" t="s">
         <v>177</v>
       </c>
+      <c r="B138" s="34">
+        <v>0.68898657799999996</v>
+      </c>
+      <c r="C138" s="34">
+        <v>0.78777399999999997</v>
+      </c>
+      <c r="D138" s="34">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="E138" s="34">
+        <v>0.52620514299999999</v>
+      </c>
+      <c r="F138" s="34">
+        <v>0.75548800000000005</v>
+      </c>
+      <c r="G138" s="34">
+        <v>0.52274833300000001</v>
+      </c>
+      <c r="H138" s="34">
+        <v>2.2765291300000001</v>
+      </c>
+      <c r="I138" s="34">
+        <v>4.3944330000000003</v>
+      </c>
+      <c r="J138" s="34">
+        <v>2.3231850000000001</v>
+      </c>
+      <c r="K138" s="34">
+        <v>16</v>
+      </c>
+      <c r="L138" s="34">
+        <v>6</v>
+      </c>
+      <c r="M138" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="N138" s="34">
+        <v>6</v>
+      </c>
+      <c r="O138" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="P138" s="35">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Q138" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R138" s="34">
+        <v>0.106964355</v>
+      </c>
+      <c r="S138" s="34">
+        <v>4.3778414000000002E-2</v>
+      </c>
+      <c r="T138" s="34">
+        <v>5.9043984000000001E-2</v>
+      </c>
+      <c r="U138" s="34">
+        <v>0.23387204</v>
+      </c>
+      <c r="V138" s="34">
+        <v>0.14526349999999999</v>
+      </c>
+      <c r="W138" s="34">
+        <v>0.13268808200000001</v>
+      </c>
+      <c r="X138" s="34">
+        <v>2.0023318259999998</v>
+      </c>
+      <c r="Y138" s="34">
+        <v>1.179108643</v>
+      </c>
+      <c r="Z138" s="34">
+        <v>1.205493082</v>
+      </c>
+      <c r="AA138" s="45">
+        <v>3.4022200000000001E-5</v>
+      </c>
+      <c r="AB138" s="37">
+        <v>1.0761997000000001E-2</v>
+      </c>
+      <c r="AC138" s="37">
+        <v>4.0748999999999999E-4</v>
+      </c>
+      <c r="AD138" s="37">
+        <v>1.1015107E-2</v>
+      </c>
+      <c r="AE138" s="37">
+        <v>1.6697899999999999E-4</v>
+      </c>
+      <c r="AF138" s="37">
+        <v>1.0113716E-2</v>
+      </c>
+      <c r="AG138" s="34"/>
     </row>
     <row r="139" spans="1:33">
-      <c r="A139" t="s">
+      <c r="A139" s="34" t="s">
         <v>178</v>
       </c>
+      <c r="B139" s="34">
+        <v>0.68323228700000005</v>
+      </c>
+      <c r="C139" s="34">
+        <v>0.69768333299999996</v>
+      </c>
+      <c r="D139" s="34">
+        <v>0.61380999999999997</v>
+      </c>
+      <c r="E139" s="34">
+        <v>0.46978498299999999</v>
+      </c>
+      <c r="F139" s="34">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="G139" s="34">
+        <v>0.35124</v>
+      </c>
+      <c r="H139" s="34">
+        <v>1.883738259</v>
+      </c>
+      <c r="I139" s="36">
+        <v>0.86336666699999998</v>
+      </c>
+      <c r="J139" s="34">
+        <v>0.92598999999999998</v>
+      </c>
+      <c r="K139" s="34">
+        <v>4</v>
+      </c>
+      <c r="L139" s="34">
+        <v>1</v>
+      </c>
+      <c r="M139" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="N139" s="34">
+        <v>1</v>
+      </c>
+      <c r="O139" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="P139" s="35">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="Q139" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R139" s="34">
+        <v>8.4595136000000001E-2</v>
+      </c>
+      <c r="S139" s="34">
+        <v>6.8337942999999998E-2</v>
+      </c>
+      <c r="T139" s="34">
+        <v>0</v>
+      </c>
+      <c r="U139" s="34">
+        <v>0.21958671699999999</v>
+      </c>
+      <c r="V139" s="34">
+        <v>0.241167667</v>
+      </c>
+      <c r="W139" s="34">
+        <v>0</v>
+      </c>
+      <c r="X139" s="34">
+        <v>2.0865303239999999</v>
+      </c>
+      <c r="Y139" s="34">
+        <v>1.8808509410000001</v>
+      </c>
+      <c r="Z139" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="36">
+        <v>0.374947117</v>
+      </c>
+      <c r="AB139" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC139" s="36">
+        <v>0.44452309800000001</v>
+      </c>
+      <c r="AD139" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE139" s="43">
+        <v>0.22369719299999999</v>
+      </c>
+      <c r="AF139" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG139" s="34"/>
     </row>
     <row r="140" spans="1:33">
       <c r="A140" s="81" t="s">
@@ -15863,7 +16464,7 @@
       </c>
     </row>
     <row r="151" spans="1:32">
-      <c r="A151" t="s">
+      <c r="A151" s="81" t="s">
         <v>189</v>
       </c>
     </row>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="40" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="9080" yWindow="1220" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -949,9 +949,6 @@
   </si>
   <si>
     <t xml:space="preserve">*note: this one had 38 mutations but they seem to be wrong </t>
-  </si>
-  <si>
-    <t>2.6965E+308</t>
   </si>
   <si>
     <t>hmzdy</t>
@@ -1203,9 +1200,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="466">
+  <cellStyleXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1755,7 +1760,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="466">
+  <cellStyles count="474">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1988,6 +1993,10 @@
     <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2220,6 +2229,10 @@
     <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2553,7 +2566,7 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:AG139"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15372,7 +15385,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="Q130" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R130" s="34">
         <v>7.9070056E-2</v>
@@ -15928,8 +15941,8 @@
       <c r="C136" s="34">
         <v>0.81992571400000003</v>
       </c>
-      <c r="D136" s="68" t="s">
-        <v>310</v>
+      <c r="D136" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="E136" s="34">
         <v>0.70997175000000001</v>
@@ -15937,8 +15950,8 @@
       <c r="F136" s="34">
         <v>0.820974286</v>
       </c>
-      <c r="G136" s="68" t="s">
-        <v>310</v>
+      <c r="G136" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="H136" s="34">
         <v>0.78493934799999998</v>
@@ -15946,8 +15959,8 @@
       <c r="I136" s="34">
         <v>0.81992571400000003</v>
       </c>
-      <c r="J136" s="68" t="s">
-        <v>310</v>
+      <c r="J136" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="K136" s="34">
         <v>14</v>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="1220" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="3360" yWindow="8280" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -1200,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="474">
+  <cellStyleXfs count="486">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1675,8 +1675,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1759,8 +1771,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="474">
+  <cellStyles count="486">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1997,6 +2013,12 @@
     <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2233,6 +2255,12 @@
     <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2565,8 +2593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2613,7 @@
     <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" customWidth="1"/>
@@ -16328,8 +16357,101 @@
       <c r="AG139" s="34"/>
     </row>
     <row r="140" spans="1:33">
-      <c r="A140" s="81" t="s">
+      <c r="A140" s="85" t="s">
         <v>179</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.72630410958904101</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.826446666666667</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.57376130136986303</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.88968666666666696</v>
+      </c>
+      <c r="G140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="3">
+        <v>2.3957095205479502</v>
+      </c>
+      <c r="I140" s="3">
+        <v>4.8248499999999996</v>
+      </c>
+      <c r="J140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K140" s="82">
+        <v>3</v>
+      </c>
+      <c r="L140" s="82">
+        <v>0</v>
+      </c>
+      <c r="M140" s="83">
+        <v>0</v>
+      </c>
+      <c r="N140" s="82">
+        <v>3</v>
+      </c>
+      <c r="O140" s="83">
+        <v>1</v>
+      </c>
+      <c r="P140" s="6">
+        <v>6.5217391304300001E-2</v>
+      </c>
+      <c r="Q140" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="R140" s="3">
+        <v>9.9044631510529002E-2</v>
+      </c>
+      <c r="S140" s="3">
+        <v>5.2522524268694302E-3</v>
+      </c>
+      <c r="T140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U140" s="3">
+        <v>0.237057963651294</v>
+      </c>
+      <c r="V140" s="3">
+        <v>1.9497290979916999E-2</v>
+      </c>
+      <c r="W140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="X140" s="3">
+        <v>2.09693149916479</v>
+      </c>
+      <c r="Y140" s="3">
+        <v>0.24132203394358101</v>
+      </c>
+      <c r="Z140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA140" s="84">
+        <v>3.7654695827125202E-3</v>
+      </c>
+      <c r="AB140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC140" s="84">
+        <v>2.5434701915883302E-3</v>
+      </c>
+      <c r="AD140" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE140" s="84">
+        <v>4.1447773262681701E-3</v>
+      </c>
+      <c r="AF140" s="34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:33">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="8280" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="8860" yWindow="0" windowWidth="23080" windowHeight="15500" tabRatio="248"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="311">
   <si>
     <t>Gene</t>
   </si>
@@ -1091,7 +1091,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,8 +1116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1199,8 +1205,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="486">
+  <cellStyleXfs count="602">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1687,8 +1704,124 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,12 +1904,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="486">
+  <cellStyles count="602">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2019,6 +2174,64 @@
     <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2261,6 +2474,64 @@
     <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2594,8 +2865,8 @@
   <dimension ref="A1:AG262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF160" sqref="A160:AF160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16356,122 +16627,496 @@
       </c>
       <c r="AG139" s="34"/>
     </row>
-    <row r="140" spans="1:33">
-      <c r="A140" s="85" t="s">
+    <row r="140" spans="1:33" s="88" customFormat="1">
+      <c r="A140" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="83">
         <v>0.72630410958904101</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="83">
         <v>0.826446666666667</v>
       </c>
-      <c r="D140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="83">
         <v>0.57376130136986303</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="83">
         <v>0.88968666666666696</v>
       </c>
-      <c r="G140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H140" s="3">
+      <c r="G140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="83">
         <v>2.3957095205479502</v>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="83">
         <v>4.8248499999999996</v>
       </c>
-      <c r="J140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K140" s="82">
+      <c r="J140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K140" s="84">
         <v>3</v>
       </c>
-      <c r="L140" s="82">
-        <v>0</v>
-      </c>
-      <c r="M140" s="83">
-        <v>0</v>
-      </c>
-      <c r="N140" s="82">
+      <c r="L140" s="84">
+        <v>0</v>
+      </c>
+      <c r="M140" s="85">
+        <v>0</v>
+      </c>
+      <c r="N140" s="84">
         <v>3</v>
       </c>
-      <c r="O140" s="83">
+      <c r="O140" s="85">
         <v>1</v>
       </c>
-      <c r="P140" s="6">
+      <c r="P140" s="86">
         <v>6.5217391304300001E-2</v>
       </c>
-      <c r="Q140" s="82" t="s">
+      <c r="Q140" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="R140" s="3">
+      <c r="R140" s="83">
         <v>9.9044631510529002E-2</v>
       </c>
-      <c r="S140" s="3">
+      <c r="S140" s="83">
         <v>5.2522524268694302E-3</v>
       </c>
-      <c r="T140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="U140" s="3">
+      <c r="T140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="U140" s="83">
         <v>0.237057963651294</v>
       </c>
-      <c r="V140" s="3">
+      <c r="V140" s="83">
         <v>1.9497290979916999E-2</v>
       </c>
-      <c r="W140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="X140" s="3">
+      <c r="W140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="X140" s="83">
         <v>2.09693149916479</v>
       </c>
-      <c r="Y140" s="3">
+      <c r="Y140" s="83">
         <v>0.24132203394358101</v>
       </c>
-      <c r="Z140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA140" s="84">
+      <c r="Z140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA140" s="87">
         <v>3.7654695827125202E-3</v>
       </c>
-      <c r="AB140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC140" s="84">
+      <c r="AB140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC140" s="87">
         <v>2.5434701915883302E-3</v>
       </c>
-      <c r="AD140" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE140" s="84">
+      <c r="AD140" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE140" s="87">
         <v>4.1447773262681701E-3</v>
       </c>
-      <c r="AF140" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="1:33">
-      <c r="A141" t="s">
+      <c r="AF140" s="84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" s="88" customFormat="1">
+      <c r="A141" s="83" t="s">
         <v>180</v>
       </c>
+      <c r="B141" s="83">
+        <v>0.69731355704697995</v>
+      </c>
+      <c r="C141" s="83">
+        <v>0.83162199999999997</v>
+      </c>
+      <c r="D141" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="83">
+        <v>0.53422539149888104</v>
+      </c>
+      <c r="F141" s="83">
+        <v>0.86162399999999995</v>
+      </c>
+      <c r="G141" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="83">
+        <v>2.2058473825503402</v>
+      </c>
+      <c r="I141" s="83">
+        <v>5.1720240000000004</v>
+      </c>
+      <c r="J141" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" s="84">
+        <v>5</v>
+      </c>
+      <c r="L141" s="84">
+        <v>0</v>
+      </c>
+      <c r="M141" s="85">
+        <v>0</v>
+      </c>
+      <c r="N141" s="84">
+        <v>5</v>
+      </c>
+      <c r="O141" s="85">
+        <v>1</v>
+      </c>
+      <c r="P141" s="86">
+        <v>4.6728971962600001E-2</v>
+      </c>
+      <c r="Q141" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R141" s="83">
+        <v>0.104284351238804</v>
+      </c>
+      <c r="S141" s="83">
+        <v>2.8274918496787899E-2</v>
+      </c>
+      <c r="T141" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="U141" s="83">
+        <v>0.226542425027082</v>
+      </c>
+      <c r="V141" s="83">
+        <v>4.2036160909388498E-2</v>
+      </c>
+      <c r="W141" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="X141" s="83">
+        <v>2.2684291484800498</v>
+      </c>
+      <c r="Y141" s="83">
+        <v>1.01473192748824</v>
+      </c>
+      <c r="Z141" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA141" s="87">
+        <v>2.92680298693821E-4</v>
+      </c>
+      <c r="AB141" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC141" s="87">
+        <v>5.5612591905292997E-5</v>
+      </c>
+      <c r="AD141" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE141" s="87">
+        <v>1.56556818203267E-3</v>
+      </c>
+      <c r="AF141" s="84" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="142" spans="1:33">
-      <c r="A142" t="s">
+      <c r="A142" s="83" t="s">
         <v>181</v>
       </c>
+      <c r="B142" s="83">
+        <v>0.79065549194991003</v>
+      </c>
+      <c r="C142" s="83">
+        <v>0.82433666666666705</v>
+      </c>
+      <c r="D142" s="83">
+        <v>0.83074000000000003</v>
+      </c>
+      <c r="E142" s="83">
+        <v>0.72037128801431105</v>
+      </c>
+      <c r="F142" s="83">
+        <v>0.82579333333333305</v>
+      </c>
+      <c r="G142" s="83">
+        <v>0.90271000000000001</v>
+      </c>
+      <c r="H142" s="83">
+        <v>3.7235981216458001</v>
+      </c>
+      <c r="I142" s="83">
+        <v>3.8247313333333302</v>
+      </c>
+      <c r="J142" s="83">
+        <v>4.7507599999999996</v>
+      </c>
+      <c r="K142" s="84">
+        <v>14</v>
+      </c>
+      <c r="L142" s="84">
+        <v>1</v>
+      </c>
+      <c r="M142" s="89">
+        <f>L142/K142</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N142" s="84">
+        <v>13</v>
+      </c>
+      <c r="O142" s="90">
+        <v>0.93</v>
+      </c>
+      <c r="P142" s="86">
+        <v>4.0123456790100001E-2</v>
+      </c>
+      <c r="Q142" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="R142" s="83">
+        <v>5.4568935815754102E-2</v>
+      </c>
+      <c r="S142" s="83">
+        <v>1.47848619277362E-2</v>
+      </c>
+      <c r="T142" s="83">
+        <v>0</v>
+      </c>
+      <c r="U142" s="83">
+        <v>0.210956317550862</v>
+      </c>
+      <c r="V142" s="83">
+        <v>0.14223860482380399</v>
+      </c>
+      <c r="W142" s="83">
+        <v>0</v>
+      </c>
+      <c r="X142" s="83">
+        <v>1.63014632947948</v>
+      </c>
+      <c r="Y142" s="83">
+        <v>1.8442201504551701</v>
+      </c>
+      <c r="Z142" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="87">
+        <v>1.3339058367984499E-6</v>
+      </c>
+      <c r="AB142" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC142" s="87">
+        <v>7.2399792882969997E-3</v>
+      </c>
+      <c r="AD142" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE142" s="91">
+        <v>0.41827214916891398</v>
+      </c>
+      <c r="AF142" s="84" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="143" spans="1:33">
-      <c r="A143" t="s">
+      <c r="A143" s="83" t="s">
         <v>182</v>
       </c>
+      <c r="B143" s="83">
+        <v>0.702792483333333</v>
+      </c>
+      <c r="C143" s="83">
+        <v>0.79562999999999995</v>
+      </c>
+      <c r="D143" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="83">
+        <v>0.44201101666666698</v>
+      </c>
+      <c r="F143" s="83">
+        <v>0.78364</v>
+      </c>
+      <c r="G143" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="83">
+        <v>2.0054857666666699</v>
+      </c>
+      <c r="I143" s="83">
+        <v>4.6064600000000002</v>
+      </c>
+      <c r="J143" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K143" s="84">
+        <v>2</v>
+      </c>
+      <c r="L143" s="84">
+        <v>0</v>
+      </c>
+      <c r="M143" s="83">
+        <v>0</v>
+      </c>
+      <c r="N143" s="84">
+        <v>2</v>
+      </c>
+      <c r="O143" s="92">
+        <v>1</v>
+      </c>
+      <c r="P143" s="86">
+        <v>1.19047619048E-2</v>
+      </c>
+      <c r="Q143" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="R143" s="83">
+        <v>0.108370959326441</v>
+      </c>
+      <c r="S143" s="83">
+        <v>0</v>
+      </c>
+      <c r="T143" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="U143" s="83">
+        <v>0.27494656722073502</v>
+      </c>
+      <c r="V143" s="83">
+        <v>0</v>
+      </c>
+      <c r="W143" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="X143" s="83">
+        <v>2.1001854935064102</v>
+      </c>
+      <c r="Y143" s="83">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA143" s="87">
+        <v>1.5157775112027099E-2</v>
+      </c>
+      <c r="AB143" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC143" s="87">
+        <v>1.0454707579371199E-2</v>
+      </c>
+      <c r="AD143" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE143" s="87">
+        <v>1.04891155844824E-2</v>
+      </c>
+      <c r="AF143" s="84" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="144" spans="1:33">
-      <c r="A144" t="s">
+      <c r="A144" s="83" t="s">
         <v>183</v>
+      </c>
+      <c r="B144" s="83">
+        <v>0.70364364372469601</v>
+      </c>
+      <c r="C144" s="94">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="D144" s="83">
+        <v>0.68972999999999995</v>
+      </c>
+      <c r="E144" s="83">
+        <v>0.57917550607287405</v>
+      </c>
+      <c r="F144" s="94">
+        <v>0.42157666666666699</v>
+      </c>
+      <c r="G144" s="83">
+        <v>0.62556</v>
+      </c>
+      <c r="H144" s="83">
+        <v>2.4653627935222699</v>
+      </c>
+      <c r="I144" s="94">
+        <v>1.64391</v>
+      </c>
+      <c r="J144" s="83">
+        <v>2.3900399999999999</v>
+      </c>
+      <c r="K144" s="84">
+        <v>4</v>
+      </c>
+      <c r="L144" s="84">
+        <v>1</v>
+      </c>
+      <c r="M144" s="89">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="N144" s="84">
+        <v>0</v>
+      </c>
+      <c r="O144" s="89">
+        <v>0</v>
+      </c>
+      <c r="P144" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R144" s="83">
+        <v>8.1936578607169006E-2</v>
+      </c>
+      <c r="S144" s="83">
+        <v>0.17098600663992</v>
+      </c>
+      <c r="T144" s="83">
+        <v>0</v>
+      </c>
+      <c r="U144" s="83">
+        <v>0.19153114316494799</v>
+      </c>
+      <c r="V144" s="83">
+        <v>0.18111298211030799</v>
+      </c>
+      <c r="W144" s="83">
+        <v>0</v>
+      </c>
+      <c r="X144" s="83">
+        <v>1.5899365714466001</v>
+      </c>
+      <c r="Y144" s="83">
+        <v>0.897345984222362</v>
+      </c>
+      <c r="Z144" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="95">
+        <v>0.15209116101887199</v>
+      </c>
+      <c r="AB144" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC144" s="95">
+        <v>0.13653455849329399</v>
+      </c>
+      <c r="AD144" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE144" s="95">
+        <v>0.129972221976802</v>
+      </c>
+      <c r="AF144" s="84" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:32">
@@ -16574,78 +17219,1485 @@
       </c>
     </row>
     <row r="146" spans="1:32">
-      <c r="A146" t="s">
+      <c r="A146" s="83" t="s">
         <v>184</v>
       </c>
+      <c r="B146" s="83">
+        <v>0.69481000000000004</v>
+      </c>
+      <c r="C146" s="83">
+        <v>0.74442066666666695</v>
+      </c>
+      <c r="D146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="83">
+        <v>0.49557676136363599</v>
+      </c>
+      <c r="F146" s="83">
+        <v>0.64915066666666699</v>
+      </c>
+      <c r="G146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" s="83">
+        <v>1.72750767045455</v>
+      </c>
+      <c r="I146" s="83">
+        <v>3.2671206666666701</v>
+      </c>
+      <c r="J146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K146" s="84">
+        <v>15</v>
+      </c>
+      <c r="L146" s="84">
+        <v>0</v>
+      </c>
+      <c r="M146" s="83">
+        <v>0</v>
+      </c>
+      <c r="N146" s="84">
+        <v>8</v>
+      </c>
+      <c r="O146" s="86">
+        <v>0.53333333333300004</v>
+      </c>
+      <c r="P146" s="96">
+        <v>0.27586206896600002</v>
+      </c>
+      <c r="Q146" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="R146" s="83">
+        <v>6.5323261092605597E-2</v>
+      </c>
+      <c r="S146" s="83">
+        <v>5.3933422101286599E-2</v>
+      </c>
+      <c r="T146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="U146" s="83">
+        <v>0.16898710835132699</v>
+      </c>
+      <c r="V146" s="83">
+        <v>0.14625190362141899</v>
+      </c>
+      <c r="W146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="X146" s="83">
+        <v>1.87848398533496</v>
+      </c>
+      <c r="Y146" s="83">
+        <v>1.7422591775258001</v>
+      </c>
+      <c r="Z146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA146" s="87">
+        <v>2.34073431912621E-3</v>
+      </c>
+      <c r="AB146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC146" s="87">
+        <v>8.7761053856258496E-4</v>
+      </c>
+      <c r="AD146" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE146" s="87">
+        <v>2.82311984985104E-3</v>
+      </c>
+      <c r="AF146" s="83" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="147" spans="1:32">
-      <c r="A147" t="s">
+      <c r="A147" s="83" t="s">
         <v>185</v>
       </c>
+      <c r="B147" s="83">
+        <v>0.71907701492537301</v>
+      </c>
+      <c r="C147" s="83">
+        <v>0.76863527027027001</v>
+      </c>
+      <c r="D147" s="83">
+        <v>0.71784333333333294</v>
+      </c>
+      <c r="E147" s="83">
+        <v>0.603349933665008</v>
+      </c>
+      <c r="F147" s="83">
+        <v>0.74270756756756795</v>
+      </c>
+      <c r="G147" s="83">
+        <v>0.60789000000000004</v>
+      </c>
+      <c r="H147" s="83">
+        <v>2.8466532504145898</v>
+      </c>
+      <c r="I147" s="83">
+        <v>4.2360986486486496</v>
+      </c>
+      <c r="J147" s="83">
+        <v>3.0052766666666701</v>
+      </c>
+      <c r="K147" s="84">
+        <v>77</v>
+      </c>
+      <c r="L147" s="84">
+        <v>3</v>
+      </c>
+      <c r="M147" s="89">
+        <f>L147/K147</f>
+        <v>3.896103896103896E-2</v>
+      </c>
+      <c r="N147" s="84">
+        <v>47</v>
+      </c>
+      <c r="O147" s="86">
+        <v>0.61038961038999995</v>
+      </c>
+      <c r="P147" s="86">
+        <v>0.246073298429</v>
+      </c>
+      <c r="Q147" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R147" s="83">
+        <v>9.2886623996447898E-2</v>
+      </c>
+      <c r="S147" s="83">
+        <v>8.2316499006643506E-2</v>
+      </c>
+      <c r="T147" s="83">
+        <v>5.2265561850568E-2</v>
+      </c>
+      <c r="U147" s="83">
+        <v>0.22336183427110101</v>
+      </c>
+      <c r="V147" s="83">
+        <v>0.195790065519794</v>
+      </c>
+      <c r="W147" s="83">
+        <v>0.16476555242728</v>
+      </c>
+      <c r="X147" s="83">
+        <v>1.8703240257634399</v>
+      </c>
+      <c r="Y147" s="83">
+        <v>1.6842520925583999</v>
+      </c>
+      <c r="Z147" s="83">
+        <v>0.88034430424818599</v>
+      </c>
+      <c r="AA147" s="87">
+        <v>3.8532939592236504E-6</v>
+      </c>
+      <c r="AB147" s="91">
+        <v>0.124907323896662</v>
+      </c>
+      <c r="AC147" s="87">
+        <v>1.2608442259794899E-7</v>
+      </c>
+      <c r="AD147" s="91">
+        <v>0.15101864403941301</v>
+      </c>
+      <c r="AE147" s="87">
+        <v>2.6866889689986302E-9</v>
+      </c>
+      <c r="AF147" s="91">
+        <v>7.6158925824506896E-2</v>
+      </c>
     </row>
     <row r="148" spans="1:32">
-      <c r="A148" t="s">
+      <c r="A148" s="83" t="s">
         <v>186</v>
       </c>
+      <c r="B148" s="83">
+        <v>0.78697529230769314</v>
+      </c>
+      <c r="C148" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="97">
+        <v>0.75253000000000003</v>
+      </c>
+      <c r="E148" s="83">
+        <v>0.74307598461538493</v>
+      </c>
+      <c r="F148" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="97">
+        <v>0.60167000000000004</v>
+      </c>
+      <c r="H148" s="83">
+        <v>3.8782312153846084</v>
+      </c>
+      <c r="I148" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J148" s="97">
+        <v>2.6510899999999999</v>
+      </c>
+      <c r="K148" s="84">
+        <v>1</v>
+      </c>
+      <c r="L148" s="84">
+        <v>1</v>
+      </c>
+      <c r="M148" s="89">
+        <v>1</v>
+      </c>
+      <c r="N148" s="84">
+        <v>0</v>
+      </c>
+      <c r="O148" s="92">
+        <v>0</v>
+      </c>
+      <c r="P148" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="R148" s="83">
+        <v>7.4693924132440082E-2</v>
+      </c>
+      <c r="S148" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="T148" s="83">
+        <v>0</v>
+      </c>
+      <c r="U148" s="83">
+        <v>0.24443344072668322</v>
+      </c>
+      <c r="V148" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="W148" s="83">
+        <v>0</v>
+      </c>
+      <c r="X148" s="83">
+        <v>1.7425099852521739</v>
+      </c>
+      <c r="Y148" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z148" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB148" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC148" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD148" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE148" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF148" s="84" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="149" spans="1:32">
-      <c r="A149" t="s">
+      <c r="A149" s="83" t="s">
         <v>187</v>
       </c>
+      <c r="B149" s="83">
+        <v>0.70296617418351504</v>
+      </c>
+      <c r="C149" s="83">
+        <v>0.80553666666666701</v>
+      </c>
+      <c r="D149" s="83">
+        <v>0.50990999999999997</v>
+      </c>
+      <c r="E149" s="83">
+        <v>0.59502894245723204</v>
+      </c>
+      <c r="F149" s="83">
+        <v>0.802993333333333</v>
+      </c>
+      <c r="G149" s="83">
+        <v>0.39344499999999999</v>
+      </c>
+      <c r="H149" s="83">
+        <v>2.79856895800933</v>
+      </c>
+      <c r="I149" s="83">
+        <v>3.6655899999999999</v>
+      </c>
+      <c r="J149" s="83">
+        <v>1.3559300000000001</v>
+      </c>
+      <c r="K149" s="84">
+        <v>5</v>
+      </c>
+      <c r="L149" s="84">
+        <v>2</v>
+      </c>
+      <c r="M149" s="89">
+        <f>L149/K149</f>
+        <v>0.4</v>
+      </c>
+      <c r="N149" s="84">
+        <v>2</v>
+      </c>
+      <c r="O149" s="89">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="P149" s="86">
+        <v>1.0582010582E-2</v>
+      </c>
+      <c r="Q149" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R149" s="83">
+        <v>0.12158984732794299</v>
+      </c>
+      <c r="S149" s="83">
+        <v>5.8130338799020298E-2</v>
+      </c>
+      <c r="T149" s="83">
+        <v>0.22292999999999999</v>
+      </c>
+      <c r="U149" s="83">
+        <v>0.227412416382337</v>
+      </c>
+      <c r="V149" s="83">
+        <v>0.200815237525</v>
+      </c>
+      <c r="W149" s="83">
+        <v>0.202155</v>
+      </c>
+      <c r="X149" s="83">
+        <v>1.77361453630495</v>
+      </c>
+      <c r="Y149" s="83">
+        <v>1.3800896542616401</v>
+      </c>
+      <c r="Z149" s="83">
+        <v>0.60031999999999996</v>
+      </c>
+      <c r="AA149" s="87">
+        <v>4.7042161668671201E-2</v>
+      </c>
+      <c r="AB149" s="91">
+        <v>0.15887856759305299</v>
+      </c>
+      <c r="AC149" s="91">
+        <v>0.107808530891597</v>
+      </c>
+      <c r="AD149" s="91">
+        <v>0.13444112523218199</v>
+      </c>
+      <c r="AE149" s="91">
+        <v>0.195830763514416</v>
+      </c>
+      <c r="AF149" s="91">
+        <v>0.118610303772768</v>
+      </c>
     </row>
     <row r="150" spans="1:32">
-      <c r="A150" t="s">
+      <c r="A150" s="83" t="s">
         <v>188</v>
       </c>
+      <c r="B150" s="83">
+        <v>0.60758072046109557</v>
+      </c>
+      <c r="C150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="98">
+        <v>0.46019398700000003</v>
+      </c>
+      <c r="F150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="83">
+        <v>1.7517901633045083</v>
+      </c>
+      <c r="I150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150" s="84">
+        <v>0</v>
+      </c>
+      <c r="L150" s="84">
+        <v>0</v>
+      </c>
+      <c r="M150" s="89">
+        <v>0</v>
+      </c>
+      <c r="N150" s="84">
+        <v>0</v>
+      </c>
+      <c r="O150" s="92">
+        <v>0</v>
+      </c>
+      <c r="P150" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="R150" s="83">
+        <v>0.16108086617183362</v>
+      </c>
+      <c r="S150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="T150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="U150" s="83">
+        <v>0.23398018888576738</v>
+      </c>
+      <c r="V150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="W150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="X150" s="83">
+        <v>1.6888612966218115</v>
+      </c>
+      <c r="Y150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE150" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF150" s="93" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="151" spans="1:32">
-      <c r="A151" s="81" t="s">
+      <c r="A151" s="82" t="s">
         <v>189</v>
       </c>
+      <c r="B151" s="83">
+        <v>0.68896006493506501</v>
+      </c>
+      <c r="C151" s="83">
+        <v>0.83773500000000001</v>
+      </c>
+      <c r="D151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="83">
+        <v>0.52630392316017305</v>
+      </c>
+      <c r="F151" s="83">
+        <v>0.91205749999999997</v>
+      </c>
+      <c r="G151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="83">
+        <v>2.15106619588745</v>
+      </c>
+      <c r="I151" s="83">
+        <v>5.6786149999999997</v>
+      </c>
+      <c r="J151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" s="84">
+        <v>4</v>
+      </c>
+      <c r="L151" s="84">
+        <v>0</v>
+      </c>
+      <c r="M151" s="89">
+        <v>0</v>
+      </c>
+      <c r="N151" s="84">
+        <v>4</v>
+      </c>
+      <c r="O151" s="92">
+        <v>1</v>
+      </c>
+      <c r="P151" s="86">
+        <v>9.6618357487899993E-3</v>
+      </c>
+      <c r="Q151" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R151" s="83">
+        <v>0.10273945787597601</v>
+      </c>
+      <c r="S151" s="83">
+        <v>1.9768795486827199E-2</v>
+      </c>
+      <c r="T151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="U151" s="83">
+        <v>0.233562314152894</v>
+      </c>
+      <c r="V151" s="83">
+        <v>9.8079491835704399E-2</v>
+      </c>
+      <c r="W151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="X151" s="83">
+        <v>1.7791300047779399</v>
+      </c>
+      <c r="Y151" s="83">
+        <v>0.97094417230085905</v>
+      </c>
+      <c r="Z151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA151" s="87">
+        <v>3.4630438171656002E-4</v>
+      </c>
+      <c r="AB151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC151" s="87">
+        <v>2.1782059186722801E-3</v>
+      </c>
+      <c r="AD151" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE151" s="87">
+        <v>2.7175686058044301E-3</v>
+      </c>
+      <c r="AF151" s="83" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="152" spans="1:32">
-      <c r="A152" t="s">
+      <c r="A152" s="83" t="s">
         <v>190</v>
       </c>
+      <c r="B152" s="83">
+        <v>0.72469535279805397</v>
+      </c>
+      <c r="C152" s="83">
+        <v>0.70686666666666698</v>
+      </c>
+      <c r="D152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="83">
+        <v>0.59321508515815102</v>
+      </c>
+      <c r="F152" s="83">
+        <v>0.51141999999999999</v>
+      </c>
+      <c r="G152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="83">
+        <v>2.7422189537712902</v>
+      </c>
+      <c r="I152" s="83">
+        <v>2.8648566666666699</v>
+      </c>
+      <c r="J152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K152" s="84">
+        <v>6</v>
+      </c>
+      <c r="L152" s="84">
+        <v>0</v>
+      </c>
+      <c r="M152" s="89">
+        <v>0</v>
+      </c>
+      <c r="N152" s="84">
+        <v>1</v>
+      </c>
+      <c r="O152" s="89">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P152" s="86">
+        <v>7.5187969924800004E-3</v>
+      </c>
+      <c r="Q152" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R152" s="83">
+        <v>8.0400930455206104E-2</v>
+      </c>
+      <c r="S152" s="83">
+        <v>4.2069127503299698E-2</v>
+      </c>
+      <c r="T152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="U152" s="83">
+        <v>0.22210715642448001</v>
+      </c>
+      <c r="V152" s="83">
+        <v>0.11659019670052299</v>
+      </c>
+      <c r="W152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="X152" s="83">
+        <v>2.1663498878595999</v>
+      </c>
+      <c r="Y152" s="83">
+        <v>0.881594745894557</v>
+      </c>
+      <c r="Z152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA152" s="95">
+        <v>0.1791044889914</v>
+      </c>
+      <c r="AB152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC152" s="95">
+        <v>7.7425333536956201E-2</v>
+      </c>
+      <c r="AD152" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE152" s="91">
+        <v>0.37858062229477502</v>
+      </c>
+      <c r="AF152" s="83" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="153" spans="1:32">
-      <c r="A153" t="s">
+      <c r="A153" s="83" t="s">
         <v>191</v>
       </c>
+      <c r="B153" s="83">
+        <v>0.68271005383580097</v>
+      </c>
+      <c r="C153" s="83">
+        <v>0.75618882352941197</v>
+      </c>
+      <c r="D153" s="83">
+        <v>0.5333</v>
+      </c>
+      <c r="E153" s="83">
+        <v>0.48481944818304201</v>
+      </c>
+      <c r="F153" s="83">
+        <v>0.68150058823529402</v>
+      </c>
+      <c r="G153" s="83">
+        <v>0.13438</v>
+      </c>
+      <c r="H153" s="83">
+        <v>2.0384167160161502</v>
+      </c>
+      <c r="I153" s="83">
+        <v>3.5354782352941201</v>
+      </c>
+      <c r="J153" s="83">
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="K153" s="84">
+        <v>19</v>
+      </c>
+      <c r="L153" s="84">
+        <v>2</v>
+      </c>
+      <c r="M153" s="89">
+        <f>2/19</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="N153" s="84">
+        <v>10</v>
+      </c>
+      <c r="O153" s="86">
+        <v>0.52631578947400004</v>
+      </c>
+      <c r="P153" s="86">
+        <v>6.9930069930099995E-2</v>
+      </c>
+      <c r="Q153" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R153" s="83">
+        <v>8.7267111516036902E-2</v>
+      </c>
+      <c r="S153" s="83">
+        <v>5.42450029015797E-2</v>
+      </c>
+      <c r="T153" s="83">
+        <v>0</v>
+      </c>
+      <c r="U153" s="83">
+        <v>0.20601529533396101</v>
+      </c>
+      <c r="V153" s="83">
+        <v>0.15966403663246001</v>
+      </c>
+      <c r="W153" s="83">
+        <v>0</v>
+      </c>
+      <c r="X153" s="83">
+        <v>2.0041059935470402</v>
+      </c>
+      <c r="Y153" s="83">
+        <v>1.8404347652955899</v>
+      </c>
+      <c r="Z153" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="87">
+        <v>2.7973291588060498E-5</v>
+      </c>
+      <c r="AB153" s="87">
+        <v>1.8766941159264399E-2</v>
+      </c>
+      <c r="AC153" s="87">
+        <v>6.7449579438613706E-5</v>
+      </c>
+      <c r="AD153" s="87">
+        <v>2.2491896478319E-2</v>
+      </c>
+      <c r="AE153" s="87">
+        <v>2.2159971294491601E-3</v>
+      </c>
+      <c r="AF153" s="91">
+        <v>5.62724120357143E-2</v>
+      </c>
     </row>
     <row r="154" spans="1:32">
-      <c r="A154" t="s">
+      <c r="A154" s="83" t="s">
         <v>192</v>
       </c>
+      <c r="B154" s="83">
+        <v>0.77125532544378705</v>
+      </c>
+      <c r="C154" s="83">
+        <v>0.82397500000000001</v>
+      </c>
+      <c r="D154" s="83">
+        <v>0.73107999999999995</v>
+      </c>
+      <c r="E154" s="83">
+        <v>0.63226520710059197</v>
+      </c>
+      <c r="F154" s="83">
+        <v>0.73661750000000004</v>
+      </c>
+      <c r="G154" s="83">
+        <v>0.38652500000000001</v>
+      </c>
+      <c r="H154" s="83">
+        <v>3.1786405917159799</v>
+      </c>
+      <c r="I154" s="83">
+        <v>4.7886924999999998</v>
+      </c>
+      <c r="J154" s="83">
+        <v>-1.2362249999999999</v>
+      </c>
+      <c r="K154" s="84">
+        <v>6</v>
+      </c>
+      <c r="L154" s="84">
+        <v>2</v>
+      </c>
+      <c r="M154" s="89">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N154" s="84">
+        <v>3</v>
+      </c>
+      <c r="O154" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="P154" s="86">
+        <v>3.8961038960999998E-2</v>
+      </c>
+      <c r="Q154" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="R154" s="83">
+        <v>7.10413015136412E-2</v>
+      </c>
+      <c r="S154" s="83">
+        <v>3.5852155792922703E-2</v>
+      </c>
+      <c r="T154" s="83">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="U154" s="83">
+        <v>0.233143629789337</v>
+      </c>
+      <c r="V154" s="83">
+        <v>0.124775193523192</v>
+      </c>
+      <c r="W154" s="83">
+        <v>3.2114999999999998E-2</v>
+      </c>
+      <c r="X154" s="83">
+        <v>1.97479486786062</v>
+      </c>
+      <c r="Y154" s="83">
+        <v>1.9606160003092801</v>
+      </c>
+      <c r="Z154" s="83">
+        <v>0.53075499999999998</v>
+      </c>
+      <c r="AA154" s="87">
+        <v>3.3559115870766203E-2</v>
+      </c>
+      <c r="AB154" s="91">
+        <v>6.6610441186702299E-2</v>
+      </c>
+      <c r="AC154" s="91">
+        <v>0.10314867676819101</v>
+      </c>
+      <c r="AD154" s="91">
+        <v>5.9656287605326902E-2</v>
+      </c>
+      <c r="AE154" s="91">
+        <v>0.10152109337548899</v>
+      </c>
+      <c r="AF154" s="91">
+        <v>5.4906477882872999E-2</v>
+      </c>
     </row>
     <row r="155" spans="1:32">
-      <c r="A155" t="s">
+      <c r="A155" s="101" t="s">
         <v>193</v>
       </c>
+      <c r="B155" s="102">
+        <v>0.73715997300944569</v>
+      </c>
+      <c r="C155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="103">
+        <v>0.69693743600000002</v>
+      </c>
+      <c r="F155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="104">
+        <v>3.325015101</v>
+      </c>
+      <c r="I155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="K155" s="100">
+        <v>18</v>
+      </c>
+      <c r="L155" s="100">
+        <v>2</v>
+      </c>
+      <c r="M155" s="105">
+        <f>L155/K155</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N155" s="106">
+        <v>0</v>
+      </c>
+      <c r="O155" s="105">
+        <v>0</v>
+      </c>
+      <c r="P155" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="R155" s="102">
+        <v>0.11239899846745763</v>
+      </c>
+      <c r="S155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="T155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="U155" s="104">
+        <v>0.227933997</v>
+      </c>
+      <c r="V155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="W155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="X155" s="104">
+        <v>1.7962837920000001</v>
+      </c>
+      <c r="Y155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE155" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF155" s="102" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="156" spans="1:32">
-      <c r="A156" t="s">
+      <c r="A156" s="83" t="s">
         <v>194</v>
       </c>
+      <c r="B156" s="83">
+        <v>0.77345293736501097</v>
+      </c>
+      <c r="C156" s="83">
+        <v>0.81557000000000002</v>
+      </c>
+      <c r="D156" s="83">
+        <v>0.66620800000000002</v>
+      </c>
+      <c r="E156" s="83">
+        <v>0.77359412526997795</v>
+      </c>
+      <c r="F156" s="83">
+        <v>0.92454999999999998</v>
+      </c>
+      <c r="G156" s="83">
+        <v>0.46950999999999998</v>
+      </c>
+      <c r="H156" s="83">
+        <v>3.8975005183585298</v>
+      </c>
+      <c r="I156" s="83">
+        <v>4.7624583333333304</v>
+      </c>
+      <c r="J156" s="83">
+        <v>2.1761140000000001</v>
+      </c>
+      <c r="K156" s="84">
+        <v>11</v>
+      </c>
+      <c r="L156" s="84">
+        <v>5</v>
+      </c>
+      <c r="M156" s="89">
+        <f>5/11</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="N156" s="84">
+        <v>5</v>
+      </c>
+      <c r="O156" s="89">
+        <v>0.45</v>
+      </c>
+      <c r="P156" s="86">
+        <v>1.8796992481199998E-2</v>
+      </c>
+      <c r="Q156" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R156" s="83">
+        <v>8.2378061774857597E-2</v>
+      </c>
+      <c r="S156" s="83">
+        <v>3.1302645788069301E-2</v>
+      </c>
+      <c r="T156" s="83">
+        <v>0.110344790796847</v>
+      </c>
+      <c r="U156" s="83">
+        <v>0.224627224840556</v>
+      </c>
+      <c r="V156" s="83">
+        <v>7.3026004957138402E-2</v>
+      </c>
+      <c r="W156" s="83">
+        <v>0.26501552354531999</v>
+      </c>
+      <c r="X156" s="83">
+        <v>1.7763777284053901</v>
+      </c>
+      <c r="Y156" s="83">
+        <v>0.73887330617674596</v>
+      </c>
+      <c r="Z156" s="83">
+        <v>2.3367807514321899</v>
+      </c>
+      <c r="AA156" s="87">
+        <v>1.25884387417979E-2</v>
+      </c>
+      <c r="AB156" s="87">
+        <v>2.14053478424918E-2</v>
+      </c>
+      <c r="AC156" s="87">
+        <v>2.4876172012285999E-3</v>
+      </c>
+      <c r="AD156" s="87">
+        <v>1.02068977942818E-2</v>
+      </c>
+      <c r="AE156" s="87">
+        <v>1.9781579824040298E-2</v>
+      </c>
+      <c r="AF156" s="87">
+        <v>3.8085520144800697E-2</v>
+      </c>
     </row>
     <row r="157" spans="1:32">
-      <c r="A157" t="s">
+      <c r="A157" s="83" t="s">
         <v>195</v>
       </c>
+      <c r="B157" s="83">
+        <v>0.74312185606060599</v>
+      </c>
+      <c r="C157" s="83">
+        <v>0.76488999999999996</v>
+      </c>
+      <c r="D157" s="83">
+        <v>0.69616999999999996</v>
+      </c>
+      <c r="E157" s="83">
+        <v>0.69493303030303</v>
+      </c>
+      <c r="F157" s="83">
+        <v>0.76466000000000001</v>
+      </c>
+      <c r="G157" s="83">
+        <v>0.59911499999999995</v>
+      </c>
+      <c r="H157" s="83">
+        <v>2.9609163636363598</v>
+      </c>
+      <c r="I157" s="83">
+        <v>4.03294</v>
+      </c>
+      <c r="J157" s="83">
+        <v>1.6459299999999999</v>
+      </c>
+      <c r="K157" s="84">
+        <v>6</v>
+      </c>
+      <c r="L157" s="84">
+        <v>2</v>
+      </c>
+      <c r="M157" s="89">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N157" s="84">
+        <v>3</v>
+      </c>
+      <c r="O157" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="P157" s="86">
+        <v>2.7777777777800002E-2</v>
+      </c>
+      <c r="Q157" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R157" s="83">
+        <v>0.102297191650901</v>
+      </c>
+      <c r="S157" s="83">
+        <v>0.10393101630408499</v>
+      </c>
+      <c r="T157" s="83">
+        <v>6.2219999999999998E-2</v>
+      </c>
+      <c r="U157" s="83">
+        <v>0.229508843539387</v>
+      </c>
+      <c r="V157" s="83">
+        <v>0.215913740646583</v>
+      </c>
+      <c r="W157" s="83">
+        <v>0.17419499999999999</v>
+      </c>
+      <c r="X157" s="83">
+        <v>2.2105868458008402</v>
+      </c>
+      <c r="Y157" s="83">
+        <v>1.2319255101872</v>
+      </c>
+      <c r="Z157" s="83">
+        <v>0.96157999999999999</v>
+      </c>
+      <c r="AA157" s="91">
+        <v>0.35273650162794701</v>
+      </c>
+      <c r="AB157" s="91">
+        <v>0.248531301235004</v>
+      </c>
+      <c r="AC157" s="91">
+        <v>0.28372953158993403</v>
+      </c>
+      <c r="AD157" s="91">
+        <v>0.248302198205478</v>
+      </c>
+      <c r="AE157" s="91">
+        <v>9.3898561474436107E-2</v>
+      </c>
+      <c r="AF157" s="91">
+        <v>0.116802645560519</v>
+      </c>
     </row>
     <row r="158" spans="1:32">
-      <c r="A158" t="s">
+      <c r="A158" s="83" t="s">
         <v>196</v>
       </c>
+      <c r="B158" s="83">
+        <v>0.733231924882629</v>
+      </c>
+      <c r="C158" s="83">
+        <v>0.7384925</v>
+      </c>
+      <c r="D158" s="83">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E158" s="83">
+        <v>0.70457056338028201</v>
+      </c>
+      <c r="F158" s="83">
+        <v>0.74333000000000005</v>
+      </c>
+      <c r="G158" s="83">
+        <v>0.15064</v>
+      </c>
+      <c r="H158" s="83">
+        <v>3.6359873708920198</v>
+      </c>
+      <c r="I158" s="83">
+        <v>3.9748774999999998</v>
+      </c>
+      <c r="J158" s="83">
+        <v>-1.3730800000000001</v>
+      </c>
+      <c r="K158" s="84">
+        <v>5</v>
+      </c>
+      <c r="L158" s="84">
+        <v>1</v>
+      </c>
+      <c r="M158" s="89">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="N158" s="84">
+        <v>2</v>
+      </c>
+      <c r="O158" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="P158" s="86">
+        <v>1.8018018018000001E-2</v>
+      </c>
+      <c r="Q158" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R158" s="83">
+        <v>0.14257226614842899</v>
+      </c>
+      <c r="S158" s="83">
+        <v>0.12122608101703999</v>
+      </c>
+      <c r="T158" s="83">
+        <v>0</v>
+      </c>
+      <c r="U158" s="83">
+        <v>0.31398608081894203</v>
+      </c>
+      <c r="V158" s="83">
+        <v>0.25028017690180698</v>
+      </c>
+      <c r="W158" s="83">
+        <v>0</v>
+      </c>
+      <c r="X158" s="83">
+        <v>2.2370743378418698</v>
+      </c>
+      <c r="Y158" s="83">
+        <v>0.72501330789079299</v>
+      </c>
+      <c r="Z158" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="91">
+        <v>0.468557964024021</v>
+      </c>
+      <c r="AB158" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC158" s="91">
+        <v>0.39006455468655199</v>
+      </c>
+      <c r="AD158" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE158" s="91">
+        <v>0.22626742838908101</v>
+      </c>
+      <c r="AF158" s="83" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="159" spans="1:32">
-      <c r="A159" t="s">
+      <c r="A159" s="83" t="s">
         <v>197</v>
       </c>
+      <c r="B159" s="83">
+        <v>0.76080385714285703</v>
+      </c>
+      <c r="C159" s="83">
+        <v>0.83748363636363599</v>
+      </c>
+      <c r="D159" s="83">
+        <v>0.50427</v>
+      </c>
+      <c r="E159" s="83">
+        <v>0.75830157142857102</v>
+      </c>
+      <c r="F159" s="83">
+        <v>0.94177090909090899</v>
+      </c>
+      <c r="G159" s="83">
+        <v>0.11536</v>
+      </c>
+      <c r="H159" s="83">
+        <v>3.8082238571428602</v>
+      </c>
+      <c r="I159" s="83">
+        <v>5.3008636363636397</v>
+      </c>
+      <c r="J159" s="83">
+        <v>-2.5035799999999999</v>
+      </c>
+      <c r="K159" s="84">
+        <v>12</v>
+      </c>
+      <c r="L159" s="84">
+        <v>1</v>
+      </c>
+      <c r="M159" s="89">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N159" s="84">
+        <v>10</v>
+      </c>
+      <c r="O159" s="86">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="P159" s="86">
+        <v>7.9365079365099997E-2</v>
+      </c>
+      <c r="Q159" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="R159" s="83">
+        <v>0.11943608777791501</v>
+      </c>
+      <c r="S159" s="83">
+        <v>3.2983261945948299E-2</v>
+      </c>
+      <c r="T159" s="83">
+        <v>0</v>
+      </c>
+      <c r="U159" s="83">
+        <v>0.29243268807402001</v>
+      </c>
+      <c r="V159" s="83">
+        <v>0.120737089161424</v>
+      </c>
+      <c r="W159" s="83">
+        <v>0</v>
+      </c>
+      <c r="X159" s="83">
+        <v>2.1842700731478701</v>
+      </c>
+      <c r="Y159" s="83">
+        <v>0.97527502509220199</v>
+      </c>
+      <c r="Z159" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="87">
+        <v>7.1890232717125699E-5</v>
+      </c>
+      <c r="AB159" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC159" s="87">
+        <v>6.5934432290334596E-4</v>
+      </c>
+      <c r="AD159" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE159" s="87">
+        <v>5.5659590074626502E-4</v>
+      </c>
+      <c r="AF159" s="83" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="160" spans="1:32">
-      <c r="A160" t="s">
+      <c r="A160" s="83" t="s">
         <v>198</v>
+      </c>
+      <c r="B160" s="83">
+        <v>0.81603390086206895</v>
+      </c>
+      <c r="C160" s="83">
+        <v>0.83282583333333304</v>
+      </c>
+      <c r="D160" s="83">
+        <v>0.83635999999999999</v>
+      </c>
+      <c r="E160" s="83">
+        <v>0.88752282327586196</v>
+      </c>
+      <c r="F160" s="83">
+        <v>0.94077333333333302</v>
+      </c>
+      <c r="G160" s="83">
+        <v>0.94923000000000002</v>
+      </c>
+      <c r="H160" s="83">
+        <v>4.72727948275862</v>
+      </c>
+      <c r="I160" s="83">
+        <v>4.7921958333333299</v>
+      </c>
+      <c r="J160" s="83">
+        <v>5.5439100000000003</v>
+      </c>
+      <c r="K160" s="84">
+        <v>13</v>
+      </c>
+      <c r="L160" s="84">
+        <v>1</v>
+      </c>
+      <c r="M160" s="89">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N160" s="84">
+        <v>11</v>
+      </c>
+      <c r="O160" s="86">
+        <v>0.84615384615400002</v>
+      </c>
+      <c r="P160" s="86">
+        <v>2.8497409326399999E-2</v>
+      </c>
+      <c r="Q160" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="R160" s="83">
+        <v>5.66735908978548E-2</v>
+      </c>
+      <c r="S160" s="83">
+        <v>2.3532227709509801E-2</v>
+      </c>
+      <c r="T160" s="83">
+        <v>0</v>
+      </c>
+      <c r="U160" s="83">
+        <v>0.190303985312618</v>
+      </c>
+      <c r="V160" s="83">
+        <v>0.12571738803982399</v>
+      </c>
+      <c r="W160" s="83">
+        <v>0</v>
+      </c>
+      <c r="X160" s="83">
+        <v>1.5433892277566701</v>
+      </c>
+      <c r="Y160" s="83">
+        <v>1.6779074512939101</v>
+      </c>
+      <c r="Z160" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="87">
+        <v>2.08303375191774E-2</v>
+      </c>
+      <c r="AB160" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC160" s="91">
+        <v>9.0859906281854197E-2</v>
+      </c>
+      <c r="AD160" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE160" s="91">
+        <v>0.44846003477517898</v>
+      </c>
+      <c r="AF160" s="83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:1">

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\plabData\yeast_replaceable_genes\sequences\all_other_mendelian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="0" windowWidth="23080" windowHeight="15500" tabRatio="248"/>
+    <workbookView xWindow="8865" yWindow="0" windowWidth="23085" windowHeight="15495" tabRatio="248"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="312">
   <si>
     <t>Gene</t>
   </si>
@@ -960,8 +966,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1097,6 +1103,40 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2093,7 +2133,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2218,7 +2258,16 @@
     <xf numFmtId="10" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="854">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3078,6 +3127,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3406,38 +3463,38 @@
   <dimension ref="A1:AH262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O230" sqref="O230"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A242" sqref="A242:AF242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.1640625" customWidth="1"/>
-    <col min="21" max="21" width="5.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7.375" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="8.125" customWidth="1"/>
+    <col min="21" max="21" width="5.875" customWidth="1"/>
     <col min="22" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="23" width="7.1640625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="8.1640625" customWidth="1"/>
+    <col min="25" max="25" width="8.125" customWidth="1"/>
     <col min="26" max="26" width="8.5" customWidth="1"/>
-    <col min="32" max="32" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -26031,48 +26088,885 @@
       </c>
     </row>
     <row r="230" spans="1:32">
-      <c r="A230" t="s">
+      <c r="A230" s="124" t="s">
         <v>264</v>
+      </c>
+      <c r="B230" s="124">
+        <v>0.75159747851002856</v>
+      </c>
+      <c r="C230" s="124">
+        <v>0.77117687499999998</v>
+      </c>
+      <c r="D230" s="124">
+        <v>0.74891166666666675</v>
+      </c>
+      <c r="E230" s="124">
+        <v>0.55087544003274669</v>
+      </c>
+      <c r="F230" s="124">
+        <v>0.60719656249999998</v>
+      </c>
+      <c r="G230" s="124">
+        <v>0.44771333333333335</v>
+      </c>
+      <c r="H230" s="124">
+        <v>2.5918200409332792</v>
+      </c>
+      <c r="I230" s="124">
+        <v>3.2619253124999998</v>
+      </c>
+      <c r="J230" s="124">
+        <v>2.0545199999999997</v>
+      </c>
+      <c r="K230" s="124">
+        <v>38</v>
+      </c>
+      <c r="L230" s="124">
+        <v>6</v>
+      </c>
+      <c r="M230" s="125">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="N230" s="124">
+        <v>19</v>
+      </c>
+      <c r="O230" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="P230" s="125">
+        <v>2.1205357142857144E-2</v>
+      </c>
+      <c r="Q230" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="R230" s="124">
+        <v>7.2101103586437301E-2</v>
+      </c>
+      <c r="S230" s="124">
+        <v>8.5425102883955453E-2</v>
+      </c>
+      <c r="T230" s="124">
+        <v>2.5439662220416551E-2</v>
+      </c>
+      <c r="U230" s="124">
+        <v>0.24342286857758855</v>
+      </c>
+      <c r="V230" s="124">
+        <v>0.25401162317905568</v>
+      </c>
+      <c r="W230" s="124">
+        <v>7.7775492855326159E-2</v>
+      </c>
+      <c r="X230" s="124">
+        <v>2.0031370616575388</v>
+      </c>
+      <c r="Y230" s="124">
+        <v>2.2448202138826514</v>
+      </c>
+      <c r="Z230" s="124">
+        <v>1.1816029002023762</v>
+      </c>
+      <c r="AA230" s="126">
+        <v>0.103202815170331</v>
+      </c>
+      <c r="AB230" s="126">
+        <v>0.139332090347492</v>
+      </c>
+      <c r="AC230" s="126">
+        <v>0.110905069421894</v>
+      </c>
+      <c r="AD230" s="127">
+        <v>1.6896454387417301E-2</v>
+      </c>
+      <c r="AE230" s="126">
+        <v>5.15144583093054E-2</v>
+      </c>
+      <c r="AF230" s="126">
+        <v>5.5533595036931699E-2</v>
       </c>
     </row>
     <row r="231" spans="1:32">
-      <c r="A231" t="s">
+      <c r="A231" s="124" t="s">
         <v>265</v>
+      </c>
+      <c r="B231" s="124">
+        <v>0.64937373873873871</v>
+      </c>
+      <c r="C231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231" s="124">
+        <v>0.42184518018018019</v>
+      </c>
+      <c r="F231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H231" s="124">
+        <v>1.9988390390390389</v>
+      </c>
+      <c r="I231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J231" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="K231" s="124">
+        <v>0</v>
+      </c>
+      <c r="L231" s="124">
+        <v>0</v>
+      </c>
+      <c r="M231" s="125">
+        <v>0</v>
+      </c>
+      <c r="N231" s="124">
+        <v>0</v>
+      </c>
+      <c r="O231" s="125">
+        <v>0</v>
+      </c>
+      <c r="P231" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="R231" s="124">
+        <v>0.116587244225953</v>
+      </c>
+      <c r="S231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="T231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="U231" s="124">
+        <v>0.19351029491988936</v>
+      </c>
+      <c r="V231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="W231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="X231" s="124">
+        <v>1.3913677415359191</v>
+      </c>
+      <c r="Y231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE231" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF231" s="124" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:32">
-      <c r="A232" t="s">
+      <c r="A232" s="128" t="s">
         <v>266</v>
+      </c>
+      <c r="B232" s="128">
+        <v>0.82857636363636356</v>
+      </c>
+      <c r="C232" s="128">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="D232" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E232" s="128">
+        <v>0.92008490259740272</v>
+      </c>
+      <c r="F232" s="128">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="G232" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H232" s="128">
+        <v>4.7921097402597406</v>
+      </c>
+      <c r="I232" s="128">
+        <v>4.5</v>
+      </c>
+      <c r="J232" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K232" s="124">
+        <v>1</v>
+      </c>
+      <c r="L232" s="124">
+        <v>0</v>
+      </c>
+      <c r="M232" s="125">
+        <v>0</v>
+      </c>
+      <c r="N232" s="124">
+        <v>1</v>
+      </c>
+      <c r="O232" s="125">
+        <v>1</v>
+      </c>
+      <c r="P232" s="125">
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="Q232" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="R232" s="124">
+        <v>3.4283244711457675E-2</v>
+      </c>
+      <c r="S232" s="124">
+        <v>0</v>
+      </c>
+      <c r="T232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="U232" s="124">
+        <v>0.13405170408650913</v>
+      </c>
+      <c r="V232" s="124">
+        <v>0</v>
+      </c>
+      <c r="W232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="X232" s="124">
+        <v>1.4316278253594539</v>
+      </c>
+      <c r="Y232" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE232" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF232" s="124" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:32">
-      <c r="A233" t="s">
+      <c r="A233" s="128" t="s">
         <v>267</v>
+      </c>
+      <c r="B233" s="128">
+        <v>0.75413189054726371</v>
+      </c>
+      <c r="C233" s="128">
+        <v>0.77491666666666659</v>
+      </c>
+      <c r="D233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E233" s="128">
+        <v>0.65388746268656717</v>
+      </c>
+      <c r="F233" s="128">
+        <v>0.70163666666666658</v>
+      </c>
+      <c r="G233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H233" s="128">
+        <v>2.8994252238805971</v>
+      </c>
+      <c r="I233" s="128">
+        <v>3.5087466666666671</v>
+      </c>
+      <c r="J233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K233" s="131">
+        <v>3</v>
+      </c>
+      <c r="L233" s="128">
+        <v>0</v>
+      </c>
+      <c r="M233" s="129">
+        <v>0</v>
+      </c>
+      <c r="N233" s="128">
+        <v>1</v>
+      </c>
+      <c r="O233" s="129">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P233" s="129">
+        <v>1.2195121951219513E-2</v>
+      </c>
+      <c r="Q233" s="128" t="s">
+        <v>298</v>
+      </c>
+      <c r="R233" s="128">
+        <v>7.2679407072060165E-2</v>
+      </c>
+      <c r="S233" s="128">
+        <v>3.3900808577705374E-2</v>
+      </c>
+      <c r="T233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="U233" s="128">
+        <v>0.21496795820483589</v>
+      </c>
+      <c r="V233" s="128">
+        <v>0.12867958924743619</v>
+      </c>
+      <c r="W233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="X233" s="128">
+        <v>2.0344104750712617</v>
+      </c>
+      <c r="Y233" s="128">
+        <v>0.48716449175019144</v>
+      </c>
+      <c r="Z233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA233" s="130">
+        <v>0.20614627133527</v>
+      </c>
+      <c r="AB233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC233" s="130">
+        <v>0.296609289783279</v>
+      </c>
+      <c r="AD233" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE233" s="130">
+        <v>9.6705548979405406E-2</v>
+      </c>
+      <c r="AF233" s="128" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:32">
-      <c r="A234" t="s">
+      <c r="A234" s="78" t="s">
         <v>268</v>
+      </c>
+      <c r="B234" s="78">
+        <v>0.67576491900000002</v>
+      </c>
+      <c r="C234" s="78">
+        <v>0.790254444</v>
+      </c>
+      <c r="D234" s="78">
+        <v>0.57847000000000004</v>
+      </c>
+      <c r="E234" s="78">
+        <v>0.533287175</v>
+      </c>
+      <c r="F234" s="78">
+        <v>0.82043500000000003</v>
+      </c>
+      <c r="G234" s="78">
+        <v>0.28138000000000002</v>
+      </c>
+      <c r="H234" s="78">
+        <v>2.1637551949999998</v>
+      </c>
+      <c r="I234" s="78">
+        <v>3.8738999999999999</v>
+      </c>
+      <c r="J234" s="78">
+        <v>1.63798</v>
+      </c>
+      <c r="K234" s="78">
+        <v>19</v>
+      </c>
+      <c r="L234" s="78">
+        <v>1</v>
+      </c>
+      <c r="M234" s="81">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="N234" s="78">
+        <v>11</v>
+      </c>
+      <c r="O234" s="81">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="P234" s="81">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="Q234" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="R234" s="78">
+        <v>0.10689589200000001</v>
+      </c>
+      <c r="S234" s="78">
+        <v>3.8745610999999999E-2</v>
+      </c>
+      <c r="T234" s="78">
+        <v>0</v>
+      </c>
+      <c r="U234" s="78">
+        <v>0.25979766199999998</v>
+      </c>
+      <c r="V234" s="78">
+        <v>0.12777497400000001</v>
+      </c>
+      <c r="W234" s="78">
+        <v>0</v>
+      </c>
+      <c r="X234" s="78">
+        <v>1.8446007019999999</v>
+      </c>
+      <c r="Y234" s="78">
+        <v>1.4459584379999999</v>
+      </c>
+      <c r="Z234" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA234" s="132">
+        <v>1.1912399999999999E-9</v>
+      </c>
+      <c r="AB234" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC234" s="132">
+        <v>3.5097300000000003E-8</v>
+      </c>
+      <c r="AD234" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE234" s="132">
+        <v>6.7209100000000007E-5</v>
+      </c>
+      <c r="AF234" s="78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:32">
-      <c r="A235" t="s">
+      <c r="A235" s="78" t="s">
         <v>268</v>
+      </c>
+      <c r="B235" s="78">
+        <v>0.67576491900000002</v>
+      </c>
+      <c r="C235" s="78">
+        <v>0.790254444</v>
+      </c>
+      <c r="D235" s="78">
+        <v>0.57847000000000004</v>
+      </c>
+      <c r="E235" s="78">
+        <v>0.533287175</v>
+      </c>
+      <c r="F235" s="78">
+        <v>0.82043500000000003</v>
+      </c>
+      <c r="G235" s="78">
+        <v>0.28138000000000002</v>
+      </c>
+      <c r="H235" s="78">
+        <v>2.1637551949999998</v>
+      </c>
+      <c r="I235" s="78">
+        <v>3.8738999999999999</v>
+      </c>
+      <c r="J235" s="78">
+        <v>1.63798</v>
+      </c>
+      <c r="K235" s="78">
+        <v>19</v>
+      </c>
+      <c r="L235" s="78">
+        <v>1</v>
+      </c>
+      <c r="M235" s="81">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="N235" s="78">
+        <v>11</v>
+      </c>
+      <c r="O235" s="81">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="P235" s="81">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="Q235" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="R235" s="78">
+        <v>0.10689589200000001</v>
+      </c>
+      <c r="S235" s="78">
+        <v>3.8745610999999999E-2</v>
+      </c>
+      <c r="T235" s="78">
+        <v>0</v>
+      </c>
+      <c r="U235" s="78">
+        <v>0.25979766199999998</v>
+      </c>
+      <c r="V235" s="78">
+        <v>0.12777497400000001</v>
+      </c>
+      <c r="W235" s="78">
+        <v>0</v>
+      </c>
+      <c r="X235" s="78">
+        <v>1.8446007019999999</v>
+      </c>
+      <c r="Y235" s="78">
+        <v>1.4459584379999999</v>
+      </c>
+      <c r="Z235" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA235" s="132">
+        <v>1.1912399999999999E-9</v>
+      </c>
+      <c r="AB235" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC235" s="132">
+        <v>3.5097300000000003E-8</v>
+      </c>
+      <c r="AD235" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE235" s="132">
+        <v>6.7209100000000007E-5</v>
+      </c>
+      <c r="AF235" s="78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:32">
-      <c r="A236" t="s">
+      <c r="A236" s="78" t="s">
         <v>269</v>
+      </c>
+      <c r="B236" s="78">
+        <v>0.76287428599999996</v>
+      </c>
+      <c r="C236" s="78">
+        <v>0.80632999999999999</v>
+      </c>
+      <c r="D236" s="78">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="E236" s="78">
+        <v>0.71188343499999995</v>
+      </c>
+      <c r="F236" s="78">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="G236" s="78">
+        <v>0.24984000000000001</v>
+      </c>
+      <c r="H236" s="78">
+        <v>3.5434506080000001</v>
+      </c>
+      <c r="I236" s="78">
+        <v>4.9591000000000003</v>
+      </c>
+      <c r="J236" s="78">
+        <v>2.7682199999999999</v>
+      </c>
+      <c r="K236" s="78">
+        <v>3</v>
+      </c>
+      <c r="L236" s="78">
+        <v>1</v>
+      </c>
+      <c r="M236" s="81">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="N236" s="78">
+        <v>2</v>
+      </c>
+      <c r="O236" s="81">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P236" s="81">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q236" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="R236" s="78">
+        <v>0.10065711300000001</v>
+      </c>
+      <c r="S236" s="78">
+        <v>2.9260000000000001E-2</v>
+      </c>
+      <c r="T236" s="78">
+        <v>0</v>
+      </c>
+      <c r="U236" s="78">
+        <v>0.23393319600000001</v>
+      </c>
+      <c r="V236" s="78">
+        <v>7.5170000000000001E-2</v>
+      </c>
+      <c r="W236" s="78">
+        <v>0</v>
+      </c>
+      <c r="X236" s="78">
+        <v>1.526156485</v>
+      </c>
+      <c r="Y236" s="78">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="Z236" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="78">
+        <v>0.14578181900000001</v>
+      </c>
+      <c r="AB236" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC236" s="78">
+        <v>8.0039056999999997E-2</v>
+      </c>
+      <c r="AD236" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE236" s="78">
+        <v>1.9978999000000001E-2</v>
+      </c>
+      <c r="AF236" s="78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:32">
-      <c r="A237" t="s">
+      <c r="A237" s="128" t="s">
         <v>270</v>
+      </c>
+      <c r="B237" s="128">
+        <v>0.68997285534591191</v>
+      </c>
+      <c r="C237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" s="128">
+        <v>0.58578598742138355</v>
+      </c>
+      <c r="F237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="G237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H237" s="128">
+        <v>2.5583545534591194</v>
+      </c>
+      <c r="I237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="J237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K237" s="128">
+        <v>0</v>
+      </c>
+      <c r="L237" s="128">
+        <v>0</v>
+      </c>
+      <c r="M237" s="129">
+        <v>0</v>
+      </c>
+      <c r="N237" s="128">
+        <v>0</v>
+      </c>
+      <c r="O237" s="129">
+        <v>0</v>
+      </c>
+      <c r="P237" s="129">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="R237" s="128">
+        <v>0.12974794090206204</v>
+      </c>
+      <c r="S237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="T237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="U237" s="128">
+        <v>0.26229278410650086</v>
+      </c>
+      <c r="V237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="W237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="X237" s="128">
+        <v>1.8452251675026146</v>
+      </c>
+      <c r="Y237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE237" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF237" s="128" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:32">
-      <c r="A238" t="s">
+      <c r="A238" s="78" t="s">
         <v>271</v>
+      </c>
+      <c r="B238" s="78">
+        <v>0.68566180300000001</v>
+      </c>
+      <c r="C238" s="78">
+        <v>0.75168800000000002</v>
+      </c>
+      <c r="D238" s="78">
+        <v>0.56484999999999996</v>
+      </c>
+      <c r="E238" s="78">
+        <v>0.49889302800000002</v>
+      </c>
+      <c r="F238" s="78">
+        <v>0.72781399999999996</v>
+      </c>
+      <c r="G238" s="78">
+        <v>0.26007000000000002</v>
+      </c>
+      <c r="H238" s="78">
+        <v>1.927401148</v>
+      </c>
+      <c r="I238" s="78">
+        <v>3.1761659999999998</v>
+      </c>
+      <c r="J238" s="78">
+        <v>-4.5240000000000002E-2</v>
+      </c>
+      <c r="K238" s="78">
+        <v>6</v>
+      </c>
+      <c r="L238" s="78">
+        <v>1</v>
+      </c>
+      <c r="M238" s="81">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="N238" s="78">
+        <v>3</v>
+      </c>
+      <c r="O238" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="P238" s="81">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q238" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="R238" s="78">
+        <v>7.3414726E-2</v>
+      </c>
+      <c r="S238" s="78">
+        <v>2.5240014000000002E-2</v>
+      </c>
+      <c r="T238" s="78">
+        <v>0</v>
+      </c>
+      <c r="U238" s="78">
+        <v>0.16042857299999999</v>
+      </c>
+      <c r="V238" s="78">
+        <v>0.11591375499999999</v>
+      </c>
+      <c r="W238" s="78">
+        <v>0</v>
+      </c>
+      <c r="X238" s="78">
+        <v>1.4000268360000001</v>
+      </c>
+      <c r="Y238" s="78">
+        <v>0.716455379</v>
+      </c>
+      <c r="Z238" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA238" s="78">
+        <v>2.2741860000000001E-3</v>
+      </c>
+      <c r="AB238" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC238" s="78">
+        <v>5.8550110000000002E-3</v>
+      </c>
+      <c r="AD238" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE238" s="78">
+        <v>9.02968E-3</v>
+      </c>
+      <c r="AF238" s="78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:32">
@@ -26175,86 +27069,365 @@
       </c>
     </row>
     <row r="240" spans="1:32">
-      <c r="A240" t="s">
+      <c r="A240" s="128" t="s">
         <v>272</v>
       </c>
+      <c r="B240" s="128">
+        <v>0.60949050314465403</v>
+      </c>
+      <c r="C240" s="128">
+        <v>0.669655</v>
+      </c>
+      <c r="D240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" s="128">
+        <v>0.38798861635220128</v>
+      </c>
+      <c r="F240" s="128">
+        <v>0.45938999999999997</v>
+      </c>
+      <c r="G240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H240" s="128">
+        <v>1.3191093081761005</v>
+      </c>
+      <c r="I240" s="128">
+        <v>2.6485499999999997</v>
+      </c>
+      <c r="J240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K240" s="128">
+        <v>6</v>
+      </c>
+      <c r="L240" s="128">
+        <v>0</v>
+      </c>
+      <c r="M240" s="129">
+        <v>0</v>
+      </c>
+      <c r="N240" s="128">
+        <v>2</v>
+      </c>
+      <c r="O240" s="129">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P240" s="129">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="Q240" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="R240" s="128">
+        <v>0.10949746226805018</v>
+      </c>
+      <c r="S240" s="128">
+        <v>8.9488707248456784E-2</v>
+      </c>
+      <c r="T240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="U240" s="128">
+        <v>0.18951610788637463</v>
+      </c>
+      <c r="V240" s="128">
+        <v>0.24201662422238682</v>
+      </c>
+      <c r="W240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="X240" s="128">
+        <v>1.6090461248586978</v>
+      </c>
+      <c r="Y240" s="128">
+        <v>1.4432173092319349</v>
+      </c>
+      <c r="Z240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA240" s="130">
+        <v>8.2646752386984296E-2</v>
+      </c>
+      <c r="AB240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC240" s="130">
+        <v>0.25230116896514798</v>
+      </c>
+      <c r="AD240" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE240" s="133">
+        <v>3.8064326556879503E-2</v>
+      </c>
+      <c r="AF240" s="128" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="1:32">
+      <c r="A241" s="124" t="s">
         <v>273</v>
       </c>
+      <c r="B241" s="124">
+        <v>0.77076987179487189</v>
+      </c>
+      <c r="C241" s="128">
+        <v>0.71914</v>
+      </c>
+      <c r="D241" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E241" s="128">
+        <v>0.74930664102564093</v>
+      </c>
+      <c r="F241" s="128">
+        <v>0.55906999999999996</v>
+      </c>
+      <c r="G241" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H241" s="128">
+        <v>3.9357141025641025</v>
+      </c>
+      <c r="I241" s="128">
+        <v>2.66039</v>
+      </c>
+      <c r="J241" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K241" s="124">
+        <v>1</v>
+      </c>
+      <c r="L241" s="124">
+        <v>0</v>
+      </c>
+      <c r="M241" s="125">
+        <v>0</v>
+      </c>
+      <c r="N241" s="124">
+        <v>0</v>
+      </c>
+      <c r="O241" s="125">
+        <v>0</v>
+      </c>
+      <c r="P241" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="R241" s="124">
+        <v>0.11958975636276981</v>
+      </c>
+      <c r="S241" s="124">
+        <v>0</v>
+      </c>
+      <c r="T241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="U241" s="124">
+        <v>0.24633981879790356</v>
+      </c>
+      <c r="V241" s="124">
+        <v>0</v>
+      </c>
+      <c r="W241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="X241" s="124">
+        <v>1.6671240532013976</v>
+      </c>
+      <c r="Y241" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE241" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF241" s="124" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="124" t="s">
+    <row r="242" spans="1:32">
+      <c r="A242" s="128" t="s">
         <v>274</v>
       </c>
+      <c r="B242" s="128">
+        <v>0.69672764309764312</v>
+      </c>
+      <c r="C242" s="128">
+        <v>0.74781451612903238</v>
+      </c>
+      <c r="D242" s="128">
+        <v>0.64298999999999995</v>
+      </c>
+      <c r="E242" s="128">
+        <v>0.57359875420875417</v>
+      </c>
+      <c r="F242" s="128">
+        <v>0.6718696774193551</v>
+      </c>
+      <c r="G242" s="128">
+        <v>0.37406</v>
+      </c>
+      <c r="H242" s="128">
+        <v>1.8927027609427611</v>
+      </c>
+      <c r="I242" s="128">
+        <v>2.9145083870967743</v>
+      </c>
+      <c r="J242" s="128">
+        <v>1.5107600000000001</v>
+      </c>
+      <c r="K242" s="128">
+        <v>32</v>
+      </c>
+      <c r="L242" s="128">
+        <v>1</v>
+      </c>
+      <c r="M242" s="129">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N242" s="128">
+        <v>12</v>
+      </c>
+      <c r="O242" s="129">
+        <v>0.375</v>
+      </c>
+      <c r="P242" s="129">
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="Q242" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="R242" s="128">
+        <v>7.9822492940859066E-2</v>
+      </c>
+      <c r="S242" s="128">
+        <v>5.0441401059991411E-2</v>
+      </c>
+      <c r="T242" s="128">
+        <v>0</v>
+      </c>
+      <c r="U242" s="128">
+        <v>0.15542912616062043</v>
+      </c>
+      <c r="V242" s="128">
+        <v>0.14996282828633861</v>
+      </c>
+      <c r="W242" s="128">
+        <v>0</v>
+      </c>
+      <c r="X242" s="128">
+        <v>1.608102179969821</v>
+      </c>
+      <c r="Y242" s="128">
+        <v>1.9205407993786656</v>
+      </c>
+      <c r="Z242" s="128">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="133">
+        <v>4.9485988754162004E-6</v>
+      </c>
+      <c r="AB242" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC242" s="133">
+        <v>6.4573327098627498E-4</v>
+      </c>
+      <c r="AD242" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE242" s="133">
+        <v>3.3790733195702199E-3</v>
+      </c>
+      <c r="AF242" s="128" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:32">
       <c r="A243" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:32">
       <c r="A244" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:32">
       <c r="A245" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:32">
       <c r="A246" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:32">
       <c r="A247" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:32">
       <c r="A248" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:32">
       <c r="A249" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:32">
       <c r="A250" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:32">
       <c r="A251" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:32">
       <c r="A252" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:32">
       <c r="A253" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:32">
       <c r="A254" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:32">
       <c r="A255" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:32">
       <c r="A256" t="s">
         <v>288</v>
       </c>
@@ -26294,7 +27467,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="312">
   <si>
     <t>Gene</t>
   </si>
@@ -2284,13 +2284,13 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="854">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3483,11 +3483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH262"/>
+  <dimension ref="A1:AH261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248:AF248"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -25822,25 +25822,25 @@
       <c r="B227" s="78">
         <v>2.1294724089999999</v>
       </c>
-      <c r="C227" s="136">
+      <c r="C227" s="135">
         <v>4.0227812500000004</v>
       </c>
-      <c r="D227" s="136">
+      <c r="D227" s="135">
         <v>2.7828400000000002</v>
       </c>
-      <c r="E227" s="136">
+      <c r="E227" s="135">
         <v>0.48842225</v>
       </c>
-      <c r="F227" s="136">
+      <c r="F227" s="135">
         <v>0.63943125000000001</v>
       </c>
-      <c r="G227" s="136">
+      <c r="G227" s="135">
         <v>0.57981499999999997</v>
       </c>
-      <c r="H227" s="136">
+      <c r="H227" s="135">
         <v>2.1294724089999999</v>
       </c>
-      <c r="I227" s="136">
+      <c r="I227" s="135">
         <v>4.0227812500000004</v>
       </c>
       <c r="J227" s="78">
@@ -25920,25 +25920,25 @@
       <c r="B228" s="104">
         <v>1.4682898837209304</v>
       </c>
-      <c r="C228" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="D228" s="137" t="s">
+      <c r="C228" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D228" s="136" t="s">
         <v>33</v>
       </c>
       <c r="E228" s="127">
         <v>0.44030860465116273</v>
       </c>
-      <c r="F228" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G228" s="137" t="s">
+      <c r="F228" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G228" s="136" t="s">
         <v>33</v>
       </c>
       <c r="H228" s="127">
         <v>1.4682898837209304</v>
       </c>
-      <c r="I228" s="137" t="s">
+      <c r="I228" s="136" t="s">
         <v>33</v>
       </c>
       <c r="J228" s="76" t="s">
@@ -26018,25 +26018,25 @@
       <c r="B229" s="78">
         <v>0.67576491900000002</v>
       </c>
-      <c r="C229" s="136">
+      <c r="C229" s="135">
         <v>0.79439062500000002</v>
       </c>
-      <c r="D229" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="E229" s="136">
+      <c r="D229" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E229" s="135">
         <v>0.533287175</v>
       </c>
-      <c r="F229" s="136">
+      <c r="F229" s="135">
         <v>0.82872999999999997</v>
       </c>
-      <c r="G229" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="H229" s="136">
+      <c r="G229" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H229" s="135">
         <v>2.1637551949999998</v>
       </c>
-      <c r="I229" s="136">
+      <c r="I229" s="135">
         <v>4.1210212500000001</v>
       </c>
       <c r="J229" s="76" t="s">
@@ -26215,25 +26215,25 @@
       <c r="B231" s="123">
         <v>0.64937373873873871</v>
       </c>
-      <c r="C231" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="D231" s="137" t="s">
+      <c r="C231" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="136" t="s">
         <v>33</v>
       </c>
       <c r="E231" s="127">
         <v>0.42184518018018019</v>
       </c>
-      <c r="F231" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G231" s="137" t="s">
+      <c r="F231" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G231" s="136" t="s">
         <v>33</v>
       </c>
       <c r="H231" s="127">
         <v>1.9988390390390389</v>
       </c>
-      <c r="I231" s="137" t="s">
+      <c r="I231" s="136" t="s">
         <v>33</v>
       </c>
       <c r="J231" s="76" t="s">
@@ -26509,25 +26509,25 @@
       <c r="B234" s="77">
         <v>0.67576491900000002</v>
       </c>
-      <c r="C234" s="137">
+      <c r="C234" s="136">
         <v>0.790254444</v>
       </c>
-      <c r="D234" s="137">
+      <c r="D234" s="136">
         <v>0.57847000000000004</v>
       </c>
-      <c r="E234" s="137">
+      <c r="E234" s="136">
         <v>0.533287175</v>
       </c>
-      <c r="F234" s="137">
+      <c r="F234" s="136">
         <v>0.82043500000000003</v>
       </c>
-      <c r="G234" s="137">
+      <c r="G234" s="136">
         <v>0.28138000000000002</v>
       </c>
-      <c r="H234" s="137">
+      <c r="H234" s="136">
         <v>2.1637551949999998</v>
       </c>
-      <c r="I234" s="137">
+      <c r="I234" s="136">
         <v>3.8738999999999999</v>
       </c>
       <c r="J234" s="77">
@@ -26602,822 +26602,822 @@
     </row>
     <row r="235" spans="1:32">
       <c r="A235" s="77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B235" s="77">
-        <v>0.67576491900000002</v>
-      </c>
-      <c r="C235" s="137">
-        <v>0.790254444</v>
-      </c>
-      <c r="D235" s="137">
-        <v>0.57847000000000004</v>
-      </c>
-      <c r="E235" s="137">
-        <v>0.533287175</v>
-      </c>
-      <c r="F235" s="137">
-        <v>0.82043500000000003</v>
-      </c>
-      <c r="G235" s="137">
-        <v>0.28138000000000002</v>
-      </c>
-      <c r="H235" s="137">
-        <v>2.1637551949999998</v>
-      </c>
-      <c r="I235" s="137">
-        <v>3.8738999999999999</v>
+        <v>0.76287428599999996</v>
+      </c>
+      <c r="C235" s="136">
+        <v>0.80632999999999999</v>
+      </c>
+      <c r="D235" s="136">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="E235" s="136">
+        <v>0.71188343499999995</v>
+      </c>
+      <c r="F235" s="136">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="G235" s="136">
+        <v>0.24984000000000001</v>
+      </c>
+      <c r="H235" s="136">
+        <v>3.5434506080000001</v>
+      </c>
+      <c r="I235" s="136">
+        <v>4.9591000000000003</v>
       </c>
       <c r="J235" s="77">
-        <v>1.63798</v>
+        <v>2.7682199999999999</v>
       </c>
       <c r="K235" s="77">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L235" s="77">
         <v>1</v>
       </c>
       <c r="M235" s="80">
-        <v>5.2600000000000001E-2</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="N235" s="77">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O235" s="80">
-        <v>0.57889999999999997</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="P235" s="80">
-        <v>7.8600000000000003E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q235" s="77" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="R235" s="77">
-        <v>0.10689589200000001</v>
+        <v>0.10065711300000001</v>
       </c>
       <c r="S235" s="77">
-        <v>3.8745610999999999E-2</v>
+        <v>2.9260000000000001E-2</v>
       </c>
       <c r="T235" s="77">
         <v>0</v>
       </c>
       <c r="U235" s="77">
-        <v>0.25979766199999998</v>
+        <v>0.23393319600000001</v>
       </c>
       <c r="V235" s="77">
-        <v>0.12777497400000001</v>
+        <v>7.5170000000000001E-2</v>
       </c>
       <c r="W235" s="77">
         <v>0</v>
       </c>
       <c r="X235" s="77">
-        <v>1.8446007019999999</v>
+        <v>1.526156485</v>
       </c>
       <c r="Y235" s="77">
-        <v>1.4459584379999999</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="Z235" s="77">
         <v>0</v>
       </c>
-      <c r="AA235" s="131">
-        <v>1.1912399999999999E-9</v>
+      <c r="AA235" s="77">
+        <v>0.14578181900000001</v>
       </c>
       <c r="AB235" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AC235" s="131">
-        <v>3.5097300000000003E-8</v>
+      <c r="AC235" s="77">
+        <v>8.0039056999999997E-2</v>
       </c>
       <c r="AD235" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AE235" s="131">
-        <v>6.7209100000000007E-5</v>
+      <c r="AE235" s="77">
+        <v>1.9978999000000001E-2</v>
       </c>
       <c r="AF235" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:32">
-      <c r="A236" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B236" s="77">
-        <v>0.76287428599999996</v>
-      </c>
-      <c r="C236" s="137">
-        <v>0.80632999999999999</v>
-      </c>
-      <c r="D236" s="137">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="E236" s="137">
-        <v>0.71188343499999995</v>
-      </c>
-      <c r="F236" s="137">
-        <v>0.92479999999999996</v>
-      </c>
-      <c r="G236" s="137">
-        <v>0.24984000000000001</v>
-      </c>
-      <c r="H236" s="137">
-        <v>3.5434506080000001</v>
-      </c>
-      <c r="I236" s="137">
-        <v>4.9591000000000003</v>
-      </c>
-      <c r="J236" s="77">
-        <v>2.7682199999999999</v>
-      </c>
-      <c r="K236" s="77">
-        <v>3</v>
-      </c>
-      <c r="L236" s="77">
-        <v>1</v>
-      </c>
-      <c r="M236" s="80">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="N236" s="77">
-        <v>2</v>
-      </c>
-      <c r="O236" s="80">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="P236" s="80">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q236" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="R236" s="77">
-        <v>0.10065711300000001</v>
-      </c>
-      <c r="S236" s="77">
-        <v>2.9260000000000001E-2</v>
-      </c>
-      <c r="T236" s="77">
-        <v>0</v>
-      </c>
-      <c r="U236" s="77">
-        <v>0.23393319600000001</v>
-      </c>
-      <c r="V236" s="77">
-        <v>7.5170000000000001E-2</v>
-      </c>
-      <c r="W236" s="77">
-        <v>0</v>
-      </c>
-      <c r="X236" s="77">
-        <v>1.526156485</v>
-      </c>
-      <c r="Y236" s="77">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="Z236" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA236" s="77">
-        <v>0.14578181900000001</v>
-      </c>
-      <c r="AB236" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC236" s="77">
-        <v>8.0039056999999997E-2</v>
-      </c>
-      <c r="AD236" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE236" s="77">
-        <v>1.9978999000000001E-2</v>
-      </c>
-      <c r="AF236" s="77" t="s">
+      <c r="A236" s="127" t="s">
+        <v>270</v>
+      </c>
+      <c r="B236" s="127">
+        <v>0.68997285534591191</v>
+      </c>
+      <c r="C236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E236" s="127">
+        <v>0.58578598742138355</v>
+      </c>
+      <c r="F236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="127">
+        <v>2.5583545534591194</v>
+      </c>
+      <c r="I236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K236" s="127">
+        <v>0</v>
+      </c>
+      <c r="L236" s="127">
+        <v>0</v>
+      </c>
+      <c r="M236" s="128">
+        <v>0</v>
+      </c>
+      <c r="N236" s="127">
+        <v>0</v>
+      </c>
+      <c r="O236" s="128">
+        <v>0</v>
+      </c>
+      <c r="P236" s="128">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="R236" s="127">
+        <v>0.12974794090206204</v>
+      </c>
+      <c r="S236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="T236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U236" s="127">
+        <v>0.26229278410650086</v>
+      </c>
+      <c r="V236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="W236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="X236" s="127">
+        <v>1.8452251675026146</v>
+      </c>
+      <c r="Y236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE236" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF236" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:32">
-      <c r="A237" s="127" t="s">
-        <v>270</v>
-      </c>
-      <c r="B237" s="127">
-        <v>0.68997285534591191</v>
-      </c>
-      <c r="C237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="E237" s="127">
-        <v>0.58578598742138355</v>
-      </c>
-      <c r="F237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="G237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H237" s="127">
-        <v>2.5583545534591194</v>
-      </c>
-      <c r="I237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="J237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="K237" s="127">
-        <v>0</v>
-      </c>
-      <c r="L237" s="127">
-        <v>0</v>
-      </c>
-      <c r="M237" s="128">
-        <v>0</v>
-      </c>
-      <c r="N237" s="127">
-        <v>0</v>
-      </c>
-      <c r="O237" s="128">
-        <v>0</v>
-      </c>
-      <c r="P237" s="128">
-        <v>0</v>
-      </c>
-      <c r="Q237" s="127" t="s">
+      <c r="A237" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B237" s="77">
+        <v>0.68566180300000001</v>
+      </c>
+      <c r="C237" s="136">
+        <v>0.75168800000000002</v>
+      </c>
+      <c r="D237" s="136">
+        <v>0.56484999999999996</v>
+      </c>
+      <c r="E237" s="136">
+        <v>0.49889302800000002</v>
+      </c>
+      <c r="F237" s="136">
+        <v>0.72781399999999996</v>
+      </c>
+      <c r="G237" s="136">
+        <v>0.26007000000000002</v>
+      </c>
+      <c r="H237" s="136">
+        <v>1.927401148</v>
+      </c>
+      <c r="I237" s="136">
+        <v>3.1761659999999998</v>
+      </c>
+      <c r="J237" s="77">
+        <v>-4.5240000000000002E-2</v>
+      </c>
+      <c r="K237" s="77">
+        <v>6</v>
+      </c>
+      <c r="L237" s="77">
+        <v>1</v>
+      </c>
+      <c r="M237" s="80">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="N237" s="77">
+        <v>3</v>
+      </c>
+      <c r="O237" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P237" s="80">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q237" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="R237" s="127">
-        <v>0.12974794090206204</v>
-      </c>
-      <c r="S237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="T237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U237" s="127">
-        <v>0.26229278410650086</v>
-      </c>
-      <c r="V237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="W237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="X237" s="127">
-        <v>1.8452251675026146</v>
-      </c>
-      <c r="Y237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE237" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF237" s="127" t="s">
+      <c r="R237" s="77">
+        <v>7.3414726E-2</v>
+      </c>
+      <c r="S237" s="77">
+        <v>2.5240014000000002E-2</v>
+      </c>
+      <c r="T237" s="77">
+        <v>0</v>
+      </c>
+      <c r="U237" s="77">
+        <v>0.16042857299999999</v>
+      </c>
+      <c r="V237" s="77">
+        <v>0.11591375499999999</v>
+      </c>
+      <c r="W237" s="77">
+        <v>0</v>
+      </c>
+      <c r="X237" s="77">
+        <v>1.4000268360000001</v>
+      </c>
+      <c r="Y237" s="77">
+        <v>0.716455379</v>
+      </c>
+      <c r="Z237" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="77">
+        <v>2.2741860000000001E-3</v>
+      </c>
+      <c r="AB237" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC237" s="77">
+        <v>5.8550110000000002E-3</v>
+      </c>
+      <c r="AD237" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE237" s="77">
+        <v>9.02968E-3</v>
+      </c>
+      <c r="AF237" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:32">
-      <c r="A238" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="B238" s="77">
-        <v>0.68566180300000001</v>
+      <c r="A238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0.69411894291754594</v>
       </c>
       <c r="C238" s="137">
-        <v>0.75168800000000002</v>
-      </c>
-      <c r="D238" s="137">
-        <v>0.56484999999999996</v>
+        <v>0.75390666666666695</v>
+      </c>
+      <c r="D238" s="138" t="s">
+        <v>33</v>
       </c>
       <c r="E238" s="137">
-        <v>0.49889302800000002</v>
+        <v>0.57381651162790703</v>
       </c>
       <c r="F238" s="137">
-        <v>0.72781399999999996</v>
-      </c>
-      <c r="G238" s="137">
-        <v>0.26007000000000002</v>
+        <v>0.73768999999999996</v>
+      </c>
+      <c r="G238" s="138" t="s">
+        <v>33</v>
       </c>
       <c r="H238" s="137">
-        <v>1.927401148</v>
+        <v>2.1319954122621598</v>
       </c>
       <c r="I238" s="137">
-        <v>3.1761659999999998</v>
-      </c>
-      <c r="J238" s="77">
-        <v>-4.5240000000000002E-2</v>
-      </c>
-      <c r="K238" s="77">
+        <v>3.82934333333333</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K238" s="3">
         <v>6</v>
       </c>
-      <c r="L238" s="77">
-        <v>1</v>
-      </c>
-      <c r="M238" s="80">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="N238" s="77">
+      <c r="L238" s="3">
+        <v>0</v>
+      </c>
+      <c r="M238" s="5">
+        <f>L238/K238</f>
+        <v>0</v>
+      </c>
+      <c r="N238" s="3">
         <v>3</v>
       </c>
-      <c r="O238" s="80">
+      <c r="O238" s="5">
         <v>0.5</v>
       </c>
-      <c r="P238" s="80">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="Q238" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="R238" s="77">
-        <v>7.3414726E-2</v>
-      </c>
-      <c r="S238" s="77">
-        <v>2.5240014000000002E-2</v>
-      </c>
-      <c r="T238" s="77">
-        <v>0</v>
-      </c>
-      <c r="U238" s="77">
-        <v>0.16042857299999999</v>
-      </c>
-      <c r="V238" s="77">
-        <v>0.11591375499999999</v>
-      </c>
-      <c r="W238" s="77">
-        <v>0</v>
-      </c>
-      <c r="X238" s="77">
-        <v>1.4000268360000001</v>
-      </c>
-      <c r="Y238" s="77">
-        <v>0.716455379</v>
-      </c>
-      <c r="Z238" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA238" s="77">
-        <v>2.2741860000000001E-3</v>
-      </c>
-      <c r="AB238" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC238" s="77">
-        <v>5.8550110000000002E-3</v>
-      </c>
-      <c r="AD238" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE238" s="77">
-        <v>9.02968E-3</v>
-      </c>
-      <c r="AF238" s="77" t="s">
+      <c r="P238" s="5">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="Q238" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R238" s="3">
+        <v>7.4683706132417399E-2</v>
+      </c>
+      <c r="S238" s="3">
+        <v>7.5943769037068204E-2</v>
+      </c>
+      <c r="T238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U238" s="3">
+        <v>0.18745113285085799</v>
+      </c>
+      <c r="V238" s="3">
+        <v>0.16308281546502701</v>
+      </c>
+      <c r="W238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X238" s="3">
+        <v>1.78278828808513</v>
+      </c>
+      <c r="Y238" s="3">
+        <v>2.1253611925714901</v>
+      </c>
+      <c r="Z238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA238" s="16">
+        <v>5.6705789999999999E-2</v>
+      </c>
+      <c r="AB238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC238" s="112">
+        <v>2.929091E-2</v>
+      </c>
+      <c r="AD238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE238" s="16">
+        <v>5.4507170000000001E-2</v>
+      </c>
+      <c r="AF238" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:32">
-      <c r="A239" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B239" s="3">
-        <v>0.69411894291754594</v>
-      </c>
-      <c r="C239" s="138">
-        <v>0.75390666666666695</v>
-      </c>
-      <c r="D239" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="E239" s="138">
-        <v>0.57381651162790703</v>
-      </c>
-      <c r="F239" s="138">
-        <v>0.73768999999999996</v>
-      </c>
-      <c r="G239" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H239" s="138">
-        <v>2.1319954122621598</v>
-      </c>
-      <c r="I239" s="138">
-        <v>3.82934333333333</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K239" s="3">
+      <c r="A239" s="127" t="s">
+        <v>272</v>
+      </c>
+      <c r="B239" s="127">
+        <v>0.60949050314465403</v>
+      </c>
+      <c r="C239" s="127">
+        <v>0.669655</v>
+      </c>
+      <c r="D239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E239" s="127">
+        <v>0.38798861635220128</v>
+      </c>
+      <c r="F239" s="127">
+        <v>0.45938999999999997</v>
+      </c>
+      <c r="G239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H239" s="127">
+        <v>1.3191093081761005</v>
+      </c>
+      <c r="I239" s="127">
+        <v>2.6485499999999997</v>
+      </c>
+      <c r="J239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K239" s="127">
         <v>6</v>
       </c>
-      <c r="L239" s="3">
-        <v>0</v>
-      </c>
-      <c r="M239" s="5">
-        <f>L239/K239</f>
-        <v>0</v>
-      </c>
-      <c r="N239" s="3">
-        <v>3</v>
-      </c>
-      <c r="O239" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="P239" s="5">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="Q239" s="5" t="s">
+      <c r="L239" s="127">
+        <v>0</v>
+      </c>
+      <c r="M239" s="128">
+        <v>0</v>
+      </c>
+      <c r="N239" s="127">
+        <v>2</v>
+      </c>
+      <c r="O239" s="128">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P239" s="128">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="Q239" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="R239" s="3">
-        <v>7.4683706132417399E-2</v>
-      </c>
-      <c r="S239" s="3">
-        <v>7.5943769037068204E-2</v>
-      </c>
-      <c r="T239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U239" s="3">
-        <v>0.18745113285085799</v>
-      </c>
-      <c r="V239" s="3">
-        <v>0.16308281546502701</v>
-      </c>
-      <c r="W239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X239" s="3">
-        <v>1.78278828808513</v>
-      </c>
-      <c r="Y239" s="3">
-        <v>2.1253611925714901</v>
-      </c>
-      <c r="Z239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA239" s="16">
-        <v>5.6705789999999999E-2</v>
-      </c>
-      <c r="AB239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC239" s="112">
-        <v>2.929091E-2</v>
-      </c>
-      <c r="AD239" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE239" s="16">
-        <v>5.4507170000000001E-2</v>
-      </c>
-      <c r="AF239" s="3" t="s">
+      <c r="R239" s="127">
+        <v>0.10949746226805018</v>
+      </c>
+      <c r="S239" s="127">
+        <v>8.9488707248456784E-2</v>
+      </c>
+      <c r="T239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U239" s="127">
+        <v>0.18951610788637463</v>
+      </c>
+      <c r="V239" s="127">
+        <v>0.24201662422238682</v>
+      </c>
+      <c r="W239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="X239" s="127">
+        <v>1.6090461248586978</v>
+      </c>
+      <c r="Y239" s="127">
+        <v>1.4432173092319349</v>
+      </c>
+      <c r="Z239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA239" s="129">
+        <v>8.2646752386984296E-2</v>
+      </c>
+      <c r="AB239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC239" s="129">
+        <v>0.25230116896514798</v>
+      </c>
+      <c r="AD239" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE239" s="132">
+        <v>3.8064326556879503E-2</v>
+      </c>
+      <c r="AF239" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:32">
-      <c r="A240" s="127" t="s">
-        <v>272</v>
-      </c>
-      <c r="B240" s="127">
-        <v>0.60949050314465403</v>
+      <c r="A240" s="123" t="s">
+        <v>273</v>
+      </c>
+      <c r="B240" s="123">
+        <v>0.77076987179487189</v>
       </c>
       <c r="C240" s="127">
-        <v>0.669655</v>
+        <v>0.71914</v>
       </c>
       <c r="D240" s="127" t="s">
         <v>33</v>
       </c>
       <c r="E240" s="127">
-        <v>0.38798861635220128</v>
+        <v>0.74930664102564093</v>
       </c>
       <c r="F240" s="127">
-        <v>0.45938999999999997</v>
+        <v>0.55906999999999996</v>
       </c>
       <c r="G240" s="127" t="s">
         <v>33</v>
       </c>
       <c r="H240" s="127">
-        <v>1.3191093081761005</v>
+        <v>3.9357141025641025</v>
       </c>
       <c r="I240" s="127">
-        <v>2.6485499999999997</v>
+        <v>2.66039</v>
       </c>
       <c r="J240" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="K240" s="127">
-        <v>6</v>
-      </c>
-      <c r="L240" s="127">
-        <v>0</v>
-      </c>
-      <c r="M240" s="128">
-        <v>0</v>
-      </c>
-      <c r="N240" s="127">
-        <v>2</v>
-      </c>
-      <c r="O240" s="128">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P240" s="128">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="Q240" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="R240" s="127">
-        <v>0.10949746226805018</v>
-      </c>
-      <c r="S240" s="127">
-        <v>8.9488707248456784E-2</v>
-      </c>
-      <c r="T240" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U240" s="127">
-        <v>0.18951610788637463</v>
-      </c>
-      <c r="V240" s="127">
-        <v>0.24201662422238682</v>
-      </c>
-      <c r="W240" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="X240" s="127">
-        <v>1.6090461248586978</v>
-      </c>
-      <c r="Y240" s="127">
-        <v>1.4432173092319349</v>
-      </c>
-      <c r="Z240" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA240" s="129">
-        <v>8.2646752386984296E-2</v>
-      </c>
-      <c r="AB240" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC240" s="129">
-        <v>0.25230116896514798</v>
-      </c>
-      <c r="AD240" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE240" s="132">
-        <v>3.8064326556879503E-2</v>
-      </c>
-      <c r="AF240" s="127" t="s">
+      <c r="K240" s="123">
+        <v>1</v>
+      </c>
+      <c r="L240" s="123">
+        <v>0</v>
+      </c>
+      <c r="M240" s="124">
+        <v>0</v>
+      </c>
+      <c r="N240" s="123">
+        <v>0</v>
+      </c>
+      <c r="O240" s="124">
+        <v>0</v>
+      </c>
+      <c r="P240" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="R240" s="123">
+        <v>0.11958975636276981</v>
+      </c>
+      <c r="S240" s="123">
+        <v>0</v>
+      </c>
+      <c r="T240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U240" s="123">
+        <v>0.24633981879790356</v>
+      </c>
+      <c r="V240" s="123">
+        <v>0</v>
+      </c>
+      <c r="W240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X240" s="123">
+        <v>1.6671240532013976</v>
+      </c>
+      <c r="Y240" s="123">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE240" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF240" s="123" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:32">
-      <c r="A241" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B241" s="123">
-        <v>0.77076987179487189</v>
+      <c r="A241" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="B241" s="127">
+        <v>0.69672764309764312</v>
       </c>
       <c r="C241" s="127">
-        <v>0.71914</v>
-      </c>
-      <c r="D241" s="127" t="s">
-        <v>33</v>
+        <v>0.74781451612903238</v>
+      </c>
+      <c r="D241" s="127">
+        <v>0.64298999999999995</v>
       </c>
       <c r="E241" s="127">
-        <v>0.74930664102564093</v>
+        <v>0.57359875420875417</v>
       </c>
       <c r="F241" s="127">
-        <v>0.55906999999999996</v>
-      </c>
-      <c r="G241" s="127" t="s">
-        <v>33</v>
+        <v>0.6718696774193551</v>
+      </c>
+      <c r="G241" s="127">
+        <v>0.37406</v>
       </c>
       <c r="H241" s="127">
-        <v>3.9357141025641025</v>
+        <v>1.8927027609427611</v>
       </c>
       <c r="I241" s="127">
-        <v>2.66039</v>
-      </c>
-      <c r="J241" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="K241" s="123">
+        <v>2.9145083870967743</v>
+      </c>
+      <c r="J241" s="127">
+        <v>1.5107600000000001</v>
+      </c>
+      <c r="K241" s="127">
+        <v>32</v>
+      </c>
+      <c r="L241" s="127">
         <v>1</v>
       </c>
-      <c r="L241" s="123">
-        <v>0</v>
-      </c>
-      <c r="M241" s="124">
-        <v>0</v>
-      </c>
-      <c r="N241" s="123">
-        <v>0</v>
-      </c>
-      <c r="O241" s="124">
-        <v>0</v>
-      </c>
-      <c r="P241" s="124">
-        <v>0</v>
-      </c>
-      <c r="Q241" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="R241" s="123">
-        <v>0.11958975636276981</v>
-      </c>
-      <c r="S241" s="123">
-        <v>0</v>
-      </c>
-      <c r="T241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="U241" s="123">
-        <v>0.24633981879790356</v>
-      </c>
-      <c r="V241" s="123">
-        <v>0</v>
-      </c>
-      <c r="W241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="X241" s="123">
-        <v>1.6671240532013976</v>
-      </c>
-      <c r="Y241" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE241" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF241" s="123" t="s">
+      <c r="M241" s="128">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N241" s="127">
+        <v>12</v>
+      </c>
+      <c r="O241" s="128">
+        <v>0.375</v>
+      </c>
+      <c r="P241" s="128">
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="Q241" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="R241" s="127">
+        <v>7.9822492940859066E-2</v>
+      </c>
+      <c r="S241" s="127">
+        <v>5.0441401059991411E-2</v>
+      </c>
+      <c r="T241" s="127">
+        <v>0</v>
+      </c>
+      <c r="U241" s="127">
+        <v>0.15542912616062043</v>
+      </c>
+      <c r="V241" s="127">
+        <v>0.14996282828633861</v>
+      </c>
+      <c r="W241" s="127">
+        <v>0</v>
+      </c>
+      <c r="X241" s="127">
+        <v>1.608102179969821</v>
+      </c>
+      <c r="Y241" s="127">
+        <v>1.9205407993786656</v>
+      </c>
+      <c r="Z241" s="127">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="132">
+        <v>4.9485988754162004E-6</v>
+      </c>
+      <c r="AB241" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC241" s="132">
+        <v>6.4573327098627498E-4</v>
+      </c>
+      <c r="AD241" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE241" s="132">
+        <v>3.3790733195702199E-3</v>
+      </c>
+      <c r="AF241" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:32">
-      <c r="A242" s="127" t="s">
-        <v>274</v>
-      </c>
-      <c r="B242" s="127">
-        <v>0.69672764309764312</v>
-      </c>
-      <c r="C242" s="127">
-        <v>0.74781451612903238</v>
-      </c>
-      <c r="D242" s="127">
-        <v>0.64298999999999995</v>
-      </c>
-      <c r="E242" s="127">
-        <v>0.57359875420875417</v>
-      </c>
-      <c r="F242" s="127">
-        <v>0.6718696774193551</v>
-      </c>
-      <c r="G242" s="127">
-        <v>0.37406</v>
-      </c>
-      <c r="H242" s="127">
-        <v>1.8927027609427611</v>
-      </c>
-      <c r="I242" s="127">
-        <v>2.9145083870967743</v>
-      </c>
-      <c r="J242" s="127">
-        <v>1.5107600000000001</v>
-      </c>
-      <c r="K242" s="127">
-        <v>32</v>
-      </c>
-      <c r="L242" s="127">
-        <v>1</v>
-      </c>
-      <c r="M242" s="128">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N242" s="127">
-        <v>12</v>
-      </c>
-      <c r="O242" s="128">
-        <v>0.375</v>
-      </c>
-      <c r="P242" s="128">
-        <v>0.12371134020618557</v>
-      </c>
-      <c r="Q242" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="R242" s="127">
-        <v>7.9822492940859066E-2</v>
-      </c>
-      <c r="S242" s="127">
-        <v>5.0441401059991411E-2</v>
-      </c>
-      <c r="T242" s="127">
-        <v>0</v>
-      </c>
-      <c r="U242" s="127">
-        <v>0.15542912616062043</v>
-      </c>
-      <c r="V242" s="127">
-        <v>0.14996282828633861</v>
-      </c>
-      <c r="W242" s="127">
-        <v>0</v>
-      </c>
-      <c r="X242" s="127">
-        <v>1.608102179969821</v>
-      </c>
-      <c r="Y242" s="127">
-        <v>1.9205407993786656</v>
-      </c>
-      <c r="Z242" s="127">
-        <v>0</v>
-      </c>
-      <c r="AA242" s="132">
-        <v>4.9485988754162004E-6</v>
-      </c>
-      <c r="AB242" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC242" s="132">
-        <v>6.4573327098627498E-4</v>
-      </c>
-      <c r="AD242" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE242" s="132">
-        <v>3.3790733195702199E-3</v>
-      </c>
-      <c r="AF242" s="127" t="s">
+      <c r="A242" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B242" s="77">
+        <v>0.71665084400000001</v>
+      </c>
+      <c r="C242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E242" s="136">
+        <v>0.53298812900000003</v>
+      </c>
+      <c r="F242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" s="136">
+        <v>1.817085579</v>
+      </c>
+      <c r="I242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K242" s="133">
+        <v>0</v>
+      </c>
+      <c r="L242" s="77">
+        <v>0</v>
+      </c>
+      <c r="M242" s="80">
+        <v>0</v>
+      </c>
+      <c r="N242" s="77">
+        <v>0</v>
+      </c>
+      <c r="O242" s="80">
+        <v>0</v>
+      </c>
+      <c r="P242" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="R242" s="77">
+        <v>9.1344056000000007E-2</v>
+      </c>
+      <c r="S242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="T242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U242" s="77">
+        <v>0.176906598</v>
+      </c>
+      <c r="V242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="W242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X242" s="77">
+        <v>1.7803407170000001</v>
+      </c>
+      <c r="Y242" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE242" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF242" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="243" spans="1:32">
       <c r="A243" s="77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B243" s="77">
-        <v>0.71665084400000001</v>
-      </c>
-      <c r="C243" s="127" t="s">
-        <v>33</v>
+        <v>0.71354082900000004</v>
+      </c>
+      <c r="C243" s="136">
+        <v>0.74019461499999994</v>
       </c>
       <c r="D243" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="E243" s="137">
-        <v>0.53298812900000003</v>
-      </c>
-      <c r="F243" s="127" t="s">
-        <v>33</v>
+      <c r="E243" s="136">
+        <v>0.569768155</v>
+      </c>
+      <c r="F243" s="136">
+        <v>0.73864923100000002</v>
       </c>
       <c r="G243" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="H243" s="137">
-        <v>1.817085579</v>
-      </c>
-      <c r="I243" s="127" t="s">
-        <v>33</v>
+      <c r="H243" s="136">
+        <v>3.0743737430000002</v>
+      </c>
+      <c r="I243" s="136">
+        <v>4.4292400000000001</v>
       </c>
       <c r="J243" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="K243" s="134">
-        <v>0</v>
+      <c r="K243" s="77">
+        <v>13</v>
       </c>
       <c r="L243" s="77">
         <v>0</v>
@@ -27426,58 +27426,58 @@
         <v>0</v>
       </c>
       <c r="N243" s="77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O243" s="80">
-        <v>0</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="P243" s="80">
-        <v>0</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="Q243" s="77" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="R243" s="77">
-        <v>9.1344056000000007E-2</v>
-      </c>
-      <c r="S243" s="127" t="s">
-        <v>33</v>
+        <v>0.11454914200000001</v>
+      </c>
+      <c r="S243" s="77">
+        <v>0.155128086</v>
       </c>
       <c r="T243" s="77" t="s">
         <v>33</v>
       </c>
       <c r="U243" s="77">
-        <v>0.176906598</v>
-      </c>
-      <c r="V243" s="127" t="s">
-        <v>33</v>
+        <v>0.27525153200000002</v>
+      </c>
+      <c r="V243" s="77">
+        <v>0.29770998900000001</v>
       </c>
       <c r="W243" s="77" t="s">
         <v>33</v>
       </c>
       <c r="X243" s="77">
-        <v>1.7803407170000001</v>
-      </c>
-      <c r="Y243" s="127" t="s">
-        <v>33</v>
+        <v>2.1770996970000001</v>
+      </c>
+      <c r="Y243" s="77">
+        <v>1.4752597460000001</v>
       </c>
       <c r="Z243" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AA243" s="77" t="s">
-        <v>33</v>
+      <c r="AA243" s="77">
+        <v>0.27543189099999998</v>
       </c>
       <c r="AB243" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AC243" s="77" t="s">
-        <v>33</v>
+      <c r="AC243" s="77">
+        <v>3.3400695000000001E-2</v>
       </c>
       <c r="AD243" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AE243" s="77" t="s">
-        <v>33</v>
+      <c r="AE243" s="77">
+        <v>3.868532E-3</v>
       </c>
       <c r="AF243" s="77" t="s">
         <v>33</v>
@@ -27485,561 +27485,1207 @@
     </row>
     <row r="244" spans="1:32">
       <c r="A244" s="77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B244" s="77">
-        <v>0.71354082900000004</v>
-      </c>
-      <c r="C244" s="137">
-        <v>0.74019461499999994</v>
-      </c>
-      <c r="D244" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="E244" s="137">
-        <v>0.569768155</v>
-      </c>
-      <c r="F244" s="137">
-        <v>0.73864923100000002</v>
-      </c>
-      <c r="G244" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H244" s="137">
-        <v>3.0743737430000002</v>
-      </c>
-      <c r="I244" s="137">
-        <v>4.4292400000000001</v>
-      </c>
-      <c r="J244" s="127" t="s">
-        <v>33</v>
+        <v>0.64111626700000002</v>
+      </c>
+      <c r="C244" s="136">
+        <v>0.72748714299999995</v>
+      </c>
+      <c r="D244" s="136">
+        <v>0.54598833300000005</v>
+      </c>
+      <c r="E244" s="136">
+        <v>0.47552866700000002</v>
+      </c>
+      <c r="F244" s="136">
+        <v>0.644945714</v>
+      </c>
+      <c r="G244" s="136">
+        <v>0.31970166700000002</v>
+      </c>
+      <c r="H244" s="136">
+        <v>1.5966822329999999</v>
+      </c>
+      <c r="I244" s="136">
+        <v>3.4678242859999999</v>
+      </c>
+      <c r="J244" s="77">
+        <v>6.7491667000000005E-2</v>
       </c>
       <c r="K244" s="77">
         <v>13</v>
       </c>
       <c r="L244" s="77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M244" s="80">
-        <v>0</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="N244" s="77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O244" s="80">
-        <v>0.61539999999999995</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="P244" s="80">
-        <v>6.3500000000000001E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="Q244" s="77" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="R244" s="77">
-        <v>0.11454914200000001</v>
+        <v>0.11227456700000001</v>
       </c>
       <c r="S244" s="77">
-        <v>0.155128086</v>
-      </c>
-      <c r="T244" s="77" t="s">
-        <v>33</v>
+        <v>7.2869976000000003E-2</v>
+      </c>
+      <c r="T244" s="77">
+        <v>8.0691009999999994E-2</v>
       </c>
       <c r="U244" s="77">
-        <v>0.27525153200000002</v>
+        <v>0.196323261</v>
       </c>
       <c r="V244" s="77">
-        <v>0.29770998900000001</v>
-      </c>
-      <c r="W244" s="77" t="s">
-        <v>33</v>
+        <v>0.17662050100000001</v>
+      </c>
+      <c r="W244" s="77">
+        <v>6.9916929000000003E-2</v>
       </c>
       <c r="X244" s="77">
-        <v>2.1770996970000001</v>
+        <v>1.858680503</v>
       </c>
       <c r="Y244" s="77">
-        <v>1.4752597460000001</v>
-      </c>
-      <c r="Z244" s="77" t="s">
-        <v>33</v>
+        <v>1.9132274</v>
+      </c>
+      <c r="Z244" s="77">
+        <v>0.90616671800000004</v>
       </c>
       <c r="AA244" s="77">
-        <v>0.27543189099999998</v>
-      </c>
-      <c r="AB244" s="77" t="s">
-        <v>33</v>
+        <v>1.1219375E-2</v>
+      </c>
+      <c r="AB244" s="77">
+        <v>4.1363809999999997E-3</v>
       </c>
       <c r="AC244" s="77">
-        <v>3.3400695000000001E-2</v>
-      </c>
-      <c r="AD244" s="77" t="s">
-        <v>33</v>
+        <v>2.3200175E-2</v>
+      </c>
+      <c r="AD244" s="77">
+        <v>3.2599920000000002E-3</v>
       </c>
       <c r="AE244" s="77">
-        <v>3.868532E-3</v>
-      </c>
-      <c r="AF244" s="77" t="s">
-        <v>33</v>
+        <v>2.1468115999999999E-2</v>
+      </c>
+      <c r="AF244" s="77">
+        <v>4.3015190000000002E-3</v>
       </c>
     </row>
     <row r="245" spans="1:32">
-      <c r="A245" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="B245" s="77">
-        <v>0.64111626700000002</v>
-      </c>
-      <c r="C245" s="137">
-        <v>0.72748714299999995</v>
-      </c>
-      <c r="D245" s="137">
-        <v>0.54598833300000005</v>
-      </c>
-      <c r="E245" s="137">
-        <v>0.47552866700000002</v>
-      </c>
-      <c r="F245" s="137">
-        <v>0.644945714</v>
-      </c>
-      <c r="G245" s="137">
-        <v>0.31970166700000002</v>
-      </c>
-      <c r="H245" s="137">
-        <v>1.5966822329999999</v>
-      </c>
-      <c r="I245" s="137">
-        <v>3.4678242859999999</v>
-      </c>
-      <c r="J245" s="77">
-        <v>6.7491667000000005E-2</v>
-      </c>
-      <c r="K245" s="77">
-        <v>13</v>
-      </c>
-      <c r="L245" s="77">
+      <c r="A245" s="123" t="s">
+        <v>278</v>
+      </c>
+      <c r="B245" s="123">
+        <v>0.78040699290780136</v>
+      </c>
+      <c r="C245" s="127">
+        <v>0.77231799999999995</v>
+      </c>
+      <c r="D245" s="127">
+        <v>0.49834000000000001</v>
+      </c>
+      <c r="E245" s="127">
+        <v>0.72918173049645396</v>
+      </c>
+      <c r="F245" s="127">
+        <v>0.61694399999999994</v>
+      </c>
+      <c r="G245" s="127">
+        <v>0.20766999999999999</v>
+      </c>
+      <c r="H245" s="127">
+        <v>3.7651840425531913</v>
+      </c>
+      <c r="I245" s="127">
+        <v>3.147278</v>
+      </c>
+      <c r="J245" s="123">
+        <v>2.3446199999999999</v>
+      </c>
+      <c r="K245" s="123">
         <v>6</v>
       </c>
-      <c r="M245" s="80">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="N245" s="77">
-        <v>4</v>
-      </c>
-      <c r="O245" s="80">
-        <v>0.30769999999999997</v>
-      </c>
-      <c r="P245" s="80">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="Q245" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="R245" s="77">
-        <v>0.11227456700000001</v>
-      </c>
-      <c r="S245" s="77">
-        <v>7.2869976000000003E-2</v>
-      </c>
-      <c r="T245" s="77">
-        <v>8.0691009999999994E-2</v>
-      </c>
-      <c r="U245" s="77">
-        <v>0.196323261</v>
-      </c>
-      <c r="V245" s="77">
-        <v>0.17662050100000001</v>
-      </c>
-      <c r="W245" s="77">
-        <v>6.9916929000000003E-2</v>
-      </c>
-      <c r="X245" s="77">
-        <v>1.858680503</v>
-      </c>
-      <c r="Y245" s="77">
-        <v>1.9132274</v>
-      </c>
-      <c r="Z245" s="77">
-        <v>0.90616671800000004</v>
-      </c>
-      <c r="AA245" s="77">
-        <v>1.1219375E-2</v>
-      </c>
-      <c r="AB245" s="77">
-        <v>4.1363809999999997E-3</v>
-      </c>
-      <c r="AC245" s="77">
-        <v>2.3200175E-2</v>
-      </c>
-      <c r="AD245" s="77">
-        <v>3.2599920000000002E-3</v>
-      </c>
-      <c r="AE245" s="77">
-        <v>2.1468115999999999E-2</v>
-      </c>
-      <c r="AF245" s="77">
-        <v>4.3015190000000002E-3</v>
+      <c r="L245" s="123">
+        <v>1</v>
+      </c>
+      <c r="M245" s="124">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N245" s="123">
+        <v>2</v>
+      </c>
+      <c r="O245" s="124">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P245" s="124">
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="Q245" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="R245" s="123">
+        <v>8.5440172449033111E-2</v>
+      </c>
+      <c r="S245" s="123">
+        <v>8.9501359408670447E-2</v>
+      </c>
+      <c r="T245" s="123">
+        <v>0</v>
+      </c>
+      <c r="U245" s="123">
+        <v>0.25107861893850936</v>
+      </c>
+      <c r="V245" s="123">
+        <v>0.21984870685087055</v>
+      </c>
+      <c r="W245" s="123">
+        <v>0</v>
+      </c>
+      <c r="X245" s="123">
+        <v>1.6837026535147031</v>
+      </c>
+      <c r="Y245" s="123">
+        <v>2.9151984169342571</v>
+      </c>
+      <c r="Z245" s="123">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="134">
+        <v>0.42509099191002397</v>
+      </c>
+      <c r="AB245" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC245" s="134">
+        <v>0.15964129941192801</v>
+      </c>
+      <c r="AD245" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE245" s="134">
+        <v>0.33030422594359699</v>
+      </c>
+      <c r="AF245" s="123" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="246" spans="1:32">
-      <c r="A246" s="123" t="s">
-        <v>278</v>
-      </c>
-      <c r="B246" s="123">
-        <v>0.78040699290780136</v>
-      </c>
-      <c r="C246" s="127">
-        <v>0.77231799999999995</v>
-      </c>
-      <c r="D246" s="127">
-        <v>0.49834000000000001</v>
-      </c>
-      <c r="E246" s="127">
-        <v>0.72918173049645396</v>
-      </c>
-      <c r="F246" s="127">
-        <v>0.61694399999999994</v>
-      </c>
-      <c r="G246" s="127">
-        <v>0.20766999999999999</v>
-      </c>
-      <c r="H246" s="127">
-        <v>3.7651840425531913</v>
-      </c>
-      <c r="I246" s="127">
-        <v>3.147278</v>
-      </c>
-      <c r="J246" s="123">
-        <v>2.3446199999999999</v>
-      </c>
-      <c r="K246" s="123">
-        <v>6</v>
-      </c>
-      <c r="L246" s="123">
-        <v>1</v>
-      </c>
-      <c r="M246" s="124">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N246" s="123">
-        <v>2</v>
-      </c>
-      <c r="O246" s="124">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P246" s="124">
-        <v>4.807692307692308E-3</v>
-      </c>
-      <c r="Q246" s="123" t="s">
+      <c r="A246" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B246" s="77">
+        <v>0.753709038</v>
+      </c>
+      <c r="C246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E246" s="77">
+        <v>0.67391207900000005</v>
+      </c>
+      <c r="F246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H246" s="77">
+        <v>3.9007957389999999</v>
+      </c>
+      <c r="I246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K246" s="77">
+        <v>0</v>
+      </c>
+      <c r="L246" s="77">
+        <v>0</v>
+      </c>
+      <c r="M246" s="80">
+        <v>0</v>
+      </c>
+      <c r="N246" s="77">
+        <v>0</v>
+      </c>
+      <c r="O246" s="80">
+        <v>0</v>
+      </c>
+      <c r="P246" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="R246" s="123">
-        <v>8.5440172449033111E-2</v>
-      </c>
-      <c r="S246" s="123">
-        <v>8.9501359408670447E-2</v>
-      </c>
-      <c r="T246" s="123">
-        <v>0</v>
-      </c>
-      <c r="U246" s="123">
-        <v>0.25107861893850936</v>
-      </c>
-      <c r="V246" s="123">
-        <v>0.21984870685087055</v>
-      </c>
-      <c r="W246" s="123">
-        <v>0</v>
-      </c>
-      <c r="X246" s="123">
-        <v>1.6837026535147031</v>
-      </c>
-      <c r="Y246" s="123">
-        <v>2.9151984169342571</v>
-      </c>
-      <c r="Z246" s="123">
-        <v>0</v>
-      </c>
-      <c r="AA246" s="135">
-        <v>0.42509099191002397</v>
-      </c>
-      <c r="AB246" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC246" s="135">
-        <v>0.15964129941192801</v>
-      </c>
-      <c r="AD246" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE246" s="135">
-        <v>0.33030422594359699</v>
-      </c>
-      <c r="AF246" s="123" t="s">
+      <c r="R246" s="77">
+        <v>0.10053424</v>
+      </c>
+      <c r="S246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="T246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U246" s="77">
+        <v>0.26775137199999999</v>
+      </c>
+      <c r="V246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="W246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X246" s="77">
+        <v>1.4511905629999999</v>
+      </c>
+      <c r="Y246" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE246" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF246" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:32">
-      <c r="A247" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="B247" s="77">
-        <v>0.753709038</v>
-      </c>
-      <c r="C247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="E247" s="77">
-        <v>0.67391207900000005</v>
-      </c>
-      <c r="F247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="G247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H247" s="77">
-        <v>3.9007957389999999</v>
-      </c>
-      <c r="I247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="J247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="K247" s="77">
-        <v>0</v>
-      </c>
-      <c r="L247" s="77">
-        <v>0</v>
-      </c>
-      <c r="M247" s="80">
-        <v>0</v>
-      </c>
-      <c r="N247" s="77">
-        <v>0</v>
-      </c>
-      <c r="O247" s="80">
-        <v>0</v>
-      </c>
-      <c r="P247" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q247" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="R247" s="77">
-        <v>0.10053424</v>
-      </c>
-      <c r="S247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="T247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="U247" s="77">
-        <v>0.26775137199999999</v>
-      </c>
-      <c r="V247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="W247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="X247" s="77">
-        <v>1.4511905629999999</v>
-      </c>
-      <c r="Y247" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE247" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF247" s="77" t="s">
-        <v>33</v>
+      <c r="A247" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B247" s="123">
+        <v>0.7092486037735849</v>
+      </c>
+      <c r="C247" s="123">
+        <v>0.76768520000000007</v>
+      </c>
+      <c r="D247" s="123">
+        <v>0.59840500000000008</v>
+      </c>
+      <c r="E247" s="123">
+        <v>0.55969422641509425</v>
+      </c>
+      <c r="F247" s="123">
+        <v>0.64770480000000008</v>
+      </c>
+      <c r="G247" s="123">
+        <v>0.20768</v>
+      </c>
+      <c r="H247" s="123">
+        <v>2.7467772830188681</v>
+      </c>
+      <c r="I247" s="123">
+        <v>3.4173419999999997</v>
+      </c>
+      <c r="J247" s="123">
+        <v>-0.85911499999999996</v>
+      </c>
+      <c r="K247" s="123">
+        <v>27</v>
+      </c>
+      <c r="L247" s="123">
+        <v>2</v>
+      </c>
+      <c r="M247" s="124">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="N247" s="123">
+        <v>10</v>
+      </c>
+      <c r="O247" s="124">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="P247" s="124">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="Q247" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="R247" s="123">
+        <v>0.13225493340419731</v>
+      </c>
+      <c r="S247" s="123">
+        <v>6.377914380861506E-2</v>
+      </c>
+      <c r="T247" s="123">
+        <v>4.4155E-2</v>
+      </c>
+      <c r="U247" s="123">
+        <v>0.24782701917711247</v>
+      </c>
+      <c r="V247" s="123">
+        <v>0.21515919273170736</v>
+      </c>
+      <c r="W247" s="123">
+        <v>8.567000000000001E-2</v>
+      </c>
+      <c r="X247" s="123">
+        <v>1.7843311170241198</v>
+      </c>
+      <c r="Y247" s="123">
+        <v>1.2231171934365079</v>
+      </c>
+      <c r="Z247" s="123">
+        <v>8.4635000000000016E-2</v>
+      </c>
+      <c r="AA247" s="126">
+        <v>3.7124262868840199E-4</v>
+      </c>
+      <c r="AB247" s="125">
+        <v>6.2600488581566999E-2</v>
+      </c>
+      <c r="AC247" s="126">
+        <v>3.2875326442370803E-2</v>
+      </c>
+      <c r="AD247" s="125">
+        <v>5.32500558084456E-2</v>
+      </c>
+      <c r="AE247" s="126">
+        <v>9.7928970272254407E-3</v>
+      </c>
+      <c r="AF247" s="126">
+        <v>1.87234241858029E-2</v>
       </c>
     </row>
     <row r="248" spans="1:32">
       <c r="A248" s="123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B248" s="123">
-        <v>0.7092486037735849</v>
+        <v>0.76024164215686274</v>
       </c>
       <c r="C248" s="123">
-        <v>0.76768520000000007</v>
+        <v>0.7685249999999999</v>
       </c>
       <c r="D248" s="123">
-        <v>0.59840500000000008</v>
+        <v>0.74570000000000003</v>
       </c>
       <c r="E248" s="123">
-        <v>0.55969422641509425</v>
-      </c>
-      <c r="F248" s="123">
-        <v>0.64770480000000008</v>
+        <v>0.61035568627450976</v>
+      </c>
+      <c r="F248" s="127">
+        <v>0.65274999999999994</v>
       </c>
       <c r="G248" s="123">
-        <v>0.20768</v>
+        <v>0.69452999999999998</v>
       </c>
       <c r="H248" s="123">
-        <v>2.7467772830188681</v>
+        <v>2.8801743382352942</v>
       </c>
       <c r="I248" s="123">
-        <v>3.4173419999999997</v>
+        <v>3.2285349999999999</v>
       </c>
       <c r="J248" s="123">
-        <v>-0.85911499999999996</v>
+        <v>2.9147699999999999</v>
       </c>
       <c r="K248" s="123">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L248" s="123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M248" s="124">
-        <v>7.407407407407407E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N248" s="123">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O248" s="124">
-        <v>0.37037037037037035</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P248" s="124">
-        <v>0.12195121951219512</v>
+        <v>5.3475935828877002E-3</v>
       </c>
       <c r="Q248" s="123" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="R248" s="123">
-        <v>0.13225493340419731</v>
+        <v>7.0684156387517877E-2</v>
       </c>
       <c r="S248" s="123">
-        <v>6.377914380861506E-2</v>
+        <v>6.9695000000000007E-2</v>
       </c>
       <c r="T248" s="123">
-        <v>4.4155E-2</v>
+        <v>0</v>
       </c>
       <c r="U248" s="123">
-        <v>0.24782701917711247</v>
+        <v>0.27548630909723848</v>
       </c>
       <c r="V248" s="123">
-        <v>0.21515919273170736</v>
+        <v>0.29631000000000002</v>
       </c>
       <c r="W248" s="123">
-        <v>8.567000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="X248" s="123">
-        <v>1.7843311170241198</v>
+        <v>2.013919716487456</v>
       </c>
       <c r="Y248" s="123">
-        <v>1.2231171934365079</v>
+        <v>1.6224749999999999</v>
       </c>
       <c r="Z248" s="123">
-        <v>8.4635000000000016E-2</v>
-      </c>
-      <c r="AA248" s="126">
-        <v>3.7124262868840199E-4</v>
-      </c>
-      <c r="AB248" s="125">
-        <v>6.2600488581566999E-2</v>
-      </c>
-      <c r="AC248" s="126">
-        <v>3.2875326442370803E-2</v>
-      </c>
-      <c r="AD248" s="125">
-        <v>5.32500558084456E-2</v>
-      </c>
-      <c r="AE248" s="126">
-        <v>9.7928970272254407E-3</v>
-      </c>
-      <c r="AF248" s="126">
-        <v>1.87234241858029E-2</v>
+        <v>0</v>
+      </c>
+      <c r="AA248" s="125">
+        <v>0.44712416447882503</v>
+      </c>
+      <c r="AB248" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC248" s="125">
+        <v>0.43658262311469898</v>
+      </c>
+      <c r="AD248" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE248" s="125">
+        <v>0.40649546586788099</v>
+      </c>
+      <c r="AF248" s="123" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:32">
-      <c r="A249" t="s">
-        <v>281</v>
+      <c r="A249" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" s="77">
+        <v>0.64771163799999998</v>
+      </c>
+      <c r="C249" s="77">
+        <v>0.69576208299999998</v>
+      </c>
+      <c r="D249" s="77">
+        <v>0.49815999999999999</v>
+      </c>
+      <c r="E249" s="77">
+        <v>0.41826904500000001</v>
+      </c>
+      <c r="F249" s="77">
+        <v>0.498605417</v>
+      </c>
+      <c r="G249" s="77">
+        <v>0.2399375</v>
+      </c>
+      <c r="H249" s="77">
+        <v>1.523587789</v>
+      </c>
+      <c r="I249" s="77">
+        <v>2.4243143749999998</v>
+      </c>
+      <c r="J249" s="77">
+        <v>0.55205249999999995</v>
+      </c>
+      <c r="K249" s="77">
+        <v>52</v>
+      </c>
+      <c r="L249" s="77">
+        <v>4</v>
+      </c>
+      <c r="M249" s="80">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="N249" s="77">
+        <v>10</v>
+      </c>
+      <c r="O249" s="80">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="P249" s="80">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="Q249" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="R249" s="77">
+        <v>9.6440284000000001E-2</v>
+      </c>
+      <c r="S249" s="77">
+        <v>8.8119690000000001E-2</v>
+      </c>
+      <c r="T249" s="77">
+        <v>0.140307821</v>
+      </c>
+      <c r="U249" s="77">
+        <v>0.19021864399999999</v>
+      </c>
+      <c r="V249" s="77">
+        <v>0.19931633300000001</v>
+      </c>
+      <c r="W249" s="77">
+        <v>8.8995537999999999E-2</v>
+      </c>
+      <c r="X249" s="77">
+        <v>1.743898919</v>
+      </c>
+      <c r="Y249" s="77">
+        <v>1.8854003319999999</v>
+      </c>
+      <c r="Z249" s="77">
+        <v>0.84249389500000005</v>
+      </c>
+      <c r="AA249" s="77">
+        <v>3.0607600000000002E-4</v>
+      </c>
+      <c r="AB249" s="77">
+        <v>3.4740367000000001E-2</v>
+      </c>
+      <c r="AC249" s="77">
+        <v>4.4074689999999998E-3</v>
+      </c>
+      <c r="AD249" s="77">
+        <v>8.2173939999999994E-3</v>
+      </c>
+      <c r="AE249" s="77">
+        <v>1.0876900000000001E-3</v>
+      </c>
+      <c r="AF249" s="77">
+        <v>1.6749351999999999E-2</v>
       </c>
     </row>
     <row r="250" spans="1:32">
-      <c r="A250" t="s">
-        <v>282</v>
+      <c r="A250" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B250" s="77">
+        <v>0.78736872099999999</v>
+      </c>
+      <c r="C250" s="77">
+        <v>0.80705695700000002</v>
+      </c>
+      <c r="D250" s="77">
+        <v>0.76486125000000005</v>
+      </c>
+      <c r="E250" s="77">
+        <v>0.71903929</v>
+      </c>
+      <c r="F250" s="77">
+        <v>0.77092347800000005</v>
+      </c>
+      <c r="G250" s="77">
+        <v>0.56913124999999998</v>
+      </c>
+      <c r="H250" s="77">
+        <v>3.7520932330000001</v>
+      </c>
+      <c r="I250" s="77">
+        <v>4.0352882609999998</v>
+      </c>
+      <c r="J250" s="77">
+        <v>2.0951</v>
+      </c>
+      <c r="K250" s="77">
+        <v>31</v>
+      </c>
+      <c r="L250" s="77">
+        <v>8</v>
+      </c>
+      <c r="M250" s="80">
+        <v>0.2581</v>
+      </c>
+      <c r="N250" s="77">
+        <v>16</v>
+      </c>
+      <c r="O250" s="80">
+        <v>0.5161</v>
+      </c>
+      <c r="P250" s="80">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="Q250" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="R250" s="77">
+        <v>5.4710899E-2</v>
+      </c>
+      <c r="S250" s="77">
+        <v>4.8870588999999999E-2</v>
+      </c>
+      <c r="T250" s="77">
+        <v>5.9275776000000002E-2</v>
+      </c>
+      <c r="U250" s="77">
+        <v>0.22307961000000001</v>
+      </c>
+      <c r="V250" s="77">
+        <v>0.20838216800000001</v>
+      </c>
+      <c r="W250" s="77">
+        <v>0.194225075</v>
+      </c>
+      <c r="X250" s="77">
+        <v>1.792036223</v>
+      </c>
+      <c r="Y250" s="77">
+        <v>2.1000127239999999</v>
+      </c>
+      <c r="Z250" s="77">
+        <v>1.6421448329999999</v>
+      </c>
+      <c r="AA250" s="77">
+        <v>3.6394013000000003E-2</v>
+      </c>
+      <c r="AB250" s="77">
+        <v>5.6547782999999997E-2</v>
+      </c>
+      <c r="AC250" s="77">
+        <v>0.12783530400000001</v>
+      </c>
+      <c r="AD250" s="77">
+        <v>2.1004726000000001E-2</v>
+      </c>
+      <c r="AE250" s="77">
+        <v>0.265244759</v>
+      </c>
+      <c r="AF250" s="77">
+        <v>1.6045802000000001E-2</v>
       </c>
     </row>
     <row r="251" spans="1:32">
-      <c r="A251" t="s">
-        <v>283</v>
+      <c r="A251" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B251" s="77">
+        <v>0.62624827599999999</v>
+      </c>
+      <c r="C251" s="77">
+        <v>0.21597</v>
+      </c>
+      <c r="D251" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E251" s="77">
+        <v>0.54641793100000002</v>
+      </c>
+      <c r="F251" s="77">
+        <v>0.16538</v>
+      </c>
+      <c r="G251" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H251" s="77">
+        <v>2.1816778160000001</v>
+      </c>
+      <c r="I251" s="77">
+        <v>0</v>
+      </c>
+      <c r="J251" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K251" s="139">
+        <v>1</v>
+      </c>
+      <c r="L251" s="77">
+        <v>0</v>
+      </c>
+      <c r="M251" s="80">
+        <v>0</v>
+      </c>
+      <c r="N251" s="77">
+        <v>0</v>
+      </c>
+      <c r="O251" s="80">
+        <v>0</v>
+      </c>
+      <c r="P251" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="R251" s="77">
+        <v>0.21686567500000001</v>
+      </c>
+      <c r="S251" s="77">
+        <v>0</v>
+      </c>
+      <c r="T251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U251" s="77">
+        <v>0.236087406</v>
+      </c>
+      <c r="V251" s="77">
+        <v>0</v>
+      </c>
+      <c r="W251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X251" s="77">
+        <v>1.80825463</v>
+      </c>
+      <c r="Y251" s="77">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE251" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF251" s="77" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:32">
-      <c r="A252" t="s">
-        <v>284</v>
+      <c r="A252" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252" s="77">
+        <v>0.77140902499999997</v>
+      </c>
+      <c r="C252" s="77">
+        <v>0.82308999999999999</v>
+      </c>
+      <c r="D252" s="77">
+        <v>0.75851000000000002</v>
+      </c>
+      <c r="E252" s="77">
+        <v>0.64886325899999997</v>
+      </c>
+      <c r="F252" s="77">
+        <v>0.75604000000000005</v>
+      </c>
+      <c r="G252" s="77">
+        <v>0.66242999999999996</v>
+      </c>
+      <c r="H252" s="77">
+        <v>3.0573211470000001</v>
+      </c>
+      <c r="I252" s="77">
+        <v>4.869636667</v>
+      </c>
+      <c r="J252" s="77">
+        <v>3.7260450000000001</v>
+      </c>
+      <c r="K252" s="77">
+        <v>5</v>
+      </c>
+      <c r="L252" s="77">
+        <v>2</v>
+      </c>
+      <c r="M252" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="N252" s="77">
+        <v>2</v>
+      </c>
+      <c r="O252" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="P252" s="80">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="Q252" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="R252" s="77">
+        <v>6.0837658000000003E-2</v>
+      </c>
+      <c r="S252" s="77">
+        <v>8.3012438999999993E-2</v>
+      </c>
+      <c r="T252" s="77">
+        <v>2.051E-2</v>
+      </c>
+      <c r="U252" s="77">
+        <v>0.24583495999999999</v>
+      </c>
+      <c r="V252" s="77">
+        <v>0.34496911400000002</v>
+      </c>
+      <c r="W252" s="77">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="X252" s="77">
+        <v>1.7029371600000001</v>
+      </c>
+      <c r="Y252" s="77">
+        <v>2.6474865080000001</v>
+      </c>
+      <c r="Z252" s="77">
+        <v>0.34010499999999999</v>
+      </c>
+      <c r="AA252" s="77">
+        <v>0.196909641</v>
+      </c>
+      <c r="AB252" s="77">
+        <v>0.20993869100000001</v>
+      </c>
+      <c r="AC252" s="77">
+        <v>0.32224267899999998</v>
+      </c>
+      <c r="AD252" s="77">
+        <v>0.36321352000000001</v>
+      </c>
+      <c r="AE252" s="77">
+        <v>0.17882509799999999</v>
+      </c>
+      <c r="AF252" s="77">
+        <v>0.29740473699999997</v>
       </c>
     </row>
     <row r="253" spans="1:32">
-      <c r="A253" s="133" t="s">
-        <v>285</v>
+      <c r="A253" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B253" s="77">
+        <v>0.72301246600000002</v>
+      </c>
+      <c r="C253" s="77">
+        <v>0.77798428600000002</v>
+      </c>
+      <c r="D253" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E253" s="77">
+        <v>0.54063415500000001</v>
+      </c>
+      <c r="F253" s="77">
+        <v>0.71426642900000004</v>
+      </c>
+      <c r="G253" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H253" s="77">
+        <v>2.1229266720000002</v>
+      </c>
+      <c r="I253" s="77">
+        <v>3.7620757139999998</v>
+      </c>
+      <c r="J253" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K253" s="77">
+        <v>14</v>
+      </c>
+      <c r="L253" s="77">
+        <v>0</v>
+      </c>
+      <c r="M253" s="80">
+        <v>0</v>
+      </c>
+      <c r="N253" s="77">
+        <v>7</v>
+      </c>
+      <c r="O253" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P253" s="80">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="Q253" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="R253" s="77">
+        <v>7.3946177000000002E-2</v>
+      </c>
+      <c r="S253" s="77">
+        <v>4.1267508000000001E-2</v>
+      </c>
+      <c r="T253" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U253" s="77">
+        <v>0.20898214300000001</v>
+      </c>
+      <c r="V253" s="77">
+        <v>0.17212814200000001</v>
+      </c>
+      <c r="W253" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X253" s="77">
+        <v>1.9389168750000001</v>
+      </c>
+      <c r="Y253" s="77">
+        <v>1.6446787</v>
+      </c>
+      <c r="Z253" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA253" s="77">
+        <v>1.7292100000000001E-4</v>
+      </c>
+      <c r="AB253" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC253" s="77">
+        <v>1.312447E-3</v>
+      </c>
+      <c r="AD253" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE253" s="77">
+        <v>1.4188950000000001E-3</v>
+      </c>
+      <c r="AF253" s="77" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="1:32">
-      <c r="A254" t="s">
-        <v>286</v>
+      <c r="A254" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B254" s="77">
+        <v>0.64866530300000003</v>
+      </c>
+      <c r="C254" s="77">
+        <v>0.71162999999999998</v>
+      </c>
+      <c r="D254" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E254" s="77">
+        <v>0.50129884700000005</v>
+      </c>
+      <c r="F254" s="77">
+        <v>0.58031999999999995</v>
+      </c>
+      <c r="G254" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H254" s="77">
+        <v>1.760374611</v>
+      </c>
+      <c r="I254" s="77">
+        <v>2.0418249999999998</v>
+      </c>
+      <c r="J254" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K254" s="77">
+        <v>2</v>
+      </c>
+      <c r="L254" s="77">
+        <v>0</v>
+      </c>
+      <c r="M254" s="80">
+        <v>0</v>
+      </c>
+      <c r="N254" s="77">
+        <v>0</v>
+      </c>
+      <c r="O254" s="80">
+        <v>0</v>
+      </c>
+      <c r="P254" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="R254" s="77">
+        <v>0.13873951500000001</v>
+      </c>
+      <c r="S254" s="77">
+        <v>3.5580000000000001E-2</v>
+      </c>
+      <c r="T254" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U254" s="77">
+        <v>0.17302194200000001</v>
+      </c>
+      <c r="V254" s="77">
+        <v>0.12717000000000001</v>
+      </c>
+      <c r="W254" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X254" s="77">
+        <v>1.376934369</v>
+      </c>
+      <c r="Y254" s="77">
+        <v>0.640845</v>
+      </c>
+      <c r="Z254" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA254" s="77">
+        <v>0.125678176</v>
+      </c>
+      <c r="AB254" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC254" s="77">
+        <v>0.27134870999999999</v>
+      </c>
+      <c r="AD254" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE254" s="77">
+        <v>0.32495359699999998</v>
+      </c>
+      <c r="AF254" s="77" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="255" spans="1:32">
-      <c r="A255" t="s">
-        <v>287</v>
+      <c r="A255" s="127" t="s">
+        <v>288</v>
+      </c>
+      <c r="B255" s="127">
+        <v>0.71987863945578234</v>
+      </c>
+      <c r="C255" s="127">
+        <v>0.67291000000000001</v>
+      </c>
+      <c r="D255" s="127">
+        <v>0.77287400000000006</v>
+      </c>
+      <c r="E255" s="127">
+        <v>0.45661112244897961</v>
+      </c>
+      <c r="F255" s="127">
+        <v>0.15337000000000001</v>
+      </c>
+      <c r="G255" s="127">
+        <v>0.57905600000000013</v>
+      </c>
+      <c r="H255" s="127">
+        <v>2.2394494217687075</v>
+      </c>
+      <c r="I255" s="127">
+        <v>-1.3627</v>
+      </c>
+      <c r="J255" s="127">
+        <v>2.6336839999999997</v>
+      </c>
+      <c r="K255" s="127">
+        <v>6</v>
+      </c>
+      <c r="L255" s="127">
+        <v>5</v>
+      </c>
+      <c r="M255" s="128">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N255" s="127">
+        <v>0</v>
+      </c>
+      <c r="O255" s="128">
+        <v>0</v>
+      </c>
+      <c r="P255" s="128">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="R255" s="127">
+        <v>8.7792543904113646E-2</v>
+      </c>
+      <c r="S255" s="127">
+        <v>0</v>
+      </c>
+      <c r="T255" s="127">
+        <v>2.251470683797591E-2</v>
+      </c>
+      <c r="U255" s="127">
+        <v>0.24393436665659693</v>
+      </c>
+      <c r="V255" s="127">
+        <v>0</v>
+      </c>
+      <c r="W255" s="127">
+        <v>9.5014357567685531E-2</v>
+      </c>
+      <c r="X255" s="127">
+        <v>1.9569789200393133</v>
+      </c>
+      <c r="Y255" s="127">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="127">
+        <v>0.88899941720115883</v>
+      </c>
+      <c r="AA255" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB255" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC255" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD255" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE255" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF255" s="127" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="256" spans="1:32">
       <c r="A256" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
         <v>294</v>
       </c>
     </row>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/mendelian_conservation_summary.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="314">
   <si>
     <t>Gene</t>
   </si>
@@ -956,17 +956,23 @@
     <t>hmzdy</t>
   </si>
   <si>
-    <t>2.6965E+308</t>
-  </si>
-  <si>
     <t>SDHA</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Divergence</t>
+  </si>
+  <si>
+    <t>overall p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1149,6 +1155,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2150,7 +2163,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2291,6 +2304,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="854">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3483,11 +3500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH261"/>
+  <dimension ref="A1:AH264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA264" sqref="AA264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -20908,7 +20925,7 @@
         <v>0.56920000000000004</v>
       </c>
       <c r="D177" s="109" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="E177" s="78">
         <v>0.59275145799999995</v>
@@ -21795,7 +21812,7 @@
         <v>0.75850181800000005</v>
       </c>
       <c r="D186" s="109" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="E186" s="78">
         <v>0.52575105300000002</v>
@@ -21804,7 +21821,7 @@
         <v>0.64782545499999999</v>
       </c>
       <c r="G186" s="109" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="H186" s="78">
         <v>1.9987537150000001</v>
@@ -21813,7 +21830,7 @@
         <v>3.4460981820000001</v>
       </c>
       <c r="J186" s="109" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="K186" s="78">
         <v>11</v>
@@ -24737,7 +24754,7 @@
     </row>
     <row r="216" spans="1:34">
       <c r="A216" s="78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B216" s="78">
         <v>0.75491763599999995</v>
@@ -28052,22 +28069,22 @@
       <c r="Z249" s="77">
         <v>0.84249389500000005</v>
       </c>
-      <c r="AA249" s="77">
+      <c r="AA249" s="140">
         <v>3.0607600000000002E-4</v>
       </c>
-      <c r="AB249" s="77">
+      <c r="AB249" s="140">
         <v>3.4740367000000001E-2</v>
       </c>
-      <c r="AC249" s="77">
+      <c r="AC249" s="140">
         <v>4.4074689999999998E-3</v>
       </c>
-      <c r="AD249" s="77">
+      <c r="AD249" s="140">
         <v>8.2173939999999994E-3</v>
       </c>
-      <c r="AE249" s="77">
+      <c r="AE249" s="140">
         <v>1.0876900000000001E-3</v>
       </c>
-      <c r="AF249" s="77">
+      <c r="AF249" s="140">
         <v>1.6749351999999999E-2</v>
       </c>
     </row>
@@ -28150,22 +28167,22 @@
       <c r="Z250" s="77">
         <v>1.6421448329999999</v>
       </c>
-      <c r="AA250" s="77">
+      <c r="AA250" s="140">
         <v>3.6394013000000003E-2</v>
       </c>
-      <c r="AB250" s="77">
+      <c r="AB250" s="141">
         <v>5.6547782999999997E-2</v>
       </c>
-      <c r="AC250" s="77">
+      <c r="AC250" s="141">
         <v>0.12783530400000001</v>
       </c>
-      <c r="AD250" s="77">
+      <c r="AD250" s="140">
         <v>2.1004726000000001E-2</v>
       </c>
-      <c r="AE250" s="77">
+      <c r="AE250" s="141">
         <v>0.265244759</v>
       </c>
-      <c r="AF250" s="77">
+      <c r="AF250" s="140">
         <v>1.6045802000000001E-2</v>
       </c>
     </row>
@@ -28346,22 +28363,22 @@
       <c r="Z252" s="77">
         <v>0.34010499999999999</v>
       </c>
-      <c r="AA252" s="77">
+      <c r="AA252" s="141">
         <v>0.196909641</v>
       </c>
-      <c r="AB252" s="77">
+      <c r="AB252" s="141">
         <v>0.20993869100000001</v>
       </c>
-      <c r="AC252" s="77">
+      <c r="AC252" s="141">
         <v>0.32224267899999998</v>
       </c>
-      <c r="AD252" s="77">
+      <c r="AD252" s="141">
         <v>0.36321352000000001</v>
       </c>
-      <c r="AE252" s="77">
+      <c r="AE252" s="141">
         <v>0.17882509799999999</v>
       </c>
-      <c r="AF252" s="77">
+      <c r="AF252" s="141">
         <v>0.29740473699999997</v>
       </c>
     </row>
@@ -28444,19 +28461,19 @@
       <c r="Z253" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AA253" s="77">
+      <c r="AA253" s="140">
         <v>1.7292100000000001E-4</v>
       </c>
       <c r="AB253" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AC253" s="77">
+      <c r="AC253" s="140">
         <v>1.312447E-3</v>
       </c>
       <c r="AD253" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AE253" s="77">
+      <c r="AE253" s="140">
         <v>1.4188950000000001E-3</v>
       </c>
       <c r="AF253" s="77" t="s">
@@ -28542,19 +28559,19 @@
       <c r="Z254" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AA254" s="77">
+      <c r="AA254" s="141">
         <v>0.125678176</v>
       </c>
       <c r="AB254" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AC254" s="77">
+      <c r="AC254" s="141">
         <v>0.27134870999999999</v>
       </c>
       <c r="AD254" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AE254" s="77">
+      <c r="AE254" s="141">
         <v>0.32495359699999998</v>
       </c>
       <c r="AF254" s="77" t="s">
@@ -28660,33 +28677,872 @@
       </c>
     </row>
     <row r="256" spans="1:32">
-      <c r="A256" t="s">
+      <c r="A256" s="123" t="s">
         <v>289</v>
       </c>
+      <c r="B256" s="123">
+        <v>0.79619742911153124</v>
+      </c>
+      <c r="C256" s="123">
+        <v>0.819581</v>
+      </c>
+      <c r="D256" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E256" s="123">
+        <v>0.71907848771266536</v>
+      </c>
+      <c r="F256" s="123">
+        <v>0.80606450000000007</v>
+      </c>
+      <c r="G256" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H256" s="123">
+        <v>3.8889060680529304</v>
+      </c>
+      <c r="I256" s="123">
+        <v>4.6842420000000002</v>
+      </c>
+      <c r="J256" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K256" s="123">
+        <v>40</v>
+      </c>
+      <c r="L256" s="123">
+        <v>0</v>
+      </c>
+      <c r="M256" s="124">
+        <v>0</v>
+      </c>
+      <c r="N256" s="123">
+        <v>31</v>
+      </c>
+      <c r="O256" s="124">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P256" s="124">
+        <v>0.10064935064935066</v>
+      </c>
+      <c r="Q256" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="R256" s="123">
+        <v>5.1205979423698644E-2</v>
+      </c>
+      <c r="S256" s="123">
+        <v>4.4417765691218636E-2</v>
+      </c>
+      <c r="T256" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U256" s="123">
+        <v>0.21672505593039848</v>
+      </c>
+      <c r="V256" s="123">
+        <v>0.16747213436792999</v>
+      </c>
+      <c r="W256" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X256" s="123">
+        <v>1.983584323376935</v>
+      </c>
+      <c r="Y256" s="123">
+        <v>2.019214799372766</v>
+      </c>
+      <c r="Z256" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA256" s="126">
+        <v>1.46654978564403E-3</v>
+      </c>
+      <c r="AB256" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC256" s="126">
+        <v>1.8172297561323701E-3</v>
+      </c>
+      <c r="AD256" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE256" s="126">
+        <v>1.0509840262619899E-2</v>
+      </c>
+      <c r="AF256" s="123" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="257" spans="1:32">
+      <c r="A257" s="77" t="s">
         <v>290</v>
       </c>
+      <c r="B257" s="77">
+        <v>0.79323983200000003</v>
+      </c>
+      <c r="C257" s="77">
+        <v>0.79738500000000001</v>
+      </c>
+      <c r="D257" s="77">
+        <v>0.85350999999999999</v>
+      </c>
+      <c r="E257" s="77">
+        <v>0.73326657399999995</v>
+      </c>
+      <c r="F257" s="77">
+        <v>0.78954250000000004</v>
+      </c>
+      <c r="G257" s="77">
+        <v>0.87688500000000003</v>
+      </c>
+      <c r="H257" s="77">
+        <v>3.9319952329999999</v>
+      </c>
+      <c r="I257" s="77">
+        <v>3.0966</v>
+      </c>
+      <c r="J257" s="77">
+        <v>5.8177500000000002</v>
+      </c>
+      <c r="K257" s="77">
+        <v>6</v>
+      </c>
+      <c r="L257" s="77">
+        <v>2</v>
+      </c>
+      <c r="M257" s="80">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="N257" s="77">
+        <v>3</v>
+      </c>
+      <c r="O257" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P257" s="80">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="Q257" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="R257" s="77">
+        <v>6.3205911000000004E-2</v>
+      </c>
+      <c r="S257" s="77">
+        <v>4.3532581000000001E-2</v>
+      </c>
+      <c r="T257" s="77">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="U257" s="77">
+        <v>0.22820193499999999</v>
+      </c>
+      <c r="V257" s="77">
+        <v>0.25437464399999998</v>
+      </c>
+      <c r="W257" s="77">
+        <v>1.9785000000000001E-2</v>
+      </c>
+      <c r="X257" s="77">
+        <v>1.9672635119999999</v>
+      </c>
+      <c r="Y257" s="77">
+        <v>2.729567898</v>
+      </c>
+      <c r="Z257" s="77">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="AA257" s="141">
+        <v>0.431091803</v>
+      </c>
+      <c r="AB257" s="141">
+        <v>0.121685168</v>
+      </c>
+      <c r="AC257" s="141">
+        <v>0.34448269599999998</v>
+      </c>
+      <c r="AD257" s="141">
+        <v>0.30934616700000001</v>
+      </c>
+      <c r="AE257" s="141">
+        <v>0.292211316</v>
+      </c>
+      <c r="AF257" s="141">
+        <v>0.14844049300000001</v>
+      </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="258" spans="1:32">
+      <c r="A258" s="123" t="s">
         <v>291</v>
       </c>
+      <c r="B258" s="123">
+        <v>0.77375819819819824</v>
+      </c>
+      <c r="C258" s="123">
+        <v>0.83098000000000005</v>
+      </c>
+      <c r="D258" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" s="123">
+        <v>0.69708576576576564</v>
+      </c>
+      <c r="F258" s="123">
+        <v>0.83123999999999998</v>
+      </c>
+      <c r="G258" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H258" s="123">
+        <v>3.4619285585585584</v>
+      </c>
+      <c r="I258" s="123">
+        <v>5.9494100000000003</v>
+      </c>
+      <c r="J258" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K258" s="123">
+        <v>2</v>
+      </c>
+      <c r="L258" s="123">
+        <v>0</v>
+      </c>
+      <c r="M258" s="124">
+        <v>0</v>
+      </c>
+      <c r="N258" s="123">
+        <v>2</v>
+      </c>
+      <c r="O258" s="124">
+        <v>1</v>
+      </c>
+      <c r="P258" s="124">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="Q258" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="R258" s="123">
+        <v>6.0803573748072527E-2</v>
+      </c>
+      <c r="S258" s="123">
+        <v>3.014E-2</v>
+      </c>
+      <c r="T258" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U258" s="123">
+        <v>0.20657011437364681</v>
+      </c>
+      <c r="V258" s="123">
+        <v>3.3420000000000005E-2</v>
+      </c>
+      <c r="W258" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X258" s="123">
+        <v>1.8630769688852671</v>
+      </c>
+      <c r="Y258" s="123">
+        <v>1.2457699999999998</v>
+      </c>
+      <c r="Z258" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA258" s="125">
+        <v>0.117220897622846</v>
+      </c>
+      <c r="AB258" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC258" s="125">
+        <v>7.1623435093714799E-2</v>
+      </c>
+      <c r="AD258" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE258" s="125">
+        <v>0.110330451248231</v>
+      </c>
+      <c r="AF258" s="123" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="259" spans="1:32">
+      <c r="A259" s="123" t="s">
         <v>292</v>
       </c>
+      <c r="B259" s="123">
+        <v>0.68999636079249216</v>
+      </c>
+      <c r="C259" s="123">
+        <v>0.7348433333333334</v>
+      </c>
+      <c r="D259" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E259" s="123">
+        <v>0.53780417101147027</v>
+      </c>
+      <c r="F259" s="123">
+        <v>0.73664333333333332</v>
+      </c>
+      <c r="G259" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H259" s="123">
+        <v>2.6296687799791449</v>
+      </c>
+      <c r="I259" s="123">
+        <v>4.3210266666666666</v>
+      </c>
+      <c r="J259" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K259" s="123">
+        <v>3</v>
+      </c>
+      <c r="L259" s="123">
+        <v>0</v>
+      </c>
+      <c r="M259" s="124">
+        <v>0</v>
+      </c>
+      <c r="N259" s="123">
+        <v>2</v>
+      </c>
+      <c r="O259" s="124">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P259" s="124">
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="Q259" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="R259" s="123">
+        <v>0.14040718229655466</v>
+      </c>
+      <c r="S259" s="123">
+        <v>0.13747583698801605</v>
+      </c>
+      <c r="T259" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U259" s="123">
+        <v>0.25361473497033438</v>
+      </c>
+      <c r="V259" s="123">
+        <v>0.29251618420563025</v>
+      </c>
+      <c r="W259" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X259" s="123">
+        <v>1.8654525380271629</v>
+      </c>
+      <c r="Y259" s="123">
+        <v>0.94558119469221447</v>
+      </c>
+      <c r="Z259" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA259" s="125">
+        <v>0.31475215426963898</v>
+      </c>
+      <c r="AB259" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC259" s="125">
+        <v>0.180312916610746</v>
+      </c>
+      <c r="AD259" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE259" s="126">
+        <v>4.5624813453455301E-2</v>
+      </c>
+      <c r="AF259" s="123" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="260" spans="1:32">
+      <c r="A260" s="77" t="s">
         <v>293</v>
       </c>
+      <c r="B260" s="77">
+        <v>0.70865364200000003</v>
+      </c>
+      <c r="C260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E260" s="77">
+        <v>0.54949085499999994</v>
+      </c>
+      <c r="F260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H260" s="77">
+        <v>2.492049723</v>
+      </c>
+      <c r="I260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K260" s="77">
+        <v>0</v>
+      </c>
+      <c r="L260" s="77">
+        <v>0</v>
+      </c>
+      <c r="M260" s="80">
+        <v>0</v>
+      </c>
+      <c r="N260" s="77">
+        <v>0</v>
+      </c>
+      <c r="O260" s="80">
+        <v>0</v>
+      </c>
+      <c r="P260" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="R260" s="77">
+        <v>0.110718541</v>
+      </c>
+      <c r="S260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="T260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U260" s="77">
+        <v>0.239751249</v>
+      </c>
+      <c r="V260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="W260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X260" s="77">
+        <v>2.0153830899999998</v>
+      </c>
+      <c r="Y260" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE260" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF260" s="77" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="261" spans="1:32">
+      <c r="A261" s="123" t="s">
         <v>294</v>
+      </c>
+      <c r="B261" s="123">
+        <v>0.66720381052631594</v>
+      </c>
+      <c r="C261" s="123">
+        <v>0.78712599999999999</v>
+      </c>
+      <c r="D261" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E261" s="123">
+        <v>0.53801955789473688</v>
+      </c>
+      <c r="F261" s="123">
+        <v>0.75298399999999999</v>
+      </c>
+      <c r="G261" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H261" s="123">
+        <v>2.2182053473684209</v>
+      </c>
+      <c r="I261" s="123">
+        <v>4.3897599999999999</v>
+      </c>
+      <c r="J261" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K261" s="123">
+        <v>5</v>
+      </c>
+      <c r="L261" s="123">
+        <v>0</v>
+      </c>
+      <c r="M261" s="124">
+        <v>0</v>
+      </c>
+      <c r="N261" s="123">
+        <v>4</v>
+      </c>
+      <c r="O261" s="124">
+        <v>0.8</v>
+      </c>
+      <c r="P261" s="124">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="Q261" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="R261" s="123">
+        <v>0.11917524481025896</v>
+      </c>
+      <c r="S261" s="123">
+        <v>3.1242760825509631E-2</v>
+      </c>
+      <c r="T261" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U261" s="123">
+        <v>0.21496740908140696</v>
+      </c>
+      <c r="V261" s="123">
+        <v>9.7747814829795526E-2</v>
+      </c>
+      <c r="W261" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X261" s="123">
+        <v>1.6960750644674449</v>
+      </c>
+      <c r="Y261" s="123">
+        <v>1.6246410944328595</v>
+      </c>
+      <c r="Z261" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA261" s="126">
+        <v>6.6427076803390395E-4</v>
+      </c>
+      <c r="AB261" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC261" s="126">
+        <v>4.3338396908630498E-3</v>
+      </c>
+      <c r="AD261" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE261" s="126">
+        <v>2.0535242208296101E-2</v>
+      </c>
+      <c r="AF261" s="123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:32">
+      <c r="A262" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B262" s="1">
+        <f>AVERAGE(B2:B261)</f>
+        <v>0.72557881651433609</v>
+      </c>
+      <c r="C262" s="1">
+        <f t="shared" ref="C262:AF262" si="1">AVERAGE(C2:C261)</f>
+        <v>0.76646218719017056</v>
+      </c>
+      <c r="D262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67422784967307492</v>
+      </c>
+      <c r="E262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58443663797369305</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68580681532260013</v>
+      </c>
+      <c r="G262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45041343123829225</v>
+      </c>
+      <c r="H262" s="1">
+        <f t="shared" si="1"/>
+        <v>2.598308001595437</v>
+      </c>
+      <c r="I262" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5019988309849031</v>
+      </c>
+      <c r="J262" s="1">
+        <f t="shared" si="1"/>
+        <v>1.586315496487529</v>
+      </c>
+      <c r="K262" s="1">
+        <f t="shared" si="1"/>
+        <v>11.594594594594595</v>
+      </c>
+      <c r="L262" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0386100386100385</v>
+      </c>
+      <c r="M262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19056938173384649</v>
+      </c>
+      <c r="N262" s="1">
+        <f t="shared" si="1"/>
+        <v>5.24609375</v>
+      </c>
+      <c r="O262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37899423635829493</v>
+      </c>
+      <c r="P262" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3657966545198675E-2</v>
+      </c>
+      <c r="Q262" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11283593767434612</v>
+      </c>
+      <c r="S262" s="1">
+        <f t="shared" si="1"/>
+        <v>5.94069127016396E-2</v>
+      </c>
+      <c r="T262" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6561098343756717E-2</v>
+      </c>
+      <c r="U262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22574983660441691</v>
+      </c>
+      <c r="V262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14848493104811569</v>
+      </c>
+      <c r="W262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10466684174292902</v>
+      </c>
+      <c r="X262" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7966777962846503</v>
+      </c>
+      <c r="Y262" s="1">
+        <f t="shared" si="1"/>
+        <v>1.250642888386744</v>
+      </c>
+      <c r="Z262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84146243938981147</v>
+      </c>
+      <c r="AA262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11929791255377606</v>
+      </c>
+      <c r="AB262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15174987162499823</v>
+      </c>
+      <c r="AC262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13149233008052322</v>
+      </c>
+      <c r="AD262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13633531528276352</v>
+      </c>
+      <c r="AE262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12462687396115429</v>
+      </c>
+      <c r="AF262" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12101555956435316</v>
+      </c>
+    </row>
+    <row r="263" spans="1:32">
+      <c r="A263" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B263" s="1">
+        <f>STDEV(B2:B261)</f>
+        <v>0.12375695767753941</v>
+      </c>
+      <c r="C263" s="1">
+        <f t="shared" ref="C263:AF263" si="2">STDEV(C2:C261)</f>
+        <v>0.22867425328076113</v>
+      </c>
+      <c r="D263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19905797425063318</v>
+      </c>
+      <c r="E263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12778919047588613</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16049106815573827</v>
+      </c>
+      <c r="G263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19083822761026387</v>
+      </c>
+      <c r="H263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88025416078482421</v>
+      </c>
+      <c r="I263" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2637220561955194</v>
+      </c>
+      <c r="J263" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5422927196379068</v>
+      </c>
+      <c r="K263" s="1">
+        <f t="shared" si="2"/>
+        <v>14.250857778131421</v>
+      </c>
+      <c r="L263" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4504318905119149</v>
+      </c>
+      <c r="M263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23431334596738801</v>
+      </c>
+      <c r="N263" s="1">
+        <f t="shared" si="2"/>
+        <v>7.739254687161103</v>
+      </c>
+      <c r="O263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29543388988801739</v>
+      </c>
+      <c r="P263" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9938145714456095E-2</v>
+      </c>
+      <c r="Q263" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18510862495664354</v>
+      </c>
+      <c r="S263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11423600030743716</v>
+      </c>
+      <c r="T263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25908590748415944</v>
+      </c>
+      <c r="U263" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3810024500728589E-2</v>
+      </c>
+      <c r="V263" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5366996763570124E-2</v>
+      </c>
+      <c r="W263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10853152834318112</v>
+      </c>
+      <c r="X263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25090046441287772</v>
+      </c>
+      <c r="Y263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73370740526566891</v>
+      </c>
+      <c r="Z263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84791261171239973</v>
+      </c>
+      <c r="AA263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14589556787145413</v>
+      </c>
+      <c r="AB263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12835707819651607</v>
+      </c>
+      <c r="AC263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14939215511569179</v>
+      </c>
+      <c r="AD263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12587018044824161</v>
+      </c>
+      <c r="AE263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14022799455519522</v>
+      </c>
+      <c r="AF263" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10545895000018869</v>
+      </c>
+    </row>
+    <row r="264" spans="1:32">
+      <c r="Z264" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA264" s="142">
+        <v>7.776982E-3</v>
+      </c>
+      <c r="AB264" s="143">
+        <v>1.7342689999999998E-5</v>
+      </c>
+      <c r="AC264" s="143">
+        <v>1.6822650000000001E-13</v>
+      </c>
+      <c r="AD264" s="143">
+        <v>1.050539E-26</v>
+      </c>
+      <c r="AE264" s="143">
+        <v>1.5451570000000001E-17</v>
+      </c>
+      <c r="AF264" s="143">
+        <v>2.9771060000000001E-27</v>
       </c>
     </row>
   </sheetData>
